--- a/suppxls/Scen_CombustionEmissions.xlsx
+++ b/suppxls/Scen_CombustionEmissions.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{383FDBB4-FF7B-41D8-AF62-904C8C6F4760}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84786141-F5AC-4A02-9283-724B942F9370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9120" yWindow="-18630" windowWidth="21480" windowHeight="15600" xr2:uid="{5C169CAC-8982-47AA-A2BD-20E5E721E68B}"/>
+    <workbookView xWindow="2190" yWindow="2460" windowWidth="26610" windowHeight="13740" xr2:uid="{5C169CAC-8982-47AA-A2BD-20E5E721E68B}"/>
   </bookViews>
   <sheets>
     <sheet name="CombustionEmissions" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="40">
   <si>
     <t>Combustion Emission Factors</t>
   </si>
@@ -277,15 +277,25 @@
   </si>
   <si>
     <t>PM10S</t>
+  </si>
+  <si>
+    <t>ENV_ACT</t>
+  </si>
+  <si>
+    <t>TADJET*</t>
+  </si>
+  <si>
+    <t>PSET_PN</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
+  <numFmts count="3">
     <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00;[Red]&quot;-&quot;[$£-809]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
+    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -367,7 +377,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -377,6 +387,7 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 2 2 2" xfId="1" xr:uid="{39415C90-2BAA-44BE-A516-ED7D1B21DDFA}"/>
@@ -1731,24 +1742,25 @@
   <sheetPr codeName="Sheet17">
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:L80"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B17" sqref="B17:I35"/>
       <selection pane="topRight" activeCell="B17" sqref="B17:I35"/>
       <selection pane="bottomLeft" activeCell="B17" sqref="B17:I35"/>
-      <selection pane="bottomRight" activeCell="C16" sqref="C16"/>
+      <selection pane="bottomRight" activeCell="P17" sqref="P17:P18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="31.28515625" customWidth="1"/>
     <col min="2" max="2" width="11.7109375" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1757,22 +1769,22 @@
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -1804,7 +1816,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1842,7 +1854,7 @@
         <v>91.7</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1880,7 +1892,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1918,7 +1930,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1956,7 +1968,7 @@
         <v>1.5290999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1994,7 +2006,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2032,7 +2044,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2070,7 +2082,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2084,15 +2096,18 @@
         <v>4.5769644752755773E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>22</v>
       </c>
       <c r="H15">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>23</v>
       </c>
@@ -2111,8 +2126,20 @@
       <c r="H16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>23</v>
+      </c>
+      <c r="N16" t="s">
+        <v>39</v>
+      </c>
+      <c r="O16" t="s">
+        <v>24</v>
+      </c>
+      <c r="P16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>29</v>
       </c>
@@ -2134,14 +2161,28 @@
       <c r="H17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>37</v>
+      </c>
+      <c r="N17" t="s">
+        <v>38</v>
+      </c>
+      <c r="O17" t="str">
+        <f>B6</f>
+        <v>CO2C</v>
+      </c>
+      <c r="P17">
+        <f>C6</f>
+        <v>96.25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>29</v>
       </c>
       <c r="C18" t="str" cm="1">
-        <f t="array" ref="C18">"???"&amp;INDEX($C$5:$L$5,1,H18)</f>
-        <v>???CLE</v>
+        <f t="array" ref="C18">"???"&amp;INDEX($C$5:$L$5,1,H18)&amp;",-UPSCLE"</f>
+        <v>???CLE,-UPSCLE</v>
       </c>
       <c r="D18" t="str" cm="1">
         <f t="array" ref="D18">INDEX($B$6:$B$13,G18)</f>
@@ -2159,14 +2200,28 @@
         <f>IF(H17=$H$15,1,H17+1)</f>
         <v>2</v>
       </c>
-    </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>37</v>
+      </c>
+      <c r="N18" t="s">
+        <v>38</v>
+      </c>
+      <c r="O18" t="str">
+        <f t="shared" ref="O18:O23" si="0">B7</f>
+        <v>CH4C</v>
+      </c>
+      <c r="P18" s="7">
+        <f t="shared" ref="P18:P23" si="1">C7</f>
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="str" cm="1">
-        <f t="array" ref="C19">"???"&amp;INDEX($C$5:$L$5,1,H19)</f>
-        <v>???GAS</v>
+        <f t="array" ref="C19">"???"&amp;INDEX($C$5:$L$5,1,H19)&amp;",-UPSGAS"</f>
+        <v>???GAS,-UPSGAS</v>
       </c>
       <c r="D19" t="str" cm="1">
         <f t="array" ref="D19">INDEX($B$6:$B$13,G19)</f>
@@ -2177,15 +2232,29 @@
         <v>56.1</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G80" si="0">IF(H18=$H$15,G18+1,G18)</f>
+        <f t="shared" ref="G19:G80" si="2">IF(H18=$H$15,G18+1,G18)</f>
         <v>1</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:H80" si="1">IF(H18=$H$15,1,H18+1)</f>
+        <f t="shared" ref="H19:H80" si="3">IF(H18=$H$15,1,H18+1)</f>
         <v>3</v>
       </c>
-    </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>37</v>
+      </c>
+      <c r="N19" t="s">
+        <v>38</v>
+      </c>
+      <c r="O19" t="str">
+        <f t="shared" si="0"/>
+        <v>N2OS</v>
+      </c>
+      <c r="P19">
+        <f t="shared" si="1"/>
+        <v>1.4E-3</v>
+      </c>
+    </row>
+    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>29</v>
       </c>
@@ -2202,15 +2271,29 @@
         <v>70</v>
       </c>
       <c r="G20">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H20">
+        <f t="shared" si="3"/>
+        <v>4</v>
+      </c>
+      <c r="M20" t="s">
+        <v>37</v>
+      </c>
+      <c r="N20" t="s">
+        <v>38</v>
+      </c>
+      <c r="O20" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H20">
+        <v>SOXS</v>
+      </c>
+      <c r="P20">
         <f t="shared" si="1"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.62619999999999998</v>
+      </c>
+    </row>
+    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>29</v>
       </c>
@@ -2227,15 +2310,29 @@
         <v>74.066699999999997</v>
       </c>
       <c r="G21">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H21">
+        <f t="shared" si="3"/>
+        <v>5</v>
+      </c>
+      <c r="M21" t="s">
+        <v>37</v>
+      </c>
+      <c r="N21" t="s">
+        <v>38</v>
+      </c>
+      <c r="O21" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H21">
+        <v>NOXS</v>
+      </c>
+      <c r="P21">
         <f t="shared" si="1"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>29</v>
       </c>
@@ -2252,15 +2349,29 @@
         <v>69.3</v>
       </c>
       <c r="G22">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="3"/>
+        <v>6</v>
+      </c>
+      <c r="M22" t="s">
+        <v>37</v>
+      </c>
+      <c r="N22" t="s">
+        <v>38</v>
+      </c>
+      <c r="O22" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H22">
+        <v>CMOX</v>
+      </c>
+      <c r="P22">
         <f t="shared" si="1"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>29</v>
       </c>
@@ -2277,21 +2388,35 @@
         <v>77.400000000000006</v>
       </c>
       <c r="G23">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="M23" t="s">
+        <v>37</v>
+      </c>
+      <c r="N23" t="s">
+        <v>38</v>
+      </c>
+      <c r="O23" t="str">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="H23">
+        <v>NMVS</v>
+      </c>
+      <c r="P23">
         <f t="shared" si="1"/>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24" t="str" cm="1">
-        <f t="array" ref="C24">"???"&amp;INDEX($C$5:$L$5,1,H24)</f>
-        <v>???OKE</v>
+        <f t="array" ref="C24">"???"&amp;INDEX($C$5:$L$5,1,H24)&amp;",-TRAOKE"</f>
+        <v>???OKE,-TRAOKE</v>
       </c>
       <c r="D24" t="str" cm="1">
         <f t="array" ref="D24">INDEX($B$6:$B$13,G24)</f>
@@ -2302,21 +2427,35 @@
         <v>72.900000000000006</v>
       </c>
       <c r="G24">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
       <c r="H24">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
-    </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>37</v>
+      </c>
+      <c r="N24" t="s">
+        <v>38</v>
+      </c>
+      <c r="O24" t="str">
+        <f>B13</f>
+        <v>PM10S</v>
+      </c>
+      <c r="P24">
+        <f>C13</f>
+        <v>4.5769644752755773E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="str" cm="1">
-        <f t="array" ref="C25">"???"&amp;INDEX($C$5:$L$5,1,H25)</f>
-        <v>???COA</v>
+        <f t="array" ref="C25">"???"&amp;INDEX($C$5:$L$5,1,H25)&amp;",-UPSCLE"</f>
+        <v>???COA,-UPSCLE</v>
       </c>
       <c r="D25" t="str" cm="1">
         <f t="array" ref="D25">INDEX($B$6:$B$13,G25)</f>
@@ -2327,21 +2466,21 @@
         <v>1E-3</v>
       </c>
       <c r="G25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H25">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>29</v>
       </c>
       <c r="C26" t="str" cm="1">
-        <f t="array" ref="C26">"???"&amp;INDEX($C$5:$L$5,1,H26)</f>
-        <v>???CLE</v>
+        <f t="array" ref="C26">"???"&amp;INDEX($C$5:$L$5,1,H26)&amp;",-UPSGAS"</f>
+        <v>???CLE,-UPSGAS</v>
       </c>
       <c r="D26" t="str" cm="1">
         <f t="array" ref="D26">INDEX($B$6:$B$13,G26)</f>
@@ -2352,15 +2491,15 @@
         <v>1E-3</v>
       </c>
       <c r="G26">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>29</v>
       </c>
@@ -2377,15 +2516,15 @@
         <v>1E-3</v>
       </c>
       <c r="G27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>29</v>
       </c>
@@ -2402,15 +2541,15 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G28">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>29</v>
       </c>
@@ -2427,15 +2566,15 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G29">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>29</v>
       </c>
@@ -2452,15 +2591,15 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G30">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H30">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>29</v>
       </c>
@@ -2477,21 +2616,21 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G31">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>29</v>
       </c>
       <c r="C32" t="str" cm="1">
-        <f t="array" ref="C32">"???"&amp;INDEX($C$5:$L$5,1,H32)</f>
-        <v>???OKE</v>
+        <f t="array" ref="C32">"???"&amp;INDEX($C$5:$L$5,1,H32)&amp;",-TRAOKE"</f>
+        <v>???OKE,-TRAOKE</v>
       </c>
       <c r="D32" t="str" cm="1">
         <f t="array" ref="D32">INDEX($B$6:$B$13,G32)</f>
@@ -2502,11 +2641,11 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G32">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
       <c r="H32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2527,11 +2666,11 @@
         <v>1.4E-3</v>
       </c>
       <c r="G33">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2540,8 +2679,8 @@
         <v>29</v>
       </c>
       <c r="C34" t="str" cm="1">
-        <f t="array" ref="C34">"???"&amp;INDEX($C$5:$L$5,1,H34)</f>
-        <v>???CLE</v>
+        <f t="array" ref="C34">"???"&amp;INDEX($C$5:$L$5,1,H34)&amp;",-UPSCLE"</f>
+        <v>???CLE,-UPSCLE</v>
       </c>
       <c r="D34" t="str" cm="1">
         <f t="array" ref="D34">INDEX($B$6:$B$13,G34)</f>
@@ -2552,11 +2691,11 @@
         <v>1.4E-3</v>
       </c>
       <c r="G34">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -2565,8 +2704,8 @@
         <v>29</v>
       </c>
       <c r="C35" t="str" cm="1">
-        <f t="array" ref="C35">"???"&amp;INDEX($C$5:$L$5,1,H35)</f>
-        <v>???GAS</v>
+        <f t="array" ref="C35">"???"&amp;INDEX($C$5:$L$5,1,H35)&amp;",-UPSGAS"</f>
+        <v>???GAS,-UPSGAS</v>
       </c>
       <c r="D35" t="str" cm="1">
         <f t="array" ref="D35">INDEX($B$6:$B$13,G35)</f>
@@ -2577,11 +2716,11 @@
         <v>1E-4</v>
       </c>
       <c r="G35">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -2602,11 +2741,11 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="G36">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2627,11 +2766,11 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="G37">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -2652,11 +2791,11 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="G38">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2677,11 +2816,11 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="G39">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -2690,8 +2829,8 @@
         <v>29</v>
       </c>
       <c r="C40" t="str" cm="1">
-        <f t="array" ref="C40">"???"&amp;INDEX($C$5:$L$5,1,H40)</f>
-        <v>???OKE</v>
+        <f t="array" ref="C40">"???"&amp;INDEX($C$5:$L$5,1,H40)&amp;",-TRAOKE"</f>
+        <v>???OKE,-TRAOKE</v>
       </c>
       <c r="D40" t="str" cm="1">
         <f t="array" ref="D40">INDEX($B$6:$B$13,G40)</f>
@@ -2702,11 +2841,11 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="G40">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3</v>
       </c>
       <c r="H40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2727,11 +2866,11 @@
         <v>0.62619999999999998</v>
       </c>
       <c r="G41">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H41">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2740,8 +2879,8 @@
         <v>29</v>
       </c>
       <c r="C42" t="str" cm="1">
-        <f t="array" ref="C42">"???"&amp;INDEX($C$5:$L$5,1,H42)</f>
-        <v>???CLE</v>
+        <f t="array" ref="C42">"???"&amp;INDEX($C$5:$L$5,1,H42)&amp;",-UPSCLE"</f>
+        <v>???CLE,-UPSCLE</v>
       </c>
       <c r="D42" t="str" cm="1">
         <f t="array" ref="D42">INDEX($B$6:$B$13,G42)</f>
@@ -2752,11 +2891,11 @@
         <v>0.62619999999999998</v>
       </c>
       <c r="G42">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H42">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -2765,8 +2904,8 @@
         <v>29</v>
       </c>
       <c r="C43" t="str" cm="1">
-        <f t="array" ref="C43">"???"&amp;INDEX($C$5:$L$5,1,H43)</f>
-        <v>???GAS</v>
+        <f t="array" ref="C43">"???"&amp;INDEX($C$5:$L$5,1,H43)&amp;",-UPSGAS"</f>
+        <v>???GAS,-UPSGAS</v>
       </c>
       <c r="D43" t="str" cm="1">
         <f t="array" ref="D43">INDEX($B$6:$B$13,G43)</f>
@@ -2777,11 +2916,11 @@
         <v>0</v>
       </c>
       <c r="G43">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -2802,11 +2941,11 @@
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="G44">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -2827,11 +2966,11 @@
         <v>0.25290000000000001</v>
       </c>
       <c r="G45">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -2852,11 +2991,11 @@
         <v>4.6699999999999998E-2</v>
       </c>
       <c r="G46">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -2877,11 +3016,11 @@
         <v>1.5290999999999999</v>
       </c>
       <c r="G47">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -2890,8 +3029,8 @@
         <v>29</v>
       </c>
       <c r="C48" t="str" cm="1">
-        <f t="array" ref="C48">"???"&amp;INDEX($C$5:$L$5,1,H48)</f>
-        <v>???OKE</v>
+        <f t="array" ref="C48">"???"&amp;INDEX($C$5:$L$5,1,H48)&amp;",-TRAOKE"</f>
+        <v>???OKE,-TRAOKE</v>
       </c>
       <c r="D48" t="str" cm="1">
         <f t="array" ref="D48">INDEX($B$6:$B$13,G48)</f>
@@ -2902,11 +3041,11 @@
         <v>4.5900000000000003E-2</v>
       </c>
       <c r="G48">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
       <c r="H48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -2927,11 +3066,11 @@
         <v>0.3</v>
       </c>
       <c r="G49">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -2940,8 +3079,8 @@
         <v>29</v>
       </c>
       <c r="C50" t="str" cm="1">
-        <f t="array" ref="C50">"???"&amp;INDEX($C$5:$L$5,1,H50)</f>
-        <v>???CLE</v>
+        <f t="array" ref="C50">"???"&amp;INDEX($C$5:$L$5,1,H50)&amp;",-UPSCLE"</f>
+        <v>???CLE,-UPSCLE</v>
       </c>
       <c r="D50" t="str" cm="1">
         <f t="array" ref="D50">INDEX($B$6:$B$13,G50)</f>
@@ -2952,11 +3091,11 @@
         <v>0.3</v>
       </c>
       <c r="G50">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -2965,8 +3104,8 @@
         <v>29</v>
       </c>
       <c r="C51" t="str" cm="1">
-        <f t="array" ref="C51">"???"&amp;INDEX($C$5:$L$5,1,H51)</f>
-        <v>???GAS</v>
+        <f t="array" ref="C51">"???"&amp;INDEX($C$5:$L$5,1,H51)&amp;",-UPSGAS"</f>
+        <v>???GAS,-UPSGAS</v>
       </c>
       <c r="D51" t="str" cm="1">
         <f t="array" ref="D51">INDEX($B$6:$B$13,G51)</f>
@@ -2977,11 +3116,11 @@
         <v>0.15</v>
       </c>
       <c r="G51">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -3002,11 +3141,11 @@
         <v>0.3</v>
       </c>
       <c r="G52">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H52">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3027,11 +3166,11 @@
         <v>0.2</v>
       </c>
       <c r="G53">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H53">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3052,11 +3191,11 @@
         <v>0.6</v>
       </c>
       <c r="G54">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H54">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -3077,11 +3216,11 @@
         <v>0.2</v>
       </c>
       <c r="G55">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -3090,8 +3229,8 @@
         <v>29</v>
       </c>
       <c r="C56" t="str" cm="1">
-        <f t="array" ref="C56">"???"&amp;INDEX($C$5:$L$5,1,H56)</f>
-        <v>???OKE</v>
+        <f t="array" ref="C56">"???"&amp;INDEX($C$5:$L$5,1,H56)&amp;",-TRAOKE"</f>
+        <v>???OKE,-TRAOKE</v>
       </c>
       <c r="D56" t="str" cm="1">
         <f t="array" ref="D56">INDEX($B$6:$B$13,G56)</f>
@@ -3102,11 +3241,11 @@
         <v>0.2</v>
       </c>
       <c r="G56">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>5</v>
       </c>
       <c r="H56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -3127,11 +3266,11 @@
         <v>0.02</v>
       </c>
       <c r="G57">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -3140,8 +3279,8 @@
         <v>29</v>
       </c>
       <c r="C58" t="str" cm="1">
-        <f t="array" ref="C58">"???"&amp;INDEX($C$5:$L$5,1,H58)</f>
-        <v>???CLE</v>
+        <f t="array" ref="C58">"???"&amp;INDEX($C$5:$L$5,1,H58)&amp;",-UPSCLE"</f>
+        <v>???CLE,-UPSCLE</v>
       </c>
       <c r="D58" t="str" cm="1">
         <f t="array" ref="D58">INDEX($B$6:$B$13,G58)</f>
@@ -3152,11 +3291,11 @@
         <v>0.02</v>
       </c>
       <c r="G58">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -3165,8 +3304,8 @@
         <v>29</v>
       </c>
       <c r="C59" t="str" cm="1">
-        <f t="array" ref="C59">"???"&amp;INDEX($C$5:$L$5,1,H59)</f>
-        <v>???GAS</v>
+        <f t="array" ref="C59">"???"&amp;INDEX($C$5:$L$5,1,H59)&amp;",-UPSGAS"</f>
+        <v>???GAS,-UPSGAS</v>
       </c>
       <c r="D59" t="str" cm="1">
         <f t="array" ref="D59">INDEX($B$6:$B$13,G59)</f>
@@ -3177,11 +3316,11 @@
         <v>0.02</v>
       </c>
       <c r="G59">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -3202,11 +3341,11 @@
         <v>0.1</v>
       </c>
       <c r="G60">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3227,11 +3366,11 @@
         <v>1.4999999999999999E-2</v>
       </c>
       <c r="G61">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3252,11 +3391,11 @@
         <v>8</v>
       </c>
       <c r="G62">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -3277,11 +3416,11 @@
         <v>0.01</v>
       </c>
       <c r="G63">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H63">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -3290,8 +3429,8 @@
         <v>29</v>
       </c>
       <c r="C64" t="str" cm="1">
-        <f t="array" ref="C64">"???"&amp;INDEX($C$5:$L$5,1,H64)</f>
-        <v>???OKE</v>
+        <f t="array" ref="C64">"???"&amp;INDEX($C$5:$L$5,1,H64)&amp;",-TRAOKE"</f>
+        <v>???OKE,-TRAOKE</v>
       </c>
       <c r="D64" t="str" cm="1">
         <f t="array" ref="D64">INDEX($B$6:$B$13,G64)</f>
@@ -3302,11 +3441,11 @@
         <v>0.01</v>
       </c>
       <c r="G64">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>6</v>
       </c>
       <c r="H64">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -3327,11 +3466,11 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G65">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H65">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -3340,8 +3479,8 @@
         <v>29</v>
       </c>
       <c r="C66" t="str" cm="1">
-        <f t="array" ref="C66">"???"&amp;INDEX($C$5:$L$5,1,H66)</f>
-        <v>???CLE</v>
+        <f t="array" ref="C66">"???"&amp;INDEX($C$5:$L$5,1,H66)&amp;",-UPSCLE"</f>
+        <v>???CLE,-UPSCLE</v>
       </c>
       <c r="D66" t="str" cm="1">
         <f t="array" ref="D66">INDEX($B$6:$B$13,G66)</f>
@@ -3352,11 +3491,11 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G66">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H66">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -3365,8 +3504,8 @@
         <v>29</v>
       </c>
       <c r="C67" t="str" cm="1">
-        <f t="array" ref="C67">"???"&amp;INDEX($C$5:$L$5,1,H67)</f>
-        <v>???GAS</v>
+        <f t="array" ref="C67">"???"&amp;INDEX($C$5:$L$5,1,H67)&amp;",-UPSGAS"</f>
+        <v>???GAS,-UPSGAS</v>
       </c>
       <c r="D67" t="str" cm="1">
         <f t="array" ref="D67">INDEX($B$6:$B$13,G67)</f>
@@ -3377,11 +3516,11 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G67">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -3402,11 +3541,11 @@
         <v>0.05</v>
       </c>
       <c r="G68">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3427,11 +3566,11 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G69">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3452,11 +3591,11 @@
         <v>1.5</v>
       </c>
       <c r="G70">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -3477,11 +3616,11 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G71">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -3490,8 +3629,8 @@
         <v>29</v>
       </c>
       <c r="C72" t="str" cm="1">
-        <f t="array" ref="C72">"???"&amp;INDEX($C$5:$L$5,1,H72)</f>
-        <v>???OKE</v>
+        <f t="array" ref="C72">"???"&amp;INDEX($C$5:$L$5,1,H72)&amp;",-TRAOKE"</f>
+        <v>???OKE,-TRAOKE</v>
       </c>
       <c r="D72" t="str" cm="1">
         <f t="array" ref="D72">INDEX($B$6:$B$13,G72)</f>
@@ -3502,11 +3641,11 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G72">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="H72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>
@@ -3527,11 +3666,11 @@
         <v>4.5769644752755773E-2</v>
       </c>
       <c r="G73">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
     </row>
@@ -3540,8 +3679,8 @@
         <v>29</v>
       </c>
       <c r="C74" t="str" cm="1">
-        <f t="array" ref="C74">"???"&amp;INDEX($C$5:$L$5,1,H74)</f>
-        <v>???CLE</v>
+        <f t="array" ref="C74">"???"&amp;INDEX($C$5:$L$5,1,H74)&amp;",-UPSCLE"</f>
+        <v>???CLE,-UPSCLE</v>
       </c>
       <c r="D74" t="str" cm="1">
         <f t="array" ref="D74">INDEX($B$6:$B$13,G74)</f>
@@ -3552,11 +3691,11 @@
         <v>4.5769644752755773E-2</v>
       </c>
       <c r="G74">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H74">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
     </row>
@@ -3565,8 +3704,8 @@
         <v>29</v>
       </c>
       <c r="C75" t="str" cm="1">
-        <f t="array" ref="C75">"???"&amp;INDEX($C$5:$L$5,1,H75)</f>
-        <v>???GAS</v>
+        <f t="array" ref="C75">"???"&amp;INDEX($C$5:$L$5,1,H75)&amp;",-UPSGAS"</f>
+        <v>???GAS,-UPSGAS</v>
       </c>
       <c r="D75" t="str" cm="1">
         <f t="array" ref="D75">INDEX($B$6:$B$13,G75)</f>
@@ -3577,11 +3716,11 @@
         <v>0</v>
       </c>
       <c r="G75">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H75">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
     </row>
@@ -3602,11 +3741,11 @@
         <v>0</v>
       </c>
       <c r="G76">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H76">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
     </row>
@@ -3627,11 +3766,11 @@
         <v>0</v>
       </c>
       <c r="G77">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H77">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
     </row>
@@ -3652,11 +3791,11 @@
         <v>0</v>
       </c>
       <c r="G78">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H78">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
     </row>
@@ -3677,11 +3816,11 @@
         <v>0</v>
       </c>
       <c r="G79">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>7</v>
       </c>
     </row>
@@ -3690,8 +3829,8 @@
         <v>29</v>
       </c>
       <c r="C80" t="str" cm="1">
-        <f t="array" ref="C80">"???"&amp;INDEX($C$5:$L$5,1,H80)</f>
-        <v>???OKE</v>
+        <f t="array" ref="C80">"???"&amp;INDEX($C$5:$L$5,1,H80)&amp;",-TRAOKE"</f>
+        <v>???OKE,-TRAOKE</v>
       </c>
       <c r="D80" t="str" cm="1">
         <f t="array" ref="D80">INDEX($B$6:$B$13,G80)</f>
@@ -3702,11 +3841,11 @@
         <v>0</v>
       </c>
       <c r="G80">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="H80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>8</v>
       </c>
     </row>

--- a/suppxls/Scen_CombustionEmissions.xlsx
+++ b/suppxls/Scen_CombustionEmissions.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84786141-F5AC-4A02-9283-724B942F9370}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA5B4A2-10A5-4895-AF50-A2A052A36F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="2190" yWindow="2460" windowWidth="26610" windowHeight="13740" xr2:uid="{5C169CAC-8982-47AA-A2BD-20E5E721E68B}"/>
   </bookViews>
@@ -292,10 +292,9 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="[$£-809]#,##0.00;[Red]&quot;-&quot;[$£-809]#,##0.00"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="166" formatCode="0.0000"/>
   </numFmts>
   <fonts count="7" x14ac:knownFonts="1">
     <font>
@@ -377,7 +376,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -387,7 +386,6 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 2 2 2" xfId="1" xr:uid="{39415C90-2BAA-44BE-A516-ED7D1B21DDFA}"/>
@@ -1749,7 +1747,7 @@
       <selection activeCell="B17" sqref="B17:I35"/>
       <selection pane="topRight" activeCell="B17" sqref="B17:I35"/>
       <selection pane="bottomLeft" activeCell="B17" sqref="B17:I35"/>
-      <selection pane="bottomRight" activeCell="P17" sqref="P17:P18"/>
+      <selection pane="bottomRight" activeCell="P17" sqref="P17:P24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2172,8 +2170,8 @@
         <v>CO2C</v>
       </c>
       <c r="P17">
-        <f>C6</f>
-        <v>96.25</v>
+        <f>J6</f>
+        <v>72.900000000000006</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
@@ -2210,9 +2208,9 @@
         <f t="shared" ref="O18:O23" si="0">B7</f>
         <v>CH4C</v>
       </c>
-      <c r="P18" s="7">
-        <f t="shared" ref="P18:P23" si="1">C7</f>
-        <v>1E-3</v>
+      <c r="P18">
+        <f t="shared" ref="P18:P24" si="1">J7</f>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -2251,7 +2249,7 @@
       </c>
       <c r="P19">
         <f t="shared" si="1"/>
-        <v>1.4E-3</v>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
@@ -2290,7 +2288,7 @@
       </c>
       <c r="P20">
         <f t="shared" si="1"/>
-        <v>0.62619999999999998</v>
+        <v>4.5900000000000003E-2</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -2329,7 +2327,7 @@
       </c>
       <c r="P21">
         <f t="shared" si="1"/>
-        <v>0.3</v>
+        <v>0.2</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -2368,7 +2366,7 @@
       </c>
       <c r="P22">
         <f t="shared" si="1"/>
-        <v>0.02</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -2445,8 +2443,8 @@
         <v>PM10S</v>
       </c>
       <c r="P24">
-        <f>C13</f>
-        <v>4.5769644752755773E-2</v>
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="2:16" x14ac:dyDescent="0.25">

--- a/suppxls/Scen_CombustionEmissions.xlsx
+++ b/suppxls/Scen_CombustionEmissions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDA5B4A2-10A5-4895-AF50-A2A052A36F38}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A67BB15-658B-4FF1-9118-79C285BA97E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2190" yWindow="2460" windowWidth="26610" windowHeight="13740" xr2:uid="{5C169CAC-8982-47AA-A2BD-20E5E721E68B}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C169CAC-8982-47AA-A2BD-20E5E721E68B}"/>
   </bookViews>
   <sheets>
     <sheet name="CombustionEmissions" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="45">
   <si>
     <t>Combustion Emission Factors</t>
   </si>
@@ -286,6 +286,21 @@
   </si>
   <si>
     <t>PSET_PN</t>
+  </si>
+  <si>
+    <t>Exceptions</t>
+  </si>
+  <si>
+    <t>,-UPSCLE</t>
+  </si>
+  <si>
+    <t>,-UPSGAS</t>
+  </si>
+  <si>
+    <t>,-TRAOKE</t>
+  </si>
+  <si>
+    <t>CLD</t>
   </si>
 </sst>
 </file>
@@ -376,7 +391,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="1" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="2"/>
@@ -386,6 +401,10 @@
     <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="4" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Heading 2 2 2" xfId="1" xr:uid="{39415C90-2BAA-44BE-A516-ED7D1B21DDFA}"/>
@@ -1740,14 +1759,14 @@
   <sheetPr codeName="Sheet17">
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:P80"/>
+  <dimension ref="A1:P98"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B17" sqref="B17:I35"/>
       <selection pane="topRight" activeCell="B17" sqref="B17:I35"/>
       <selection pane="bottomLeft" activeCell="B17" sqref="B17:I35"/>
-      <selection pane="bottomRight" activeCell="P17" sqref="P17:P24"/>
+      <selection pane="bottomRight" activeCell="B99" sqref="B99:H110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1758,7 +1777,7 @@
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1767,22 +1786,22 @@
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:16" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -1790,31 +1809,34 @@
         <v>4</v>
       </c>
       <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
         <v>5</v>
       </c>
-      <c r="F5" t="s">
+      <c r="G5" t="s">
         <v>6</v>
       </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
         <v>7</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>8</v>
       </c>
-      <c r="I5" t="s">
+      <c r="J5" t="s">
         <v>9</v>
       </c>
-      <c r="J5" t="s">
+      <c r="K5" t="s">
         <v>10</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>11</v>
       </c>
-      <c r="L5" t="s">
+      <c r="M5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1828,31 +1850,35 @@
         <v>96.25</v>
       </c>
       <c r="E6">
+        <f>D6</f>
+        <v>96.25</v>
+      </c>
+      <c r="F6">
         <v>56.1</v>
       </c>
-      <c r="F6">
+      <c r="G6">
         <v>70</v>
       </c>
-      <c r="G6">
+      <c r="H6">
         <v>74.066699999999997</v>
       </c>
-      <c r="H6">
+      <c r="I6">
         <v>69.3</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>77.400000000000006</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>72.900000000000006</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <v>63.1</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <v>91.7</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1866,10 +1892,11 @@
         <v>1E-3</v>
       </c>
       <c r="E7">
+        <f t="shared" ref="E7:E13" si="0">D7</f>
         <v>1E-3</v>
       </c>
       <c r="F7">
-        <v>3.0000000000000001E-3</v>
+        <v>1E-3</v>
       </c>
       <c r="G7">
         <v>3.0000000000000001E-3</v>
@@ -1887,10 +1914,13 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="L7">
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="M7">
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1904,10 +1934,11 @@
         <v>1.4E-3</v>
       </c>
       <c r="E8">
+        <f t="shared" si="0"/>
+        <v>1.4E-3</v>
+      </c>
+      <c r="F8">
         <v>1E-4</v>
-      </c>
-      <c r="F8">
-        <v>5.9999999999999995E-4</v>
       </c>
       <c r="G8">
         <v>5.9999999999999995E-4</v>
@@ -1922,13 +1953,16 @@
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="K8">
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="L8">
         <v>1E-4</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -1942,31 +1976,35 @@
         <v>0.62619999999999998</v>
       </c>
       <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.62619999999999998</v>
+      </c>
+      <c r="F9">
         <v>0</v>
       </c>
-      <c r="F9">
+      <c r="G9">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>0.25290000000000001</v>
       </c>
-      <c r="H9">
+      <c r="I9">
         <v>4.6699999999999998E-2</v>
       </c>
-      <c r="I9">
+      <c r="J9">
         <v>1.5290999999999999</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>4.5900000000000003E-2</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <v>5.4089999999999998</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <v>1.5290999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -1980,31 +2018,35 @@
         <v>0.3</v>
       </c>
       <c r="E10">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+      <c r="F10">
         <v>0.15</v>
       </c>
-      <c r="F10">
+      <c r="G10">
         <v>0.3</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>0.2</v>
       </c>
-      <c r="H10">
+      <c r="I10">
         <v>0.6</v>
-      </c>
-      <c r="I10">
-        <v>0.2</v>
       </c>
       <c r="J10">
         <v>0.2</v>
       </c>
       <c r="K10">
+        <v>0.2</v>
+      </c>
+      <c r="L10">
         <v>1.2460000000000001E-2</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2018,31 +2060,35 @@
         <v>0.02</v>
       </c>
       <c r="E11">
+        <f t="shared" si="0"/>
         <v>0.02</v>
       </c>
       <c r="F11">
+        <v>0.02</v>
+      </c>
+      <c r="G11">
         <v>0.1</v>
       </c>
-      <c r="G11">
+      <c r="H11">
         <v>1.4999999999999999E-2</v>
       </c>
-      <c r="H11">
+      <c r="I11">
         <v>8</v>
-      </c>
-      <c r="I11">
-        <v>0.01</v>
       </c>
       <c r="J11">
         <v>0.01</v>
       </c>
       <c r="K11">
+        <v>0.01</v>
+      </c>
+      <c r="L11">
         <v>0.182</v>
       </c>
-      <c r="L11">
+      <c r="M11">
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2056,31 +2102,35 @@
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E12">
+        <f t="shared" si="0"/>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="F12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G12">
         <v>0.05</v>
       </c>
-      <c r="G12">
+      <c r="H12">
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="H12">
+      <c r="I12">
         <v>1.5</v>
-      </c>
-      <c r="I12">
-        <v>5.0000000000000001E-3</v>
       </c>
       <c r="J12">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="K12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="L12">
         <v>2.3699999999999999E-2</v>
       </c>
-      <c r="L12">
+      <c r="M12">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2093,124 +2143,71 @@
       <c r="D13" s="6">
         <v>4.5769644752755773E-2</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>22</v>
-      </c>
-      <c r="H15">
-        <v>8</v>
-      </c>
-      <c r="M15" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="B16" t="s">
-        <v>23</v>
-      </c>
-      <c r="C16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
-      <c r="E16" t="s">
-        <v>26</v>
-      </c>
-      <c r="G16" t="s">
-        <v>27</v>
-      </c>
-      <c r="H16" t="s">
-        <v>28</v>
-      </c>
-      <c r="M16" t="s">
-        <v>23</v>
-      </c>
-      <c r="N16" t="s">
-        <v>39</v>
-      </c>
-      <c r="O16" t="s">
-        <v>24</v>
-      </c>
-      <c r="P16" t="s">
-        <v>26</v>
+      <c r="E13">
+        <f t="shared" si="0"/>
+        <v>4.5769644752755773E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="C14" s="6"/>
+      <c r="D14" s="6"/>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="C15" s="6"/>
+      <c r="D15" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K15" s="8" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="17" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
-        <v>29</v>
-      </c>
-      <c r="C17" t="str" cm="1">
-        <f t="array" ref="C17">"???"&amp;INDEX($C$5:$L$5,1,H17)</f>
-        <v>???COA</v>
-      </c>
-      <c r="D17" t="str" cm="1">
-        <f t="array" ref="D17">INDEX($B$6:$B$13,G17)</f>
-        <v>CO2C</v>
-      </c>
-      <c r="E17" cm="1">
-        <f t="array" ref="E17">INDEX($C$6:$L$13,G17,H17)</f>
-        <v>96.25</v>
-      </c>
-      <c r="G17">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>11</v>
       </c>
       <c r="M17" t="s">
-        <v>37</v>
-      </c>
-      <c r="N17" t="s">
-        <v>38</v>
-      </c>
-      <c r="O17" t="str">
-        <f>B6</f>
-        <v>CO2C</v>
-      </c>
-      <c r="P17">
-        <f>J6</f>
-        <v>72.900000000000006</v>
+        <v>22</v>
       </c>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C18" t="str" cm="1">
-        <f t="array" ref="C18">"???"&amp;INDEX($C$5:$L$5,1,H18)&amp;",-UPSCLE"</f>
-        <v>???CLE,-UPSCLE</v>
-      </c>
-      <c r="D18" t="str" cm="1">
-        <f t="array" ref="D18">INDEX($B$6:$B$13,G18)</f>
-        <v>CO2C</v>
-      </c>
-      <c r="E18" cm="1">
-        <f t="array" ref="E18">INDEX($C$6:$L$13,G18,H18)</f>
-        <v>96.25</v>
-      </c>
-      <c r="G18">
-        <f>IF(H17=$H$15,G17+1,G17)</f>
-        <v>1</v>
-      </c>
-      <c r="H18">
-        <f>IF(H17=$H$15,1,H17+1)</f>
-        <v>2</v>
+        <v>23</v>
+      </c>
+      <c r="C18" t="s">
+        <v>24</v>
+      </c>
+      <c r="D18" t="s">
+        <v>25</v>
+      </c>
+      <c r="E18" t="s">
+        <v>26</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
       </c>
       <c r="M18" t="s">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="N18" t="s">
-        <v>38</v>
-      </c>
-      <c r="O18" t="str">
-        <f t="shared" ref="O18:O23" si="0">B7</f>
-        <v>CH4C</v>
-      </c>
-      <c r="P18">
-        <f t="shared" ref="P18:P24" si="1">J7</f>
-        <v>3.0000000000000001E-3</v>
+        <v>39</v>
+      </c>
+      <c r="O18" t="s">
+        <v>24</v>
+      </c>
+      <c r="P18" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="19" spans="2:16" x14ac:dyDescent="0.25">
@@ -2218,24 +2215,22 @@
         <v>29</v>
       </c>
       <c r="C19" t="str" cm="1">
-        <f t="array" ref="C19">"???"&amp;INDEX($C$5:$L$5,1,H19)&amp;",-UPSGAS"</f>
-        <v>???GAS,-UPSGAS</v>
+        <f t="array" ref="C19">"???"&amp;INDEX($C$5:$M$5,1,H19)&amp;INDEX($C$15:$M$15,H19)</f>
+        <v>???COA</v>
       </c>
       <c r="D19" t="str" cm="1">
         <f t="array" ref="D19">INDEX($B$6:$B$13,G19)</f>
         <v>CO2C</v>
       </c>
       <c r="E19" cm="1">
-        <f t="array" ref="E19">INDEX($C$6:$L$13,G19,H19)</f>
-        <v>56.1</v>
+        <f t="array" ref="E19">INDEX($C$6:$M$13,G19,H19)</f>
+        <v>96.25</v>
       </c>
       <c r="G19">
-        <f t="shared" ref="G19:G80" si="2">IF(H18=$H$15,G18+1,G18)</f>
         <v>1</v>
       </c>
       <c r="H19">
-        <f t="shared" ref="H19:H80" si="3">IF(H18=$H$15,1,H18+1)</f>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="M19" t="s">
         <v>37</v>
@@ -2244,12 +2239,12 @@
         <v>38</v>
       </c>
       <c r="O19" t="str">
-        <f t="shared" si="0"/>
-        <v>N2OS</v>
+        <f>B6</f>
+        <v>CO2C</v>
       </c>
       <c r="P19">
-        <f t="shared" si="1"/>
-        <v>5.9999999999999995E-4</v>
+        <f>K6</f>
+        <v>72.900000000000006</v>
       </c>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
@@ -2257,24 +2252,24 @@
         <v>29</v>
       </c>
       <c r="C20" t="str" cm="1">
-        <f t="array" ref="C20">"???"&amp;INDEX($C$5:$L$5,1,H20)</f>
-        <v>???OAG</v>
+        <f t="array" ref="C20">"???"&amp;INDEX($C$5:$M$5,1,H20)&amp;INDEX($C$15:$M$15,H20)</f>
+        <v>???CLE,-UPSCLE</v>
       </c>
       <c r="D20" t="str" cm="1">
         <f t="array" ref="D20">INDEX($B$6:$B$13,G20)</f>
         <v>CO2C</v>
       </c>
       <c r="E20" cm="1">
-        <f t="array" ref="E20">INDEX($C$6:$L$13,G20,H20)</f>
-        <v>70</v>
+        <f t="array" ref="E20">INDEX($C$6:$M$13,G20,H20)</f>
+        <v>96.25</v>
       </c>
       <c r="G20">
-        <f t="shared" si="2"/>
+        <f>IF(H19=$H$17,G19+1,G19)</f>
         <v>1</v>
       </c>
       <c r="H20">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f>IF(H19=$H$17,1,H19+1)</f>
+        <v>2</v>
       </c>
       <c r="M20" t="s">
         <v>37</v>
@@ -2283,12 +2278,12 @@
         <v>38</v>
       </c>
       <c r="O20" t="str">
-        <f t="shared" si="0"/>
-        <v>SOXS</v>
+        <f>B7</f>
+        <v>CH4C</v>
       </c>
       <c r="P20">
-        <f t="shared" si="1"/>
-        <v>4.5900000000000003E-2</v>
+        <f>K7</f>
+        <v>3.0000000000000001E-3</v>
       </c>
     </row>
     <row r="21" spans="2:16" x14ac:dyDescent="0.25">
@@ -2296,24 +2291,24 @@
         <v>29</v>
       </c>
       <c r="C21" t="str" cm="1">
-        <f t="array" ref="C21">"???"&amp;INDEX($C$5:$L$5,1,H21)</f>
-        <v>???ODS</v>
+        <f t="array" ref="C21">"???"&amp;INDEX($C$5:$M$5,1,H21)&amp;INDEX($C$15:$M$15,H21)</f>
+        <v>???CLD</v>
       </c>
       <c r="D21" t="str" cm="1">
         <f t="array" ref="D21">INDEX($B$6:$B$13,G21)</f>
         <v>CO2C</v>
       </c>
       <c r="E21" cm="1">
-        <f t="array" ref="E21">INDEX($C$6:$L$13,G21,H21)</f>
-        <v>74.066699999999997</v>
+        <f t="array" ref="E21">INDEX($C$6:$M$13,G21,H21)</f>
+        <v>96.25</v>
       </c>
       <c r="G21">
-        <f t="shared" si="2"/>
+        <f t="shared" ref="G21:G82" si="1">IF(H20=$H$17,G20+1,G20)</f>
         <v>1</v>
       </c>
       <c r="H21">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" ref="H21:H110" si="2">IF(H20=$H$17,1,H20+1)</f>
+        <v>3</v>
       </c>
       <c r="M21" t="s">
         <v>37</v>
@@ -2322,12 +2317,12 @@
         <v>38</v>
       </c>
       <c r="O21" t="str">
-        <f t="shared" si="0"/>
-        <v>NOXS</v>
+        <f>B8</f>
+        <v>N2OS</v>
       </c>
       <c r="P21">
-        <f t="shared" si="1"/>
-        <v>0.2</v>
+        <f>K8</f>
+        <v>5.9999999999999995E-4</v>
       </c>
     </row>
     <row r="22" spans="2:16" x14ac:dyDescent="0.25">
@@ -2335,24 +2330,24 @@
         <v>29</v>
       </c>
       <c r="C22" t="str" cm="1">
-        <f t="array" ref="C22">"???"&amp;INDEX($C$5:$L$5,1,H22)</f>
-        <v>???OGS</v>
+        <f t="array" ref="C22">"???"&amp;INDEX($C$5:$M$5,1,H22)&amp;INDEX($C$15:$M$15,H22)</f>
+        <v>???GAS,-UPSGAS</v>
       </c>
       <c r="D22" t="str" cm="1">
         <f t="array" ref="D22">INDEX($B$6:$B$13,G22)</f>
         <v>CO2C</v>
       </c>
       <c r="E22" cm="1">
-        <f t="array" ref="E22">INDEX($C$6:$L$13,G22,H22)</f>
-        <v>69.3</v>
+        <f t="array" ref="E22">INDEX($C$6:$M$13,G22,H22)</f>
+        <v>56.1</v>
       </c>
       <c r="G22">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H22">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
       <c r="M22" t="s">
         <v>37</v>
@@ -2361,12 +2356,12 @@
         <v>38</v>
       </c>
       <c r="O22" t="str">
-        <f t="shared" si="0"/>
-        <v>CMOX</v>
+        <f>B9</f>
+        <v>SOXS</v>
       </c>
       <c r="P22">
-        <f t="shared" si="1"/>
-        <v>0.01</v>
+        <f>K9</f>
+        <v>4.5900000000000003E-2</v>
       </c>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
@@ -2374,24 +2369,24 @@
         <v>29</v>
       </c>
       <c r="C23" t="str" cm="1">
-        <f t="array" ref="C23">"???"&amp;INDEX($C$5:$L$5,1,H23)</f>
-        <v>???OHF</v>
+        <f t="array" ref="C23">"???"&amp;INDEX($C$5:$M$5,1,H23)&amp;INDEX($C$15:$M$15,H23)</f>
+        <v>???OAG</v>
       </c>
       <c r="D23" t="str" cm="1">
         <f t="array" ref="D23">INDEX($B$6:$B$13,G23)</f>
         <v>CO2C</v>
       </c>
       <c r="E23" cm="1">
-        <f t="array" ref="E23">INDEX($C$6:$L$13,G23,H23)</f>
-        <v>77.400000000000006</v>
+        <f t="array" ref="E23">INDEX($C$6:$M$13,G23,H23)</f>
+        <v>70</v>
       </c>
       <c r="G23">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H23">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
       <c r="M23" t="s">
         <v>37</v>
@@ -2400,12 +2395,12 @@
         <v>38</v>
       </c>
       <c r="O23" t="str">
-        <f t="shared" si="0"/>
-        <v>NMVS</v>
+        <f>B10</f>
+        <v>NOXS</v>
       </c>
       <c r="P23">
-        <f t="shared" si="1"/>
-        <v>5.0000000000000001E-3</v>
+        <f>K10</f>
+        <v>0.2</v>
       </c>
     </row>
     <row r="24" spans="2:16" x14ac:dyDescent="0.25">
@@ -2413,24 +2408,24 @@
         <v>29</v>
       </c>
       <c r="C24" t="str" cm="1">
-        <f t="array" ref="C24">"???"&amp;INDEX($C$5:$L$5,1,H24)&amp;",-TRAOKE"</f>
-        <v>???OKE,-TRAOKE</v>
+        <f t="array" ref="C24">"???"&amp;INDEX($C$5:$M$5,1,H24)&amp;INDEX($C$15:$M$15,H24)</f>
+        <v>???ODS</v>
       </c>
       <c r="D24" t="str" cm="1">
         <f t="array" ref="D24">INDEX($B$6:$B$13,G24)</f>
         <v>CO2C</v>
       </c>
       <c r="E24" cm="1">
-        <f t="array" ref="E24">INDEX($C$6:$L$13,G24,H24)</f>
-        <v>72.900000000000006</v>
+        <f t="array" ref="E24">INDEX($C$6:$M$13,G24,H24)</f>
+        <v>74.066699999999997</v>
       </c>
       <c r="G24">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="H24">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
       <c r="M24" t="s">
         <v>37</v>
@@ -2439,62 +2434,90 @@
         <v>38</v>
       </c>
       <c r="O24" t="str">
+        <f>B11</f>
+        <v>CMOX</v>
+      </c>
+      <c r="P24">
+        <f>K11</f>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" t="str" cm="1">
+        <f t="array" ref="C25">"???"&amp;INDEX($C$5:$M$5,1,H25)&amp;INDEX($C$15:$M$15,H25)</f>
+        <v>???OGS</v>
+      </c>
+      <c r="D25" t="str" cm="1">
+        <f t="array" ref="D25">INDEX($B$6:$B$13,G25)</f>
+        <v>CO2C</v>
+      </c>
+      <c r="E25" cm="1">
+        <f t="array" ref="E25">INDEX($C$6:$M$13,G25,H25)</f>
+        <v>69.3</v>
+      </c>
+      <c r="G25">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="M25" t="s">
+        <v>37</v>
+      </c>
+      <c r="N25" t="s">
+        <v>38</v>
+      </c>
+      <c r="O25" t="str">
+        <f>B12</f>
+        <v>NMVS</v>
+      </c>
+      <c r="P25">
+        <f>K12</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="C26" t="str" cm="1">
+        <f t="array" ref="C26">"???"&amp;INDEX($C$5:$M$5,1,H26)&amp;INDEX($C$15:$M$15,H26)</f>
+        <v>???OHF</v>
+      </c>
+      <c r="D26" t="str" cm="1">
+        <f t="array" ref="D26">INDEX($B$6:$B$13,G26)</f>
+        <v>CO2C</v>
+      </c>
+      <c r="E26" cm="1">
+        <f t="array" ref="E26">INDEX($C$6:$M$13,G26,H26)</f>
+        <v>77.400000000000006</v>
+      </c>
+      <c r="G26">
+        <f t="shared" si="1"/>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="M26" t="s">
+        <v>37</v>
+      </c>
+      <c r="N26" t="s">
+        <v>38</v>
+      </c>
+      <c r="O26" t="str">
         <f>B13</f>
         <v>PM10S</v>
       </c>
-      <c r="P24">
-        <f t="shared" si="1"/>
+      <c r="P26">
+        <f>K13</f>
         <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>29</v>
-      </c>
-      <c r="C25" t="str" cm="1">
-        <f t="array" ref="C25">"???"&amp;INDEX($C$5:$L$5,1,H25)&amp;",-UPSCLE"</f>
-        <v>???COA,-UPSCLE</v>
-      </c>
-      <c r="D25" t="str" cm="1">
-        <f t="array" ref="D25">INDEX($B$6:$B$13,G25)</f>
-        <v>CH4C</v>
-      </c>
-      <c r="E25" cm="1">
-        <f t="array" ref="E25">INDEX($C$6:$L$13,G25,H25)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="G25">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H25">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B26" t="s">
-        <v>29</v>
-      </c>
-      <c r="C26" t="str" cm="1">
-        <f t="array" ref="C26">"???"&amp;INDEX($C$5:$L$5,1,H26)&amp;",-UPSGAS"</f>
-        <v>???CLE,-UPSGAS</v>
-      </c>
-      <c r="D26" t="str" cm="1">
-        <f t="array" ref="D26">INDEX($B$6:$B$13,G26)</f>
-        <v>CH4C</v>
-      </c>
-      <c r="E26" cm="1">
-        <f t="array" ref="E26">INDEX($C$6:$L$13,G26,H26)</f>
-        <v>1E-3</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="H26">
-        <f t="shared" si="3"/>
-        <v>2</v>
       </c>
     </row>
     <row r="27" spans="2:16" x14ac:dyDescent="0.25">
@@ -2502,24 +2525,24 @@
         <v>29</v>
       </c>
       <c r="C27" t="str" cm="1">
-        <f t="array" ref="C27">"???"&amp;INDEX($C$5:$L$5,1,H27)</f>
-        <v>???GAS</v>
+        <f t="array" ref="C27">"???"&amp;INDEX($C$5:$M$5,1,H27)&amp;INDEX($C$15:$M$15,H27)</f>
+        <v>???OKE,-TRAOKE</v>
       </c>
       <c r="D27" t="str" cm="1">
         <f t="array" ref="D27">INDEX($B$6:$B$13,G27)</f>
-        <v>CH4C</v>
+        <v>CO2C</v>
       </c>
       <c r="E27" cm="1">
-        <f t="array" ref="E27">INDEX($C$6:$L$13,G27,H27)</f>
-        <v>1E-3</v>
+        <f t="array" ref="E27">INDEX($C$6:$M$13,G27,H27)</f>
+        <v>72.900000000000006</v>
       </c>
       <c r="G27">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="H27">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
@@ -2527,24 +2550,24 @@
         <v>29</v>
       </c>
       <c r="C28" t="str" cm="1">
-        <f t="array" ref="C28">"???"&amp;INDEX($C$5:$L$5,1,H28)</f>
-        <v>???OAG</v>
+        <f t="array" ref="C28">"???"&amp;INDEX($C$5:$M$5,1,H28)&amp;INDEX($C$15:$M$15,H28)</f>
+        <v>???OLP</v>
       </c>
       <c r="D28" t="str" cm="1">
         <f t="array" ref="D28">INDEX($B$6:$B$13,G28)</f>
-        <v>CH4C</v>
+        <v>CO2C</v>
       </c>
       <c r="E28" cm="1">
-        <f t="array" ref="E28">INDEX($C$6:$L$13,G28,H28)</f>
-        <v>3.0000000000000001E-3</v>
+        <f t="array" ref="E28">INDEX($C$6:$M$13,G28,H28)</f>
+        <v>63.1</v>
       </c>
       <c r="G28">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="H28">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
@@ -2552,24 +2575,24 @@
         <v>29</v>
       </c>
       <c r="C29" t="str" cm="1">
-        <f t="array" ref="C29">"???"&amp;INDEX($C$5:$L$5,1,H29)</f>
-        <v>???ODS</v>
+        <f t="array" ref="C29">"???"&amp;INDEX($C$5:$M$5,1,H29)&amp;INDEX($C$15:$M$15,H29)</f>
+        <v>???WAS</v>
       </c>
       <c r="D29" t="str" cm="1">
         <f t="array" ref="D29">INDEX($B$6:$B$13,G29)</f>
-        <v>CH4C</v>
+        <v>CO2C</v>
       </c>
       <c r="E29" cm="1">
-        <f t="array" ref="E29">INDEX($C$6:$L$13,G29,H29)</f>
-        <v>3.0000000000000001E-3</v>
+        <f t="array" ref="E29">INDEX($C$6:$M$13,G29,H29)</f>
+        <v>91.7</v>
       </c>
       <c r="G29">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="1"/>
+        <v>1</v>
       </c>
       <c r="H29">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
@@ -2577,24 +2600,24 @@
         <v>29</v>
       </c>
       <c r="C30" t="str" cm="1">
-        <f t="array" ref="C30">"???"&amp;INDEX($C$5:$L$5,1,H30)</f>
-        <v>???OGS</v>
+        <f t="array" ref="C30">"???"&amp;INDEX($C$5:$M$5,1,H30)&amp;INDEX($C$15:$M$15,H30)</f>
+        <v>???COA</v>
       </c>
       <c r="D30" t="str" cm="1">
         <f t="array" ref="D30">INDEX($B$6:$B$13,G30)</f>
         <v>CH4C</v>
       </c>
       <c r="E30" cm="1">
-        <f t="array" ref="E30">INDEX($C$6:$L$13,G30,H30)</f>
-        <v>3.0000000000000001E-3</v>
+        <f t="array" ref="E30">INDEX($C$6:$M$13,G30,H30)</f>
+        <v>1E-3</v>
       </c>
       <c r="G30">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H30">
-        <f t="shared" si="3"/>
-        <v>6</v>
+        <f t="shared" si="2"/>
+        <v>1</v>
       </c>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
@@ -2602,24 +2625,24 @@
         <v>29</v>
       </c>
       <c r="C31" t="str" cm="1">
-        <f t="array" ref="C31">"???"&amp;INDEX($C$5:$L$5,1,H31)</f>
-        <v>???OHF</v>
+        <f t="array" ref="C31">"???"&amp;INDEX($C$5:$M$5,1,H31)&amp;INDEX($C$15:$M$15,H31)</f>
+        <v>???CLE,-UPSCLE</v>
       </c>
       <c r="D31" t="str" cm="1">
         <f t="array" ref="D31">INDEX($B$6:$B$13,G31)</f>
         <v>CH4C</v>
       </c>
       <c r="E31" cm="1">
-        <f t="array" ref="E31">INDEX($C$6:$L$13,G31,H31)</f>
-        <v>3.0000000000000001E-3</v>
+        <f t="array" ref="E31">INDEX($C$6:$M$13,G31,H31)</f>
+        <v>1E-3</v>
       </c>
       <c r="G31">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H31">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="2"/>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
@@ -2627,24 +2650,24 @@
         <v>29</v>
       </c>
       <c r="C32" t="str" cm="1">
-        <f t="array" ref="C32">"???"&amp;INDEX($C$5:$L$5,1,H32)&amp;",-TRAOKE"</f>
-        <v>???OKE,-TRAOKE</v>
+        <f t="array" ref="C32">"???"&amp;INDEX($C$5:$M$5,1,H32)&amp;INDEX($C$15:$M$15,H32)</f>
+        <v>???CLD</v>
       </c>
       <c r="D32" t="str" cm="1">
         <f t="array" ref="D32">INDEX($B$6:$B$13,G32)</f>
         <v>CH4C</v>
       </c>
       <c r="E32" cm="1">
-        <f t="array" ref="E32">INDEX($C$6:$L$13,G32,H32)</f>
-        <v>3.0000000000000001E-3</v>
+        <f t="array" ref="E32">INDEX($C$6:$M$13,G32,H32)</f>
+        <v>1E-3</v>
       </c>
       <c r="G32">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>2</v>
       </c>
       <c r="H32">
-        <f t="shared" si="3"/>
-        <v>8</v>
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -2652,24 +2675,24 @@
         <v>29</v>
       </c>
       <c r="C33" t="str" cm="1">
-        <f t="array" ref="C33">"???"&amp;INDEX($C$5:$L$5,1,H33)</f>
-        <v>???COA</v>
+        <f t="array" ref="C33">"???"&amp;INDEX($C$5:$M$5,1,H33)&amp;INDEX($C$15:$M$15,H33)</f>
+        <v>???GAS,-UPSGAS</v>
       </c>
       <c r="D33" t="str" cm="1">
         <f t="array" ref="D33">INDEX($B$6:$B$13,G33)</f>
-        <v>N2OS</v>
+        <v>CH4C</v>
       </c>
       <c r="E33" cm="1">
-        <f t="array" ref="E33">INDEX($C$6:$L$13,G33,H33)</f>
-        <v>1.4E-3</v>
+        <f t="array" ref="E33">INDEX($C$6:$M$13,G33,H33)</f>
+        <v>1E-3</v>
       </c>
       <c r="G33">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="H33">
-        <f t="shared" si="3"/>
-        <v>1</v>
+        <f t="shared" si="2"/>
+        <v>4</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -2677,24 +2700,24 @@
         <v>29</v>
       </c>
       <c r="C34" t="str" cm="1">
-        <f t="array" ref="C34">"???"&amp;INDEX($C$5:$L$5,1,H34)&amp;",-UPSCLE"</f>
-        <v>???CLE,-UPSCLE</v>
+        <f t="array" ref="C34">"???"&amp;INDEX($C$5:$M$5,1,H34)&amp;INDEX($C$15:$M$15,H34)</f>
+        <v>???OAG</v>
       </c>
       <c r="D34" t="str" cm="1">
         <f t="array" ref="D34">INDEX($B$6:$B$13,G34)</f>
-        <v>N2OS</v>
+        <v>CH4C</v>
       </c>
       <c r="E34" cm="1">
-        <f t="array" ref="E34">INDEX($C$6:$L$13,G34,H34)</f>
-        <v>1.4E-3</v>
+        <f t="array" ref="E34">INDEX($C$6:$M$13,G34,H34)</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G34">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="H34">
-        <f t="shared" si="3"/>
-        <v>2</v>
+        <f t="shared" si="2"/>
+        <v>5</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -2702,24 +2725,24 @@
         <v>29</v>
       </c>
       <c r="C35" t="str" cm="1">
-        <f t="array" ref="C35">"???"&amp;INDEX($C$5:$L$5,1,H35)&amp;",-UPSGAS"</f>
-        <v>???GAS,-UPSGAS</v>
+        <f t="array" ref="C35">"???"&amp;INDEX($C$5:$M$5,1,H35)&amp;INDEX($C$15:$M$15,H35)</f>
+        <v>???ODS</v>
       </c>
       <c r="D35" t="str" cm="1">
         <f t="array" ref="D35">INDEX($B$6:$B$13,G35)</f>
-        <v>N2OS</v>
+        <v>CH4C</v>
       </c>
       <c r="E35" cm="1">
-        <f t="array" ref="E35">INDEX($C$6:$L$13,G35,H35)</f>
-        <v>1E-4</v>
+        <f t="array" ref="E35">INDEX($C$6:$M$13,G35,H35)</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G35">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="H35">
-        <f t="shared" si="3"/>
-        <v>3</v>
+        <f t="shared" si="2"/>
+        <v>6</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -2727,24 +2750,24 @@
         <v>29</v>
       </c>
       <c r="C36" t="str" cm="1">
-        <f t="array" ref="C36">"???"&amp;INDEX($C$5:$L$5,1,H36)</f>
-        <v>???OAG</v>
+        <f t="array" ref="C36">"???"&amp;INDEX($C$5:$M$5,1,H36)&amp;INDEX($C$15:$M$15,H36)</f>
+        <v>???OGS</v>
       </c>
       <c r="D36" t="str" cm="1">
         <f t="array" ref="D36">INDEX($B$6:$B$13,G36)</f>
-        <v>N2OS</v>
+        <v>CH4C</v>
       </c>
       <c r="E36" cm="1">
-        <f t="array" ref="E36">INDEX($C$6:$L$13,G36,H36)</f>
-        <v>5.9999999999999995E-4</v>
+        <f t="array" ref="E36">INDEX($C$6:$M$13,G36,H36)</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G36">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="H36">
-        <f t="shared" si="3"/>
-        <v>4</v>
+        <f t="shared" si="2"/>
+        <v>7</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -2752,24 +2775,24 @@
         <v>29</v>
       </c>
       <c r="C37" t="str" cm="1">
-        <f t="array" ref="C37">"???"&amp;INDEX($C$5:$L$5,1,H37)</f>
-        <v>???ODS</v>
+        <f t="array" ref="C37">"???"&amp;INDEX($C$5:$M$5,1,H37)&amp;INDEX($C$15:$M$15,H37)</f>
+        <v>???OHF</v>
       </c>
       <c r="D37" t="str" cm="1">
         <f t="array" ref="D37">INDEX($B$6:$B$13,G37)</f>
-        <v>N2OS</v>
+        <v>CH4C</v>
       </c>
       <c r="E37" cm="1">
-        <f t="array" ref="E37">INDEX($C$6:$L$13,G37,H37)</f>
-        <v>5.9999999999999995E-4</v>
+        <f t="array" ref="E37">INDEX($C$6:$M$13,G37,H37)</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G37">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="1"/>
+        <v>2</v>
       </c>
       <c r="H37">
-        <f t="shared" si="3"/>
-        <v>5</v>
+        <f t="shared" si="2"/>
+        <v>8</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -2777,1074 +2800,1524 @@
         <v>29</v>
       </c>
       <c r="C38" t="str" cm="1">
-        <f t="array" ref="C38">"???"&amp;INDEX($C$5:$L$5,1,H38)</f>
-        <v>???OGS</v>
+        <f t="array" ref="C38">"???"&amp;INDEX($C$5:$M$5,1,H38)&amp;INDEX($C$15:$M$15,H38)</f>
+        <v>???OKE,-TRAOKE</v>
       </c>
       <c r="D38" t="str" cm="1">
         <f t="array" ref="D38">INDEX($B$6:$B$13,G38)</f>
+        <v>CH4C</v>
+      </c>
+      <c r="E38" cm="1">
+        <f t="array" ref="E38">INDEX($C$6:$M$13,G38,H38)</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G38">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H38">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B39" t="s">
+        <v>29</v>
+      </c>
+      <c r="C39" t="str" cm="1">
+        <f t="array" ref="C39">"???"&amp;INDEX($C$5:$M$5,1,H39)&amp;INDEX($C$15:$M$15,H39)</f>
+        <v>???OLP</v>
+      </c>
+      <c r="D39" t="str" cm="1">
+        <f t="array" ref="D39">INDEX($B$6:$B$13,G39)</f>
+        <v>CH4C</v>
+      </c>
+      <c r="E39" cm="1">
+        <f t="array" ref="E39">INDEX($C$6:$M$13,G39,H39)</f>
+        <v>3.0000000000000001E-3</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H39">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" t="str" cm="1">
+        <f t="array" ref="C40">"???"&amp;INDEX($C$5:$M$5,1,H40)&amp;INDEX($C$15:$M$15,H40)</f>
+        <v>???WAS</v>
+      </c>
+      <c r="D40" t="str" cm="1">
+        <f t="array" ref="D40">INDEX($B$6:$B$13,G40)</f>
+        <v>CH4C</v>
+      </c>
+      <c r="E40" cm="1">
+        <f t="array" ref="E40">INDEX($C$6:$M$13,G40,H40)</f>
+        <v>0.03</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="H40">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B41" t="s">
+        <v>29</v>
+      </c>
+      <c r="C41" t="str" cm="1">
+        <f t="array" ref="C41">"???"&amp;INDEX($C$5:$M$5,1,H41)&amp;INDEX($C$15:$M$15,H41)</f>
+        <v>???COA</v>
+      </c>
+      <c r="D41" t="str" cm="1">
+        <f t="array" ref="D41">INDEX($B$6:$B$13,G41)</f>
         <v>N2OS</v>
       </c>
-      <c r="E38" cm="1">
-        <f t="array" ref="E38">INDEX($C$6:$L$13,G38,H38)</f>
+      <c r="E41" cm="1">
+        <f t="array" ref="E41">INDEX($C$6:$M$13,G41,H41)</f>
+        <v>1.4E-3</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H41">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42" t="str" cm="1">
+        <f t="array" ref="C42">"???"&amp;INDEX($C$5:$M$5,1,H42)&amp;INDEX($C$15:$M$15,H42)</f>
+        <v>???CLE,-UPSCLE</v>
+      </c>
+      <c r="D42" t="str" cm="1">
+        <f t="array" ref="D42">INDEX($B$6:$B$13,G42)</f>
+        <v>N2OS</v>
+      </c>
+      <c r="E42" cm="1">
+        <f t="array" ref="E42">INDEX($C$6:$M$13,G42,H42)</f>
+        <v>1.4E-3</v>
+      </c>
+      <c r="G42">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H42">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" t="str" cm="1">
+        <f t="array" ref="C43">"???"&amp;INDEX($C$5:$M$5,1,H43)&amp;INDEX($C$15:$M$15,H43)</f>
+        <v>???CLD</v>
+      </c>
+      <c r="D43" t="str" cm="1">
+        <f t="array" ref="D43">INDEX($B$6:$B$13,G43)</f>
+        <v>N2OS</v>
+      </c>
+      <c r="E43" cm="1">
+        <f t="array" ref="E43">INDEX($C$6:$M$13,G43,H43)</f>
+        <v>1.4E-3</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H43">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B44" t="s">
+        <v>29</v>
+      </c>
+      <c r="C44" t="str" cm="1">
+        <f t="array" ref="C44">"???"&amp;INDEX($C$5:$M$5,1,H44)&amp;INDEX($C$15:$M$15,H44)</f>
+        <v>???GAS,-UPSGAS</v>
+      </c>
+      <c r="D44" t="str" cm="1">
+        <f t="array" ref="D44">INDEX($B$6:$B$13,G44)</f>
+        <v>N2OS</v>
+      </c>
+      <c r="E44" cm="1">
+        <f t="array" ref="E44">INDEX($C$6:$M$13,G44,H44)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H44">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B45" t="s">
+        <v>29</v>
+      </c>
+      <c r="C45" t="str" cm="1">
+        <f t="array" ref="C45">"???"&amp;INDEX($C$5:$M$5,1,H45)&amp;INDEX($C$15:$M$15,H45)</f>
+        <v>???OAG</v>
+      </c>
+      <c r="D45" t="str" cm="1">
+        <f t="array" ref="D45">INDEX($B$6:$B$13,G45)</f>
+        <v>N2OS</v>
+      </c>
+      <c r="E45" cm="1">
+        <f t="array" ref="E45">INDEX($C$6:$M$13,G45,H45)</f>
         <v>5.9999999999999995E-4</v>
       </c>
-      <c r="G38">
-        <f t="shared" si="2"/>
+      <c r="G45">
+        <f t="shared" si="1"/>
         <v>3</v>
       </c>
-      <c r="H38">
+      <c r="H45">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B46" t="s">
+        <v>29</v>
+      </c>
+      <c r="C46" t="str" cm="1">
+        <f t="array" ref="C46">"???"&amp;INDEX($C$5:$M$5,1,H46)&amp;INDEX($C$15:$M$15,H46)</f>
+        <v>???ODS</v>
+      </c>
+      <c r="D46" t="str" cm="1">
+        <f t="array" ref="D46">INDEX($B$6:$B$13,G46)</f>
+        <v>N2OS</v>
+      </c>
+      <c r="E46" cm="1">
+        <f t="array" ref="E46">INDEX($C$6:$M$13,G46,H46)</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G46">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H46">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B47" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" t="str" cm="1">
+        <f t="array" ref="C47">"???"&amp;INDEX($C$5:$M$5,1,H47)&amp;INDEX($C$15:$M$15,H47)</f>
+        <v>???OGS</v>
+      </c>
+      <c r="D47" t="str" cm="1">
+        <f t="array" ref="D47">INDEX($B$6:$B$13,G47)</f>
+        <v>N2OS</v>
+      </c>
+      <c r="E47" cm="1">
+        <f t="array" ref="E47">INDEX($C$6:$M$13,G47,H47)</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B48" t="s">
+        <v>29</v>
+      </c>
+      <c r="C48" t="str" cm="1">
+        <f t="array" ref="C48">"???"&amp;INDEX($C$5:$M$5,1,H48)&amp;INDEX($C$15:$M$15,H48)</f>
+        <v>???OHF</v>
+      </c>
+      <c r="D48" t="str" cm="1">
+        <f t="array" ref="D48">INDEX($B$6:$B$13,G48)</f>
+        <v>N2OS</v>
+      </c>
+      <c r="E48" cm="1">
+        <f t="array" ref="E48">INDEX($C$6:$M$13,G48,H48)</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H48">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B49" t="s">
+        <v>29</v>
+      </c>
+      <c r="C49" t="str" cm="1">
+        <f t="array" ref="C49">"???"&amp;INDEX($C$5:$M$5,1,H49)&amp;INDEX($C$15:$M$15,H49)</f>
+        <v>???OKE,-TRAOKE</v>
+      </c>
+      <c r="D49" t="str" cm="1">
+        <f t="array" ref="D49">INDEX($B$6:$B$13,G49)</f>
+        <v>N2OS</v>
+      </c>
+      <c r="E49" cm="1">
+        <f t="array" ref="E49">INDEX($C$6:$M$13,G49,H49)</f>
+        <v>5.9999999999999995E-4</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H49">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B50" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" t="str" cm="1">
+        <f t="array" ref="C50">"???"&amp;INDEX($C$5:$M$5,1,H50)&amp;INDEX($C$15:$M$15,H50)</f>
+        <v>???OLP</v>
+      </c>
+      <c r="D50" t="str" cm="1">
+        <f t="array" ref="D50">INDEX($B$6:$B$13,G50)</f>
+        <v>N2OS</v>
+      </c>
+      <c r="E50" cm="1">
+        <f t="array" ref="E50">INDEX($C$6:$M$13,G50,H50)</f>
+        <v>1E-4</v>
+      </c>
+      <c r="G50">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H50">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C51" t="str" cm="1">
+        <f t="array" ref="C51">"???"&amp;INDEX($C$5:$M$5,1,H51)&amp;INDEX($C$15:$M$15,H51)</f>
+        <v>???WAS</v>
+      </c>
+      <c r="D51" t="str" cm="1">
+        <f t="array" ref="D51">INDEX($B$6:$B$13,G51)</f>
+        <v>N2OS</v>
+      </c>
+      <c r="E51" cm="1">
+        <f t="array" ref="E51">INDEX($C$6:$M$13,G51,H51)</f>
+        <v>4.0000000000000001E-3</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="1"/>
+        <v>3</v>
+      </c>
+      <c r="H51">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B52" t="s">
+        <v>29</v>
+      </c>
+      <c r="C52" t="str" cm="1">
+        <f t="array" ref="C52">"???"&amp;INDEX($C$5:$M$5,1,H52)&amp;INDEX($C$15:$M$15,H52)</f>
+        <v>???COA</v>
+      </c>
+      <c r="D52" t="str" cm="1">
+        <f t="array" ref="D52">INDEX($B$6:$B$13,G52)</f>
+        <v>SOXS</v>
+      </c>
+      <c r="E52" cm="1">
+        <f t="array" ref="E52">INDEX($C$6:$M$13,G52,H52)</f>
+        <v>0.62619999999999998</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H52">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B53" t="s">
+        <v>29</v>
+      </c>
+      <c r="C53" t="str" cm="1">
+        <f t="array" ref="C53">"???"&amp;INDEX($C$5:$M$5,1,H53)&amp;INDEX($C$15:$M$15,H53)</f>
+        <v>???CLE,-UPSCLE</v>
+      </c>
+      <c r="D53" t="str" cm="1">
+        <f t="array" ref="D53">INDEX($B$6:$B$13,G53)</f>
+        <v>SOXS</v>
+      </c>
+      <c r="E53" cm="1">
+        <f t="array" ref="E53">INDEX($C$6:$M$13,G53,H53)</f>
+        <v>0.62619999999999998</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H53">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B54" t="s">
+        <v>29</v>
+      </c>
+      <c r="C54" t="str" cm="1">
+        <f t="array" ref="C54">"???"&amp;INDEX($C$5:$M$5,1,H54)&amp;INDEX($C$15:$M$15,H54)</f>
+        <v>???CLD</v>
+      </c>
+      <c r="D54" t="str" cm="1">
+        <f t="array" ref="D54">INDEX($B$6:$B$13,G54)</f>
+        <v>SOXS</v>
+      </c>
+      <c r="E54" cm="1">
+        <f t="array" ref="E54">INDEX($C$6:$M$13,G54,H54)</f>
+        <v>0.62619999999999998</v>
+      </c>
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H54">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B55" t="s">
+        <v>29</v>
+      </c>
+      <c r="C55" t="str" cm="1">
+        <f t="array" ref="C55">"???"&amp;INDEX($C$5:$M$5,1,H55)&amp;INDEX($C$15:$M$15,H55)</f>
+        <v>???GAS,-UPSGAS</v>
+      </c>
+      <c r="D55" t="str" cm="1">
+        <f t="array" ref="D55">INDEX($B$6:$B$13,G55)</f>
+        <v>SOXS</v>
+      </c>
+      <c r="E55" cm="1">
+        <f t="array" ref="E55">INDEX($C$6:$M$13,G55,H55)</f>
+        <v>0</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H55">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B56" t="s">
+        <v>29</v>
+      </c>
+      <c r="C56" t="str" cm="1">
+        <f t="array" ref="C56">"???"&amp;INDEX($C$5:$M$5,1,H56)&amp;INDEX($C$15:$M$15,H56)</f>
+        <v>???OAG</v>
+      </c>
+      <c r="D56" t="str" cm="1">
+        <f t="array" ref="D56">INDEX($B$6:$B$13,G56)</f>
+        <v>SOXS</v>
+      </c>
+      <c r="E56" cm="1">
+        <f t="array" ref="E56">INDEX($C$6:$M$13,G56,H56)</f>
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H56">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B57" t="s">
+        <v>29</v>
+      </c>
+      <c r="C57" t="str" cm="1">
+        <f t="array" ref="C57">"???"&amp;INDEX($C$5:$M$5,1,H57)&amp;INDEX($C$15:$M$15,H57)</f>
+        <v>???ODS</v>
+      </c>
+      <c r="D57" t="str" cm="1">
+        <f t="array" ref="D57">INDEX($B$6:$B$13,G57)</f>
+        <v>SOXS</v>
+      </c>
+      <c r="E57" cm="1">
+        <f t="array" ref="E57">INDEX($C$6:$M$13,G57,H57)</f>
+        <v>0.25290000000000001</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H57">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B58" t="s">
+        <v>29</v>
+      </c>
+      <c r="C58" t="str" cm="1">
+        <f t="array" ref="C58">"???"&amp;INDEX($C$5:$M$5,1,H58)&amp;INDEX($C$15:$M$15,H58)</f>
+        <v>???OGS</v>
+      </c>
+      <c r="D58" t="str" cm="1">
+        <f t="array" ref="D58">INDEX($B$6:$B$13,G58)</f>
+        <v>SOXS</v>
+      </c>
+      <c r="E58" cm="1">
+        <f t="array" ref="E58">INDEX($C$6:$M$13,G58,H58)</f>
+        <v>4.6699999999999998E-2</v>
+      </c>
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H58">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" t="str" cm="1">
+        <f t="array" ref="C59">"???"&amp;INDEX($C$5:$M$5,1,H59)&amp;INDEX($C$15:$M$15,H59)</f>
+        <v>???OHF</v>
+      </c>
+      <c r="D59" t="str" cm="1">
+        <f t="array" ref="D59">INDEX($B$6:$B$13,G59)</f>
+        <v>SOXS</v>
+      </c>
+      <c r="E59" cm="1">
+        <f t="array" ref="E59">INDEX($C$6:$M$13,G59,H59)</f>
+        <v>1.5290999999999999</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H59">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B60" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" t="str" cm="1">
+        <f t="array" ref="C60">"???"&amp;INDEX($C$5:$M$5,1,H60)&amp;INDEX($C$15:$M$15,H60)</f>
+        <v>???OKE,-TRAOKE</v>
+      </c>
+      <c r="D60" t="str" cm="1">
+        <f t="array" ref="D60">INDEX($B$6:$B$13,G60)</f>
+        <v>SOXS</v>
+      </c>
+      <c r="E60" cm="1">
+        <f t="array" ref="E60">INDEX($C$6:$M$13,G60,H60)</f>
+        <v>4.5900000000000003E-2</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H60">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B61" t="s">
+        <v>29</v>
+      </c>
+      <c r="C61" t="str" cm="1">
+        <f t="array" ref="C61">"???"&amp;INDEX($C$5:$M$5,1,H61)&amp;INDEX($C$15:$M$15,H61)</f>
+        <v>???OLP</v>
+      </c>
+      <c r="D61" t="str" cm="1">
+        <f t="array" ref="D61">INDEX($B$6:$B$13,G61)</f>
+        <v>SOXS</v>
+      </c>
+      <c r="E61" cm="1">
+        <f t="array" ref="E61">INDEX($C$6:$M$13,G61,H61)</f>
+        <v>5.4089999999999998</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H61">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B62" t="s">
+        <v>29</v>
+      </c>
+      <c r="C62" t="str" cm="1">
+        <f t="array" ref="C62">"???"&amp;INDEX($C$5:$M$5,1,H62)&amp;INDEX($C$15:$M$15,H62)</f>
+        <v>???WAS</v>
+      </c>
+      <c r="D62" t="str" cm="1">
+        <f t="array" ref="D62">INDEX($B$6:$B$13,G62)</f>
+        <v>SOXS</v>
+      </c>
+      <c r="E62" cm="1">
+        <f t="array" ref="E62">INDEX($C$6:$M$13,G62,H62)</f>
+        <v>1.5290999999999999</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="H62">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B63" t="s">
+        <v>29</v>
+      </c>
+      <c r="C63" t="str" cm="1">
+        <f t="array" ref="C63">"???"&amp;INDEX($C$5:$M$5,1,H63)&amp;INDEX($C$15:$M$15,H63)</f>
+        <v>???COA</v>
+      </c>
+      <c r="D63" t="str" cm="1">
+        <f t="array" ref="D63">INDEX($B$6:$B$13,G63)</f>
+        <v>NOXS</v>
+      </c>
+      <c r="E63" cm="1">
+        <f t="array" ref="E63">INDEX($C$6:$M$13,G63,H63)</f>
+        <v>0.3</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H63">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B64" t="s">
+        <v>29</v>
+      </c>
+      <c r="C64" t="str" cm="1">
+        <f t="array" ref="C64">"???"&amp;INDEX($C$5:$M$5,1,H64)&amp;INDEX($C$15:$M$15,H64)</f>
+        <v>???CLE,-UPSCLE</v>
+      </c>
+      <c r="D64" t="str" cm="1">
+        <f t="array" ref="D64">INDEX($B$6:$B$13,G64)</f>
+        <v>NOXS</v>
+      </c>
+      <c r="E64" cm="1">
+        <f t="array" ref="E64">INDEX($C$6:$M$13,G64,H64)</f>
+        <v>0.3</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H64">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B65" t="s">
+        <v>29</v>
+      </c>
+      <c r="C65" t="str" cm="1">
+        <f t="array" ref="C65">"???"&amp;INDEX($C$5:$M$5,1,H65)&amp;INDEX($C$15:$M$15,H65)</f>
+        <v>???CLD</v>
+      </c>
+      <c r="D65" t="str" cm="1">
+        <f t="array" ref="D65">INDEX($B$6:$B$13,G65)</f>
+        <v>NOXS</v>
+      </c>
+      <c r="E65" cm="1">
+        <f t="array" ref="E65">INDEX($C$6:$M$13,G65,H65)</f>
+        <v>0.3</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H65">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66" t="str" cm="1">
+        <f t="array" ref="C66">"???"&amp;INDEX($C$5:$M$5,1,H66)&amp;INDEX($C$15:$M$15,H66)</f>
+        <v>???GAS,-UPSGAS</v>
+      </c>
+      <c r="D66" t="str" cm="1">
+        <f t="array" ref="D66">INDEX($B$6:$B$13,G66)</f>
+        <v>NOXS</v>
+      </c>
+      <c r="E66" cm="1">
+        <f t="array" ref="E66">INDEX($C$6:$M$13,G66,H66)</f>
+        <v>0.15</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H66">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B67" t="s">
+        <v>29</v>
+      </c>
+      <c r="C67" t="str" cm="1">
+        <f t="array" ref="C67">"???"&amp;INDEX($C$5:$M$5,1,H67)&amp;INDEX($C$15:$M$15,H67)</f>
+        <v>???OAG</v>
+      </c>
+      <c r="D67" t="str" cm="1">
+        <f t="array" ref="D67">INDEX($B$6:$B$13,G67)</f>
+        <v>NOXS</v>
+      </c>
+      <c r="E67" cm="1">
+        <f t="array" ref="E67">INDEX($C$6:$M$13,G67,H67)</f>
+        <v>0.3</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H67">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B68" t="s">
+        <v>29</v>
+      </c>
+      <c r="C68" t="str" cm="1">
+        <f t="array" ref="C68">"???"&amp;INDEX($C$5:$M$5,1,H68)&amp;INDEX($C$15:$M$15,H68)</f>
+        <v>???ODS</v>
+      </c>
+      <c r="D68" t="str" cm="1">
+        <f t="array" ref="D68">INDEX($B$6:$B$13,G68)</f>
+        <v>NOXS</v>
+      </c>
+      <c r="E68" cm="1">
+        <f t="array" ref="E68">INDEX($C$6:$M$13,G68,H68)</f>
+        <v>0.2</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H68">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B69" t="s">
+        <v>29</v>
+      </c>
+      <c r="C69" t="str" cm="1">
+        <f t="array" ref="C69">"???"&amp;INDEX($C$5:$M$5,1,H69)&amp;INDEX($C$15:$M$15,H69)</f>
+        <v>???OGS</v>
+      </c>
+      <c r="D69" t="str" cm="1">
+        <f t="array" ref="D69">INDEX($B$6:$B$13,G69)</f>
+        <v>NOXS</v>
+      </c>
+      <c r="E69" cm="1">
+        <f t="array" ref="E69">INDEX($C$6:$M$13,G69,H69)</f>
+        <v>0.6</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H69">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B70" t="s">
+        <v>29</v>
+      </c>
+      <c r="C70" t="str" cm="1">
+        <f t="array" ref="C70">"???"&amp;INDEX($C$5:$M$5,1,H70)&amp;INDEX($C$15:$M$15,H70)</f>
+        <v>???OHF</v>
+      </c>
+      <c r="D70" t="str" cm="1">
+        <f t="array" ref="D70">INDEX($B$6:$B$13,G70)</f>
+        <v>NOXS</v>
+      </c>
+      <c r="E70" cm="1">
+        <f t="array" ref="E70">INDEX($C$6:$M$13,G70,H70)</f>
+        <v>0.2</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H70">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B71" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" t="str" cm="1">
+        <f t="array" ref="C71">"???"&amp;INDEX($C$5:$M$5,1,H71)&amp;INDEX($C$15:$M$15,H71)</f>
+        <v>???OKE,-TRAOKE</v>
+      </c>
+      <c r="D71" t="str" cm="1">
+        <f t="array" ref="D71">INDEX($B$6:$B$13,G71)</f>
+        <v>NOXS</v>
+      </c>
+      <c r="E71" cm="1">
+        <f t="array" ref="E71">INDEX($C$6:$M$13,G71,H71)</f>
+        <v>0.2</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H71">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B72" t="s">
+        <v>29</v>
+      </c>
+      <c r="C72" t="str" cm="1">
+        <f t="array" ref="C72">"???"&amp;INDEX($C$5:$M$5,1,H72)&amp;INDEX($C$15:$M$15,H72)</f>
+        <v>???OLP</v>
+      </c>
+      <c r="D72" t="str" cm="1">
+        <f t="array" ref="D72">INDEX($B$6:$B$13,G72)</f>
+        <v>NOXS</v>
+      </c>
+      <c r="E72" cm="1">
+        <f t="array" ref="E72">INDEX($C$6:$M$13,G72,H72)</f>
+        <v>1.2460000000000001E-2</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H72">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B73" t="s">
+        <v>29</v>
+      </c>
+      <c r="C73" t="str" cm="1">
+        <f t="array" ref="C73">"???"&amp;INDEX($C$5:$M$5,1,H73)&amp;INDEX($C$15:$M$15,H73)</f>
+        <v>???WAS</v>
+      </c>
+      <c r="D73" t="str" cm="1">
+        <f t="array" ref="D73">INDEX($B$6:$B$13,G73)</f>
+        <v>NOXS</v>
+      </c>
+      <c r="E73" cm="1">
+        <f t="array" ref="E73">INDEX($C$6:$M$13,G73,H73)</f>
+        <v>0.2</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="H73">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B74" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" t="str" cm="1">
+        <f t="array" ref="C74">"???"&amp;INDEX($C$5:$M$5,1,H74)&amp;INDEX($C$15:$M$15,H74)</f>
+        <v>???COA</v>
+      </c>
+      <c r="D74" t="str" cm="1">
+        <f t="array" ref="D74">INDEX($B$6:$B$13,G74)</f>
+        <v>CMOX</v>
+      </c>
+      <c r="E74" cm="1">
+        <f t="array" ref="E74">INDEX($C$6:$M$13,G74,H74)</f>
+        <v>0.02</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H74">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B75" t="s">
+        <v>29</v>
+      </c>
+      <c r="C75" t="str" cm="1">
+        <f t="array" ref="C75">"???"&amp;INDEX($C$5:$M$5,1,H75)&amp;INDEX($C$15:$M$15,H75)</f>
+        <v>???CLE,-UPSCLE</v>
+      </c>
+      <c r="D75" t="str" cm="1">
+        <f t="array" ref="D75">INDEX($B$6:$B$13,G75)</f>
+        <v>CMOX</v>
+      </c>
+      <c r="E75" cm="1">
+        <f t="array" ref="E75">INDEX($C$6:$M$13,G75,H75)</f>
+        <v>0.02</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H75">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B76" t="s">
+        <v>29</v>
+      </c>
+      <c r="C76" t="str" cm="1">
+        <f t="array" ref="C76">"???"&amp;INDEX($C$5:$M$5,1,H76)&amp;INDEX($C$15:$M$15,H76)</f>
+        <v>???CLD</v>
+      </c>
+      <c r="D76" t="str" cm="1">
+        <f t="array" ref="D76">INDEX($B$6:$B$13,G76)</f>
+        <v>CMOX</v>
+      </c>
+      <c r="E76" cm="1">
+        <f t="array" ref="E76">INDEX($C$6:$M$13,G76,H76)</f>
+        <v>0.02</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H76">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B77" t="s">
+        <v>29</v>
+      </c>
+      <c r="C77" t="str" cm="1">
+        <f t="array" ref="C77">"???"&amp;INDEX($C$5:$M$5,1,H77)&amp;INDEX($C$15:$M$15,H77)</f>
+        <v>???GAS,-UPSGAS</v>
+      </c>
+      <c r="D77" t="str" cm="1">
+        <f t="array" ref="D77">INDEX($B$6:$B$13,G77)</f>
+        <v>CMOX</v>
+      </c>
+      <c r="E77" cm="1">
+        <f t="array" ref="E77">INDEX($C$6:$M$13,G77,H77)</f>
+        <v>0.02</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H77">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B78" t="s">
+        <v>29</v>
+      </c>
+      <c r="C78" t="str" cm="1">
+        <f t="array" ref="C78">"???"&amp;INDEX($C$5:$M$5,1,H78)&amp;INDEX($C$15:$M$15,H78)</f>
+        <v>???OAG</v>
+      </c>
+      <c r="D78" t="str" cm="1">
+        <f t="array" ref="D78">INDEX($B$6:$B$13,G78)</f>
+        <v>CMOX</v>
+      </c>
+      <c r="E78" cm="1">
+        <f t="array" ref="E78">INDEX($C$6:$M$13,G78,H78)</f>
+        <v>0.1</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H78">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B79" t="s">
+        <v>29</v>
+      </c>
+      <c r="C79" t="str" cm="1">
+        <f t="array" ref="C79">"???"&amp;INDEX($C$5:$M$5,1,H79)&amp;INDEX($C$15:$M$15,H79)</f>
+        <v>???ODS</v>
+      </c>
+      <c r="D79" t="str" cm="1">
+        <f t="array" ref="D79">INDEX($B$6:$B$13,G79)</f>
+        <v>CMOX</v>
+      </c>
+      <c r="E79" cm="1">
+        <f t="array" ref="E79">INDEX($C$6:$M$13,G79,H79)</f>
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H79">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B80" t="s">
+        <v>29</v>
+      </c>
+      <c r="C80" t="str" cm="1">
+        <f t="array" ref="C80">"???"&amp;INDEX($C$5:$M$5,1,H80)&amp;INDEX($C$15:$M$15,H80)</f>
+        <v>???OGS</v>
+      </c>
+      <c r="D80" t="str" cm="1">
+        <f t="array" ref="D80">INDEX($B$6:$B$13,G80)</f>
+        <v>CMOX</v>
+      </c>
+      <c r="E80" cm="1">
+        <f t="array" ref="E80">INDEX($C$6:$M$13,G80,H80)</f>
+        <v>8</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H80">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B81" t="s">
+        <v>29</v>
+      </c>
+      <c r="C81" t="str" cm="1">
+        <f t="array" ref="C81">"???"&amp;INDEX($C$5:$M$5,1,H81)&amp;INDEX($C$15:$M$15,H81)</f>
+        <v>???OHF</v>
+      </c>
+      <c r="D81" t="str" cm="1">
+        <f t="array" ref="D81">INDEX($B$6:$B$13,G81)</f>
+        <v>CMOX</v>
+      </c>
+      <c r="E81" cm="1">
+        <f t="array" ref="E81">INDEX($C$6:$M$13,G81,H81)</f>
+        <v>0.01</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H81">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="82" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B82" t="s">
+        <v>29</v>
+      </c>
+      <c r="C82" t="str" cm="1">
+        <f t="array" ref="C82">"???"&amp;INDEX($C$5:$M$5,1,H82)&amp;INDEX($C$15:$M$15,H82)</f>
+        <v>???OKE,-TRAOKE</v>
+      </c>
+      <c r="D82" t="str" cm="1">
+        <f t="array" ref="D82">INDEX($B$6:$B$13,G82)</f>
+        <v>CMOX</v>
+      </c>
+      <c r="E82" cm="1">
+        <f t="array" ref="E82">INDEX($C$6:$M$13,G82,H82)</f>
+        <v>0.01</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="H82">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B83" t="s">
+        <v>29</v>
+      </c>
+      <c r="C83" t="str" cm="1">
+        <f t="array" ref="C83">"???"&amp;INDEX($C$5:$M$5,1,H83)&amp;INDEX($C$15:$M$15,H83)</f>
+        <v>???OLP</v>
+      </c>
+      <c r="D83" t="str" cm="1">
+        <f t="array" ref="D83">INDEX($B$6:$B$13,G83)</f>
+        <v>CMOX</v>
+      </c>
+      <c r="E83" cm="1">
+        <f t="array" ref="E83">INDEX($C$6:$M$13,G83,H83)</f>
+        <v>0.182</v>
+      </c>
+      <c r="G83">
+        <f t="shared" ref="G83:G94" si="3">IF(H82=$H$17,G82+1,G82)</f>
+        <v>6</v>
+      </c>
+      <c r="H83">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="84" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B84" t="s">
+        <v>29</v>
+      </c>
+      <c r="C84" t="str" cm="1">
+        <f t="array" ref="C84">"???"&amp;INDEX($C$5:$M$5,1,H84)&amp;INDEX($C$15:$M$15,H84)</f>
+        <v>???WAS</v>
+      </c>
+      <c r="D84" t="str" cm="1">
+        <f t="array" ref="D84">INDEX($B$6:$B$13,G84)</f>
+        <v>CMOX</v>
+      </c>
+      <c r="E84" cm="1">
+        <f t="array" ref="E84">INDEX($C$6:$M$13,G84,H84)</f>
+        <v>0.01</v>
+      </c>
+      <c r="G84">
         <f t="shared" si="3"/>
         <v>6</v>
       </c>
-    </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B39" t="s">
-        <v>29</v>
-      </c>
-      <c r="C39" t="str" cm="1">
-        <f t="array" ref="C39">"???"&amp;INDEX($C$5:$L$5,1,H39)</f>
-        <v>???OHF</v>
-      </c>
-      <c r="D39" t="str" cm="1">
-        <f t="array" ref="D39">INDEX($B$6:$B$13,G39)</f>
-        <v>N2OS</v>
-      </c>
-      <c r="E39" cm="1">
-        <f t="array" ref="E39">INDEX($C$6:$L$13,G39,H39)</f>
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="G39">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H39">
+      <c r="H84">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="85" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B85" t="s">
+        <v>29</v>
+      </c>
+      <c r="C85" t="str" cm="1">
+        <f t="array" ref="C85">"???"&amp;INDEX($C$5:$M$5,1,H85)&amp;INDEX($C$15:$M$15,H85)</f>
+        <v>???COA</v>
+      </c>
+      <c r="D85" t="str" cm="1">
+        <f t="array" ref="D85">INDEX($B$6:$B$13,G85)</f>
+        <v>NMVS</v>
+      </c>
+      <c r="E85" cm="1">
+        <f t="array" ref="E85">INDEX($C$6:$M$13,G85,H85)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G85">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B40" t="s">
-        <v>29</v>
-      </c>
-      <c r="C40" t="str" cm="1">
-        <f t="array" ref="C40">"???"&amp;INDEX($C$5:$L$5,1,H40)&amp;",-TRAOKE"</f>
-        <v>???OKE,-TRAOKE</v>
-      </c>
-      <c r="D40" t="str" cm="1">
-        <f t="array" ref="D40">INDEX($B$6:$B$13,G40)</f>
-        <v>N2OS</v>
-      </c>
-      <c r="E40" cm="1">
-        <f t="array" ref="E40">INDEX($C$6:$L$13,G40,H40)</f>
-        <v>5.9999999999999995E-4</v>
-      </c>
-      <c r="G40">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
-      <c r="H40">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B41" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41" t="str" cm="1">
-        <f t="array" ref="C41">"???"&amp;INDEX($C$5:$L$5,1,H41)</f>
-        <v>???COA</v>
-      </c>
-      <c r="D41" t="str" cm="1">
-        <f t="array" ref="D41">INDEX($B$6:$B$13,G41)</f>
-        <v>SOXS</v>
-      </c>
-      <c r="E41" cm="1">
-        <f t="array" ref="E41">INDEX($C$6:$L$13,G41,H41)</f>
-        <v>0.62619999999999998</v>
-      </c>
-      <c r="G41">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H41">
-        <f t="shared" si="3"/>
+      <c r="H85">
+        <f t="shared" si="2"/>
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B42" t="s">
-        <v>29</v>
-      </c>
-      <c r="C42" t="str" cm="1">
-        <f t="array" ref="C42">"???"&amp;INDEX($C$5:$L$5,1,H42)&amp;",-UPSCLE"</f>
+    <row r="86" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B86" t="s">
+        <v>29</v>
+      </c>
+      <c r="C86" t="str" cm="1">
+        <f t="array" ref="C86">"???"&amp;INDEX($C$5:$M$5,1,H86)&amp;INDEX($C$15:$M$15,H86)</f>
         <v>???CLE,-UPSCLE</v>
       </c>
-      <c r="D42" t="str" cm="1">
-        <f t="array" ref="D42">INDEX($B$6:$B$13,G42)</f>
-        <v>SOXS</v>
-      </c>
-      <c r="E42" cm="1">
-        <f t="array" ref="E42">INDEX($C$6:$L$13,G42,H42)</f>
-        <v>0.62619999999999998</v>
-      </c>
-      <c r="G42">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H42">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B43" t="s">
-        <v>29</v>
-      </c>
-      <c r="C43" t="str" cm="1">
-        <f t="array" ref="C43">"???"&amp;INDEX($C$5:$L$5,1,H43)&amp;",-UPSGAS"</f>
-        <v>???GAS,-UPSGAS</v>
-      </c>
-      <c r="D43" t="str" cm="1">
-        <f t="array" ref="D43">INDEX($B$6:$B$13,G43)</f>
-        <v>SOXS</v>
-      </c>
-      <c r="E43" cm="1">
-        <f t="array" ref="E43">INDEX($C$6:$L$13,G43,H43)</f>
-        <v>0</v>
-      </c>
-      <c r="G43">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H43">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B44" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44" t="str" cm="1">
-        <f t="array" ref="C44">"???"&amp;INDEX($C$5:$L$5,1,H44)</f>
-        <v>???OAG</v>
-      </c>
-      <c r="D44" t="str" cm="1">
-        <f t="array" ref="D44">INDEX($B$6:$B$13,G44)</f>
-        <v>SOXS</v>
-      </c>
-      <c r="E44" cm="1">
-        <f t="array" ref="E44">INDEX($C$6:$L$13,G44,H44)</f>
-        <v>4.6699999999999998E-2</v>
-      </c>
-      <c r="G44">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H44">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B45" t="s">
-        <v>29</v>
-      </c>
-      <c r="C45" t="str" cm="1">
-        <f t="array" ref="C45">"???"&amp;INDEX($C$5:$L$5,1,H45)</f>
-        <v>???ODS</v>
-      </c>
-      <c r="D45" t="str" cm="1">
-        <f t="array" ref="D45">INDEX($B$6:$B$13,G45)</f>
-        <v>SOXS</v>
-      </c>
-      <c r="E45" cm="1">
-        <f t="array" ref="E45">INDEX($C$6:$L$13,G45,H45)</f>
-        <v>0.25290000000000001</v>
-      </c>
-      <c r="G45">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H45">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B46" t="s">
-        <v>29</v>
-      </c>
-      <c r="C46" t="str" cm="1">
-        <f t="array" ref="C46">"???"&amp;INDEX($C$5:$L$5,1,H46)</f>
-        <v>???OGS</v>
-      </c>
-      <c r="D46" t="str" cm="1">
-        <f t="array" ref="D46">INDEX($B$6:$B$13,G46)</f>
-        <v>SOXS</v>
-      </c>
-      <c r="E46" cm="1">
-        <f t="array" ref="E46">INDEX($C$6:$L$13,G46,H46)</f>
-        <v>4.6699999999999998E-2</v>
-      </c>
-      <c r="G46">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H46">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B47" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47" t="str" cm="1">
-        <f t="array" ref="C47">"???"&amp;INDEX($C$5:$L$5,1,H47)</f>
-        <v>???OHF</v>
-      </c>
-      <c r="D47" t="str" cm="1">
-        <f t="array" ref="D47">INDEX($B$6:$B$13,G47)</f>
-        <v>SOXS</v>
-      </c>
-      <c r="E47" cm="1">
-        <f t="array" ref="E47">INDEX($C$6:$L$13,G47,H47)</f>
-        <v>1.5290999999999999</v>
-      </c>
-      <c r="G47">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H47">
+      <c r="D86" t="str" cm="1">
+        <f t="array" ref="D86">INDEX($B$6:$B$13,G86)</f>
+        <v>NMVS</v>
+      </c>
+      <c r="E86" cm="1">
+        <f t="array" ref="E86">INDEX($C$6:$M$13,G86,H86)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G86">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B48" t="s">
-        <v>29</v>
-      </c>
-      <c r="C48" t="str" cm="1">
-        <f t="array" ref="C48">"???"&amp;INDEX($C$5:$L$5,1,H48)&amp;",-TRAOKE"</f>
-        <v>???OKE,-TRAOKE</v>
-      </c>
-      <c r="D48" t="str" cm="1">
-        <f t="array" ref="D48">INDEX($B$6:$B$13,G48)</f>
-        <v>SOXS</v>
-      </c>
-      <c r="E48" cm="1">
-        <f t="array" ref="E48">INDEX($C$6:$L$13,G48,H48)</f>
-        <v>4.5900000000000003E-2</v>
-      </c>
-      <c r="G48">
-        <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="H48">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="49" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B49" t="s">
-        <v>29</v>
-      </c>
-      <c r="C49" t="str" cm="1">
-        <f t="array" ref="C49">"???"&amp;INDEX($C$5:$L$5,1,H49)</f>
-        <v>???COA</v>
-      </c>
-      <c r="D49" t="str" cm="1">
-        <f t="array" ref="D49">INDEX($B$6:$B$13,G49)</f>
-        <v>NOXS</v>
-      </c>
-      <c r="E49" cm="1">
-        <f t="array" ref="E49">INDEX($C$6:$L$13,G49,H49)</f>
-        <v>0.3</v>
-      </c>
-      <c r="G49">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H49">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B50" t="s">
-        <v>29</v>
-      </c>
-      <c r="C50" t="str" cm="1">
-        <f t="array" ref="C50">"???"&amp;INDEX($C$5:$L$5,1,H50)&amp;",-UPSCLE"</f>
-        <v>???CLE,-UPSCLE</v>
-      </c>
-      <c r="D50" t="str" cm="1">
-        <f t="array" ref="D50">INDEX($B$6:$B$13,G50)</f>
-        <v>NOXS</v>
-      </c>
-      <c r="E50" cm="1">
-        <f t="array" ref="E50">INDEX($C$6:$L$13,G50,H50)</f>
-        <v>0.3</v>
-      </c>
-      <c r="G50">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H50">
-        <f t="shared" si="3"/>
+      <c r="H86">
+        <f t="shared" si="2"/>
         <v>2</v>
       </c>
     </row>
-    <row r="51" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B51" t="s">
-        <v>29</v>
-      </c>
-      <c r="C51" t="str" cm="1">
-        <f t="array" ref="C51">"???"&amp;INDEX($C$5:$L$5,1,H51)&amp;",-UPSGAS"</f>
-        <v>???GAS,-UPSGAS</v>
-      </c>
-      <c r="D51" t="str" cm="1">
-        <f t="array" ref="D51">INDEX($B$6:$B$13,G51)</f>
-        <v>NOXS</v>
-      </c>
-      <c r="E51" cm="1">
-        <f t="array" ref="E51">INDEX($C$6:$L$13,G51,H51)</f>
-        <v>0.15</v>
-      </c>
-      <c r="G51">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H51">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B52" t="s">
-        <v>29</v>
-      </c>
-      <c r="C52" t="str" cm="1">
-        <f t="array" ref="C52">"???"&amp;INDEX($C$5:$L$5,1,H52)</f>
-        <v>???OAG</v>
-      </c>
-      <c r="D52" t="str" cm="1">
-        <f t="array" ref="D52">INDEX($B$6:$B$13,G52)</f>
-        <v>NOXS</v>
-      </c>
-      <c r="E52" cm="1">
-        <f t="array" ref="E52">INDEX($C$6:$L$13,G52,H52)</f>
-        <v>0.3</v>
-      </c>
-      <c r="G52">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H52">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="53" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B53" t="s">
-        <v>29</v>
-      </c>
-      <c r="C53" t="str" cm="1">
-        <f t="array" ref="C53">"???"&amp;INDEX($C$5:$L$5,1,H53)</f>
-        <v>???ODS</v>
-      </c>
-      <c r="D53" t="str" cm="1">
-        <f t="array" ref="D53">INDEX($B$6:$B$13,G53)</f>
-        <v>NOXS</v>
-      </c>
-      <c r="E53" cm="1">
-        <f t="array" ref="E53">INDEX($C$6:$L$13,G53,H53)</f>
-        <v>0.2</v>
-      </c>
-      <c r="G53">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H53">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="54" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B54" t="s">
-        <v>29</v>
-      </c>
-      <c r="C54" t="str" cm="1">
-        <f t="array" ref="C54">"???"&amp;INDEX($C$5:$L$5,1,H54)</f>
-        <v>???OGS</v>
-      </c>
-      <c r="D54" t="str" cm="1">
-        <f t="array" ref="D54">INDEX($B$6:$B$13,G54)</f>
-        <v>NOXS</v>
-      </c>
-      <c r="E54" cm="1">
-        <f t="array" ref="E54">INDEX($C$6:$L$13,G54,H54)</f>
-        <v>0.6</v>
-      </c>
-      <c r="G54">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H54">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B55" t="s">
-        <v>29</v>
-      </c>
-      <c r="C55" t="str" cm="1">
-        <f t="array" ref="C55">"???"&amp;INDEX($C$5:$L$5,1,H55)</f>
-        <v>???OHF</v>
-      </c>
-      <c r="D55" t="str" cm="1">
-        <f t="array" ref="D55">INDEX($B$6:$B$13,G55)</f>
-        <v>NOXS</v>
-      </c>
-      <c r="E55" cm="1">
-        <f t="array" ref="E55">INDEX($C$6:$L$13,G55,H55)</f>
-        <v>0.2</v>
-      </c>
-      <c r="G55">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H55">
+    <row r="87" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B87" t="s">
+        <v>29</v>
+      </c>
+      <c r="C87" t="str" cm="1">
+        <f t="array" ref="C87">"???"&amp;INDEX($C$5:$M$5,1,H87)&amp;INDEX($C$15:$M$15,H87)</f>
+        <v>???CLD</v>
+      </c>
+      <c r="D87" t="str" cm="1">
+        <f t="array" ref="D87">INDEX($B$6:$B$13,G87)</f>
+        <v>NMVS</v>
+      </c>
+      <c r="E87" cm="1">
+        <f t="array" ref="E87">INDEX($C$6:$M$13,G87,H87)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G87">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="56" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B56" t="s">
-        <v>29</v>
-      </c>
-      <c r="C56" t="str" cm="1">
-        <f t="array" ref="C56">"???"&amp;INDEX($C$5:$L$5,1,H56)&amp;",-TRAOKE"</f>
-        <v>???OKE,-TRAOKE</v>
-      </c>
-      <c r="D56" t="str" cm="1">
-        <f t="array" ref="D56">INDEX($B$6:$B$13,G56)</f>
-        <v>NOXS</v>
-      </c>
-      <c r="E56" cm="1">
-        <f t="array" ref="E56">INDEX($C$6:$L$13,G56,H56)</f>
-        <v>0.2</v>
-      </c>
-      <c r="G56">
-        <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="H56">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="57" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B57" t="s">
-        <v>29</v>
-      </c>
-      <c r="C57" t="str" cm="1">
-        <f t="array" ref="C57">"???"&amp;INDEX($C$5:$L$5,1,H57)</f>
-        <v>???COA</v>
-      </c>
-      <c r="D57" t="str" cm="1">
-        <f t="array" ref="D57">INDEX($B$6:$B$13,G57)</f>
-        <v>CMOX</v>
-      </c>
-      <c r="E57" cm="1">
-        <f t="array" ref="E57">INDEX($C$6:$L$13,G57,H57)</f>
-        <v>0.02</v>
-      </c>
-      <c r="G57">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H57">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="58" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B58" t="s">
-        <v>29</v>
-      </c>
-      <c r="C58" t="str" cm="1">
-        <f t="array" ref="C58">"???"&amp;INDEX($C$5:$L$5,1,H58)&amp;",-UPSCLE"</f>
-        <v>???CLE,-UPSCLE</v>
-      </c>
-      <c r="D58" t="str" cm="1">
-        <f t="array" ref="D58">INDEX($B$6:$B$13,G58)</f>
-        <v>CMOX</v>
-      </c>
-      <c r="E58" cm="1">
-        <f t="array" ref="E58">INDEX($C$6:$L$13,G58,H58)</f>
-        <v>0.02</v>
-      </c>
-      <c r="G58">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H58">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="59" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59" t="str" cm="1">
-        <f t="array" ref="C59">"???"&amp;INDEX($C$5:$L$5,1,H59)&amp;",-UPSGAS"</f>
+      <c r="H87">
+        <f t="shared" si="2"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B88" t="s">
+        <v>29</v>
+      </c>
+      <c r="C88" t="str" cm="1">
+        <f t="array" ref="C88">"???"&amp;INDEX($C$5:$M$5,1,H88)&amp;INDEX($C$15:$M$15,H88)</f>
         <v>???GAS,-UPSGAS</v>
       </c>
-      <c r="D59" t="str" cm="1">
-        <f t="array" ref="D59">INDEX($B$6:$B$13,G59)</f>
-        <v>CMOX</v>
-      </c>
-      <c r="E59" cm="1">
-        <f t="array" ref="E59">INDEX($C$6:$L$13,G59,H59)</f>
-        <v>0.02</v>
-      </c>
-      <c r="G59">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H59">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="60" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B60" t="s">
-        <v>29</v>
-      </c>
-      <c r="C60" t="str" cm="1">
-        <f t="array" ref="C60">"???"&amp;INDEX($C$5:$L$5,1,H60)</f>
-        <v>???OAG</v>
-      </c>
-      <c r="D60" t="str" cm="1">
-        <f t="array" ref="D60">INDEX($B$6:$B$13,G60)</f>
-        <v>CMOX</v>
-      </c>
-      <c r="E60" cm="1">
-        <f t="array" ref="E60">INDEX($C$6:$L$13,G60,H60)</f>
-        <v>0.1</v>
-      </c>
-      <c r="G60">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H60">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="61" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B61" t="s">
-        <v>29</v>
-      </c>
-      <c r="C61" t="str" cm="1">
-        <f t="array" ref="C61">"???"&amp;INDEX($C$5:$L$5,1,H61)</f>
-        <v>???ODS</v>
-      </c>
-      <c r="D61" t="str" cm="1">
-        <f t="array" ref="D61">INDEX($B$6:$B$13,G61)</f>
-        <v>CMOX</v>
-      </c>
-      <c r="E61" cm="1">
-        <f t="array" ref="E61">INDEX($C$6:$L$13,G61,H61)</f>
-        <v>1.4999999999999999E-2</v>
-      </c>
-      <c r="G61">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H61">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="62" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B62" t="s">
-        <v>29</v>
-      </c>
-      <c r="C62" t="str" cm="1">
-        <f t="array" ref="C62">"???"&amp;INDEX($C$5:$L$5,1,H62)</f>
-        <v>???OGS</v>
-      </c>
-      <c r="D62" t="str" cm="1">
-        <f t="array" ref="D62">INDEX($B$6:$B$13,G62)</f>
-        <v>CMOX</v>
-      </c>
-      <c r="E62" cm="1">
-        <f t="array" ref="E62">INDEX($C$6:$L$13,G62,H62)</f>
-        <v>8</v>
-      </c>
-      <c r="G62">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H62">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="63" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B63" t="s">
-        <v>29</v>
-      </c>
-      <c r="C63" t="str" cm="1">
-        <f t="array" ref="C63">"???"&amp;INDEX($C$5:$L$5,1,H63)</f>
-        <v>???OHF</v>
-      </c>
-      <c r="D63" t="str" cm="1">
-        <f t="array" ref="D63">INDEX($B$6:$B$13,G63)</f>
-        <v>CMOX</v>
-      </c>
-      <c r="E63" cm="1">
-        <f t="array" ref="E63">INDEX($C$6:$L$13,G63,H63)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G63">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H63">
+      <c r="D88" t="str" cm="1">
+        <f t="array" ref="D88">INDEX($B$6:$B$13,G88)</f>
+        <v>NMVS</v>
+      </c>
+      <c r="E88" cm="1">
+        <f t="array" ref="E88">INDEX($C$6:$M$13,G88,H88)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G88">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="64" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B64" t="s">
-        <v>29</v>
-      </c>
-      <c r="C64" t="str" cm="1">
-        <f t="array" ref="C64">"???"&amp;INDEX($C$5:$L$5,1,H64)&amp;",-TRAOKE"</f>
-        <v>???OKE,-TRAOKE</v>
-      </c>
-      <c r="D64" t="str" cm="1">
-        <f t="array" ref="D64">INDEX($B$6:$B$13,G64)</f>
-        <v>CMOX</v>
-      </c>
-      <c r="E64" cm="1">
-        <f t="array" ref="E64">INDEX($C$6:$L$13,G64,H64)</f>
-        <v>0.01</v>
-      </c>
-      <c r="G64">
-        <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="H64">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="65" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B65" t="s">
-        <v>29</v>
-      </c>
-      <c r="C65" t="str" cm="1">
-        <f t="array" ref="C65">"???"&amp;INDEX($C$5:$L$5,1,H65)</f>
-        <v>???COA</v>
-      </c>
-      <c r="D65" t="str" cm="1">
-        <f t="array" ref="D65">INDEX($B$6:$B$13,G65)</f>
+      <c r="H88">
+        <f t="shared" si="2"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" t="str" cm="1">
+        <f t="array" ref="C89">"???"&amp;INDEX($C$5:$M$5,1,H89)&amp;INDEX($C$15:$M$15,H89)</f>
+        <v>???OAG</v>
+      </c>
+      <c r="D89" t="str" cm="1">
+        <f t="array" ref="D89">INDEX($B$6:$B$13,G89)</f>
         <v>NMVS</v>
       </c>
-      <c r="E65" cm="1">
-        <f t="array" ref="E65">INDEX($C$6:$L$13,G65,H65)</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G65">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H65">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="66" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B66" t="s">
-        <v>29</v>
-      </c>
-      <c r="C66" t="str" cm="1">
-        <f t="array" ref="C66">"???"&amp;INDEX($C$5:$L$5,1,H66)&amp;",-UPSCLE"</f>
-        <v>???CLE,-UPSCLE</v>
-      </c>
-      <c r="D66" t="str" cm="1">
-        <f t="array" ref="D66">INDEX($B$6:$B$13,G66)</f>
-        <v>NMVS</v>
-      </c>
-      <c r="E66" cm="1">
-        <f t="array" ref="E66">INDEX($C$6:$L$13,G66,H66)</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G66">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H66">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="67" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B67" t="s">
-        <v>29</v>
-      </c>
-      <c r="C67" t="str" cm="1">
-        <f t="array" ref="C67">"???"&amp;INDEX($C$5:$L$5,1,H67)&amp;",-UPSGAS"</f>
-        <v>???GAS,-UPSGAS</v>
-      </c>
-      <c r="D67" t="str" cm="1">
-        <f t="array" ref="D67">INDEX($B$6:$B$13,G67)</f>
-        <v>NMVS</v>
-      </c>
-      <c r="E67" cm="1">
-        <f t="array" ref="E67">INDEX($C$6:$L$13,G67,H67)</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G67">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H67">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="68" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B68" t="s">
-        <v>29</v>
-      </c>
-      <c r="C68" t="str" cm="1">
-        <f t="array" ref="C68">"???"&amp;INDEX($C$5:$L$5,1,H68)</f>
-        <v>???OAG</v>
-      </c>
-      <c r="D68" t="str" cm="1">
-        <f t="array" ref="D68">INDEX($B$6:$B$13,G68)</f>
-        <v>NMVS</v>
-      </c>
-      <c r="E68" cm="1">
-        <f t="array" ref="E68">INDEX($C$6:$L$13,G68,H68)</f>
+      <c r="E89" cm="1">
+        <f t="array" ref="E89">INDEX($C$6:$M$13,G89,H89)</f>
         <v>0.05</v>
       </c>
-      <c r="G68">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H68">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="69" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B69" t="s">
-        <v>29</v>
-      </c>
-      <c r="C69" t="str" cm="1">
-        <f t="array" ref="C69">"???"&amp;INDEX($C$5:$L$5,1,H69)</f>
-        <v>???ODS</v>
-      </c>
-      <c r="D69" t="str" cm="1">
-        <f t="array" ref="D69">INDEX($B$6:$B$13,G69)</f>
-        <v>NMVS</v>
-      </c>
-      <c r="E69" cm="1">
-        <f t="array" ref="E69">INDEX($C$6:$L$13,G69,H69)</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G69">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H69">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="70" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B70" t="s">
-        <v>29</v>
-      </c>
-      <c r="C70" t="str" cm="1">
-        <f t="array" ref="C70">"???"&amp;INDEX($C$5:$L$5,1,H70)</f>
-        <v>???OGS</v>
-      </c>
-      <c r="D70" t="str" cm="1">
-        <f t="array" ref="D70">INDEX($B$6:$B$13,G70)</f>
-        <v>NMVS</v>
-      </c>
-      <c r="E70" cm="1">
-        <f t="array" ref="E70">INDEX($C$6:$L$13,G70,H70)</f>
-        <v>1.5</v>
-      </c>
-      <c r="G70">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H70">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="71" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B71" t="s">
-        <v>29</v>
-      </c>
-      <c r="C71" t="str" cm="1">
-        <f t="array" ref="C71">"???"&amp;INDEX($C$5:$L$5,1,H71)</f>
-        <v>???OHF</v>
-      </c>
-      <c r="D71" t="str" cm="1">
-        <f t="array" ref="D71">INDEX($B$6:$B$13,G71)</f>
-        <v>NMVS</v>
-      </c>
-      <c r="E71" cm="1">
-        <f t="array" ref="E71">INDEX($C$6:$L$13,G71,H71)</f>
-        <v>5.0000000000000001E-3</v>
-      </c>
-      <c r="G71">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H71">
+      <c r="G89">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="72" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B72" t="s">
-        <v>29</v>
-      </c>
-      <c r="C72" t="str" cm="1">
-        <f t="array" ref="C72">"???"&amp;INDEX($C$5:$L$5,1,H72)&amp;",-TRAOKE"</f>
-        <v>???OKE,-TRAOKE</v>
-      </c>
-      <c r="D72" t="str" cm="1">
-        <f t="array" ref="D72">INDEX($B$6:$B$13,G72)</f>
+      <c r="H89">
+        <f t="shared" si="2"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B90" t="s">
+        <v>29</v>
+      </c>
+      <c r="C90" t="str" cm="1">
+        <f t="array" ref="C90">"???"&amp;INDEX($C$5:$M$5,1,H90)&amp;INDEX($C$15:$M$15,H90)</f>
+        <v>???ODS</v>
+      </c>
+      <c r="D90" t="str" cm="1">
+        <f t="array" ref="D90">INDEX($B$6:$B$13,G90)</f>
         <v>NMVS</v>
       </c>
-      <c r="E72" cm="1">
-        <f t="array" ref="E72">INDEX($C$6:$L$13,G72,H72)</f>
+      <c r="E90" cm="1">
+        <f t="array" ref="E90">INDEX($C$6:$M$13,G90,H90)</f>
         <v>5.0000000000000001E-3</v>
       </c>
-      <c r="G72">
-        <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="H72">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-    </row>
-    <row r="73" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B73" t="s">
-        <v>29</v>
-      </c>
-      <c r="C73" t="str" cm="1">
-        <f t="array" ref="C73">"???"&amp;INDEX($C$5:$L$5,1,H73)</f>
-        <v>???COA</v>
-      </c>
-      <c r="D73" t="str" cm="1">
-        <f t="array" ref="D73">INDEX($B$6:$B$13,G73)</f>
-        <v>PM10S</v>
-      </c>
-      <c r="E73" cm="1">
-        <f t="array" ref="E73">INDEX($C$6:$L$13,G73,H73)</f>
-        <v>4.5769644752755773E-2</v>
-      </c>
-      <c r="G73">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H73">
-        <f t="shared" si="3"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="74" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B74" t="s">
-        <v>29</v>
-      </c>
-      <c r="C74" t="str" cm="1">
-        <f t="array" ref="C74">"???"&amp;INDEX($C$5:$L$5,1,H74)&amp;",-UPSCLE"</f>
-        <v>???CLE,-UPSCLE</v>
-      </c>
-      <c r="D74" t="str" cm="1">
-        <f t="array" ref="D74">INDEX($B$6:$B$13,G74)</f>
-        <v>PM10S</v>
-      </c>
-      <c r="E74" cm="1">
-        <f t="array" ref="E74">INDEX($C$6:$L$13,G74,H74)</f>
-        <v>4.5769644752755773E-2</v>
-      </c>
-      <c r="G74">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H74">
-        <f t="shared" si="3"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="75" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B75" t="s">
-        <v>29</v>
-      </c>
-      <c r="C75" t="str" cm="1">
-        <f t="array" ref="C75">"???"&amp;INDEX($C$5:$L$5,1,H75)&amp;",-UPSGAS"</f>
-        <v>???GAS,-UPSGAS</v>
-      </c>
-      <c r="D75" t="str" cm="1">
-        <f t="array" ref="D75">INDEX($B$6:$B$13,G75)</f>
-        <v>PM10S</v>
-      </c>
-      <c r="E75" cm="1">
-        <f t="array" ref="E75">INDEX($C$6:$L$13,G75,H75)</f>
-        <v>0</v>
-      </c>
-      <c r="G75">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H75">
-        <f t="shared" si="3"/>
-        <v>3</v>
-      </c>
-    </row>
-    <row r="76" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B76" t="s">
-        <v>29</v>
-      </c>
-      <c r="C76" t="str" cm="1">
-        <f t="array" ref="C76">"???"&amp;INDEX($C$5:$L$5,1,H76)</f>
-        <v>???OAG</v>
-      </c>
-      <c r="D76" t="str" cm="1">
-        <f t="array" ref="D76">INDEX($B$6:$B$13,G76)</f>
-        <v>PM10S</v>
-      </c>
-      <c r="E76" cm="1">
-        <f t="array" ref="E76">INDEX($C$6:$L$13,G76,H76)</f>
-        <v>0</v>
-      </c>
-      <c r="G76">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H76">
-        <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="77" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B77" t="s">
-        <v>29</v>
-      </c>
-      <c r="C77" t="str" cm="1">
-        <f t="array" ref="C77">"???"&amp;INDEX($C$5:$L$5,1,H77)</f>
-        <v>???ODS</v>
-      </c>
-      <c r="D77" t="str" cm="1">
-        <f t="array" ref="D77">INDEX($B$6:$B$13,G77)</f>
-        <v>PM10S</v>
-      </c>
-      <c r="E77" cm="1">
-        <f t="array" ref="E77">INDEX($C$6:$L$13,G77,H77)</f>
-        <v>0</v>
-      </c>
-      <c r="G77">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H77">
-        <f t="shared" si="3"/>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="78" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B78" t="s">
-        <v>29</v>
-      </c>
-      <c r="C78" t="str" cm="1">
-        <f t="array" ref="C78">"???"&amp;INDEX($C$5:$L$5,1,H78)</f>
-        <v>???OGS</v>
-      </c>
-      <c r="D78" t="str" cm="1">
-        <f t="array" ref="D78">INDEX($B$6:$B$13,G78)</f>
-        <v>PM10S</v>
-      </c>
-      <c r="E78" cm="1">
-        <f t="array" ref="E78">INDEX($C$6:$L$13,G78,H78)</f>
-        <v>0</v>
-      </c>
-      <c r="G78">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H78">
-        <f t="shared" si="3"/>
-        <v>6</v>
-      </c>
-    </row>
-    <row r="79" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B79" t="s">
-        <v>29</v>
-      </c>
-      <c r="C79" t="str" cm="1">
-        <f t="array" ref="C79">"???"&amp;INDEX($C$5:$L$5,1,H79)</f>
-        <v>???OHF</v>
-      </c>
-      <c r="D79" t="str" cm="1">
-        <f t="array" ref="D79">INDEX($B$6:$B$13,G79)</f>
-        <v>PM10S</v>
-      </c>
-      <c r="E79" cm="1">
-        <f t="array" ref="E79">INDEX($C$6:$L$13,G79,H79)</f>
-        <v>0</v>
-      </c>
-      <c r="G79">
-        <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="H79">
+      <c r="G90">
         <f t="shared" si="3"/>
         <v>7</v>
       </c>
-    </row>
-    <row r="80" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B80" t="s">
-        <v>29</v>
-      </c>
-      <c r="C80" t="str" cm="1">
-        <f t="array" ref="C80">"???"&amp;INDEX($C$5:$L$5,1,H80)&amp;",-TRAOKE"</f>
+      <c r="H90">
+        <f t="shared" si="2"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B91" t="s">
+        <v>29</v>
+      </c>
+      <c r="C91" t="str" cm="1">
+        <f t="array" ref="C91">"???"&amp;INDEX($C$5:$M$5,1,H91)&amp;INDEX($C$15:$M$15,H91)</f>
+        <v>???OGS</v>
+      </c>
+      <c r="D91" t="str" cm="1">
+        <f t="array" ref="D91">INDEX($B$6:$B$13,G91)</f>
+        <v>NMVS</v>
+      </c>
+      <c r="E91" cm="1">
+        <f t="array" ref="E91">INDEX($C$6:$M$13,G91,H91)</f>
+        <v>1.5</v>
+      </c>
+      <c r="G91">
+        <f t="shared" ref="G91:G102" si="4">IF(H90=$H$17,G90+1,G90)</f>
+        <v>7</v>
+      </c>
+      <c r="H91">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B92" t="s">
+        <v>29</v>
+      </c>
+      <c r="C92" t="str" cm="1">
+        <f t="array" ref="C92">"???"&amp;INDEX($C$5:$M$5,1,H92)&amp;INDEX($C$15:$M$15,H92)</f>
+        <v>???OHF</v>
+      </c>
+      <c r="D92" t="str" cm="1">
+        <f t="array" ref="D92">INDEX($B$6:$B$13,G92)</f>
+        <v>NMVS</v>
+      </c>
+      <c r="E92" cm="1">
+        <f t="array" ref="E92">INDEX($C$6:$M$13,G92,H92)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H92">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B93" t="s">
+        <v>29</v>
+      </c>
+      <c r="C93" t="str" cm="1">
+        <f t="array" ref="C93">"???"&amp;INDEX($C$5:$M$5,1,H93)&amp;INDEX($C$15:$M$15,H93)</f>
         <v>???OKE,-TRAOKE</v>
       </c>
-      <c r="D80" t="str" cm="1">
-        <f t="array" ref="D80">INDEX($B$6:$B$13,G80)</f>
+      <c r="D93" t="str" cm="1">
+        <f t="array" ref="D93">INDEX($B$6:$B$13,G93)</f>
+        <v>NMVS</v>
+      </c>
+      <c r="E93" cm="1">
+        <f t="array" ref="E93">INDEX($C$6:$M$13,G93,H93)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H93">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B94" t="s">
+        <v>29</v>
+      </c>
+      <c r="C94" t="str" cm="1">
+        <f t="array" ref="C94">"???"&amp;INDEX($C$5:$M$5,1,H94)&amp;INDEX($C$15:$M$15,H94)</f>
+        <v>???OLP</v>
+      </c>
+      <c r="D94" t="str" cm="1">
+        <f t="array" ref="D94">INDEX($B$6:$B$13,G94)</f>
+        <v>NMVS</v>
+      </c>
+      <c r="E94" cm="1">
+        <f t="array" ref="E94">INDEX($C$6:$M$13,G94,H94)</f>
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H94">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="95" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B95" t="s">
+        <v>29</v>
+      </c>
+      <c r="C95" t="str" cm="1">
+        <f t="array" ref="C95">"???"&amp;INDEX($C$5:$M$5,1,H95)&amp;INDEX($C$15:$M$15,H95)</f>
+        <v>???WAS</v>
+      </c>
+      <c r="D95" t="str" cm="1">
+        <f t="array" ref="D95">INDEX($B$6:$B$13,G95)</f>
+        <v>NMVS</v>
+      </c>
+      <c r="E95" cm="1">
+        <f t="array" ref="E95">INDEX($C$6:$M$13,G95,H95)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H95">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="96" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B96" t="s">
+        <v>29</v>
+      </c>
+      <c r="C96" t="str" cm="1">
+        <f t="array" ref="C96">"???"&amp;INDEX($C$5:$M$5,1,H96)&amp;INDEX($C$15:$M$15,H96)</f>
+        <v>???COA</v>
+      </c>
+      <c r="D96" t="str" cm="1">
+        <f t="array" ref="D96">INDEX($B$6:$B$13,G96)</f>
         <v>PM10S</v>
       </c>
-      <c r="E80" cm="1">
-        <f t="array" ref="E80">INDEX($C$6:$L$13,G80,H80)</f>
-        <v>0</v>
-      </c>
-      <c r="G80">
-        <f t="shared" si="2"/>
+      <c r="E96" cm="1">
+        <f t="array" ref="E96">INDEX($C$6:$M$13,G96,H96)</f>
+        <v>4.5769644752755773E-2</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="4"/>
         <v>8</v>
       </c>
-      <c r="H80">
-        <f t="shared" si="3"/>
+      <c r="H96">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B97" t="s">
+        <v>29</v>
+      </c>
+      <c r="C97" t="str" cm="1">
+        <f t="array" ref="C97">"???"&amp;INDEX($C$5:$M$5,1,H97)&amp;INDEX($C$15:$M$15,H97)</f>
+        <v>???CLE,-UPSCLE</v>
+      </c>
+      <c r="D97" t="str" cm="1">
+        <f t="array" ref="D97">INDEX($B$6:$B$13,G97)</f>
+        <v>PM10S</v>
+      </c>
+      <c r="E97" cm="1">
+        <f t="array" ref="E97">INDEX($C$6:$M$13,G97,H97)</f>
+        <v>4.5769644752755773E-2</v>
+      </c>
+      <c r="G97">
+        <f t="shared" si="4"/>
         <v>8</v>
+      </c>
+      <c r="H97">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="98" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B98" t="s">
+        <v>29</v>
+      </c>
+      <c r="C98" t="str" cm="1">
+        <f t="array" ref="C98">"???"&amp;INDEX($C$5:$M$5,1,H98)&amp;INDEX($C$15:$M$15,H98)</f>
+        <v>???CLD</v>
+      </c>
+      <c r="D98" t="str" cm="1">
+        <f t="array" ref="D98">INDEX($B$6:$B$13,G98)</f>
+        <v>PM10S</v>
+      </c>
+      <c r="E98" cm="1">
+        <f t="array" ref="E98">INDEX($C$6:$M$13,G98,H98)</f>
+        <v>4.5769644752755773E-2</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="2"/>
+        <v>3</v>
       </c>
     </row>
   </sheetData>

--- a/suppxls/Scen_CombustionEmissions.xlsx
+++ b/suppxls/Scen_CombustionEmissions.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Models\SATIMGE_Veda\suppxls\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A67BB15-658B-4FF1-9118-79C285BA97E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BF7AC4A-B8AD-418A-819B-4C96A41D5985}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{5C169CAC-8982-47AA-A2BD-20E5E721E68B}"/>
+    <workbookView xWindow="2835" yWindow="2835" windowWidth="18480" windowHeight="14550" xr2:uid="{5C169CAC-8982-47AA-A2BD-20E5E721E68B}"/>
   </bookViews>
   <sheets>
     <sheet name="CombustionEmissions" sheetId="1" r:id="rId1"/>
@@ -166,7 +166,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="46">
   <si>
     <t>Combustion Emission Factors</t>
   </si>
@@ -301,6 +301,9 @@
   </si>
   <si>
     <t>CLD</t>
+  </si>
+  <si>
+    <t>BIW</t>
   </si>
 </sst>
 </file>
@@ -1759,14 +1762,14 @@
   <sheetPr codeName="Sheet17">
     <tabColor theme="8"/>
   </sheetPr>
-  <dimension ref="A1:P98"/>
+  <dimension ref="A1:Q114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" ySplit="5" topLeftCell="C6" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="5" topLeftCell="C96" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B17" sqref="B17:I35"/>
       <selection pane="topRight" activeCell="B17" sqref="B17:I35"/>
       <selection pane="bottomLeft" activeCell="B17" sqref="B17:I35"/>
-      <selection pane="bottomRight" activeCell="B99" sqref="B99:H110"/>
+      <selection pane="bottomRight" activeCell="M14" sqref="M14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1777,7 +1780,7 @@
     <col min="4" max="4" width="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="18" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:14" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1786,22 +1789,22 @@
       <c r="E1" s="1"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:13" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="4"/>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="4"/>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B4" s="5" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C5" t="s">
         <v>3</v>
       </c>
@@ -1833,10 +1836,13 @@
         <v>11</v>
       </c>
       <c r="M5" t="s">
+        <v>45</v>
+      </c>
+      <c r="N5" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -1875,10 +1881,13 @@
         <v>63.1</v>
       </c>
       <c r="M6">
+        <v>0</v>
+      </c>
+      <c r="N6">
         <v>91.7</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -1917,10 +1926,13 @@
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="M7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="N7">
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>15</v>
       </c>
@@ -1959,10 +1971,13 @@
         <v>1E-4</v>
       </c>
       <c r="M8">
+        <v>8.0000000000000004E-4</v>
+      </c>
+      <c r="N8">
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>16</v>
       </c>
@@ -2001,10 +2016,13 @@
         <v>5.4089999999999998</v>
       </c>
       <c r="M9">
+        <v>0.03</v>
+      </c>
+      <c r="N9">
         <v>1.5290999999999999</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>17</v>
       </c>
@@ -2043,10 +2061,13 @@
         <v>1.2460000000000001E-2</v>
       </c>
       <c r="M10">
+        <v>0.15</v>
+      </c>
+      <c r="N10">
         <v>0.2</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>18</v>
       </c>
@@ -2085,10 +2106,13 @@
         <v>0.182</v>
       </c>
       <c r="M11">
+        <v>2.6</v>
+      </c>
+      <c r="N11">
         <v>0.01</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>20</v>
       </c>
@@ -2127,10 +2151,13 @@
         <v>2.3699999999999999E-2</v>
       </c>
       <c r="M12">
+        <v>0.04</v>
+      </c>
+      <c r="N12">
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>21</v>
       </c>
@@ -2147,12 +2174,15 @@
         <f t="shared" si="0"/>
         <v>4.5769644752755773E-2</v>
       </c>
-    </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="M13">
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="C14" s="6"/>
       <c r="D14" s="6"/>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>40</v>
       </c>
@@ -2167,18 +2197,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="17" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B17" t="s">
         <v>22</v>
       </c>
       <c r="H17">
-        <v>11</v>
-      </c>
-      <c r="M17" t="s">
+        <v>12</v>
+      </c>
+      <c r="N17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
         <v>23</v>
       </c>
@@ -2197,25 +2227,25 @@
       <c r="H18" t="s">
         <v>28</v>
       </c>
-      <c r="M18" t="s">
+      <c r="N18" t="s">
         <v>23</v>
       </c>
-      <c r="N18" t="s">
+      <c r="O18" t="s">
         <v>39</v>
       </c>
-      <c r="O18" t="s">
+      <c r="P18" t="s">
         <v>24</v>
       </c>
-      <c r="P18" t="s">
+      <c r="Q18" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="19" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
         <v>29</v>
       </c>
       <c r="C19" t="str" cm="1">
-        <f t="array" ref="C19">"???"&amp;INDEX($C$5:$M$5,1,H19)&amp;INDEX($C$15:$M$15,H19)</f>
+        <f t="array" ref="C19">"???"&amp;INDEX($C$5:$N$5,1,H19)&amp;INDEX($C$15:$N$15,H19)</f>
         <v>???COA</v>
       </c>
       <c r="D19" t="str" cm="1">
@@ -2223,7 +2253,7 @@
         <v>CO2C</v>
       </c>
       <c r="E19" cm="1">
-        <f t="array" ref="E19">INDEX($C$6:$M$13,G19,H19)</f>
+        <f t="array" ref="E19">INDEX($C$6:$N$13,G19,H19)</f>
         <v>96.25</v>
       </c>
       <c r="G19">
@@ -2232,27 +2262,27 @@
       <c r="H19">
         <v>1</v>
       </c>
-      <c r="M19" t="s">
+      <c r="N19" t="s">
         <v>37</v>
       </c>
-      <c r="N19" t="s">
+      <c r="O19" t="s">
         <v>38</v>
       </c>
-      <c r="O19" t="str">
-        <f>B6</f>
+      <c r="P19" t="str">
+        <f t="shared" ref="P19:P26" si="1">B6</f>
         <v>CO2C</v>
       </c>
-      <c r="P19">
-        <f>K6</f>
+      <c r="Q19">
+        <f t="shared" ref="Q19:Q26" si="2">K6</f>
         <v>72.900000000000006</v>
       </c>
     </row>
-    <row r="20" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
         <v>29</v>
       </c>
       <c r="C20" t="str" cm="1">
-        <f t="array" ref="C20">"???"&amp;INDEX($C$5:$M$5,1,H20)&amp;INDEX($C$15:$M$15,H20)</f>
+        <f t="array" ref="C20">"???"&amp;INDEX($C$5:$N$5,1,H20)&amp;INDEX($C$15:$N$15,H20)</f>
         <v>???CLE,-UPSCLE</v>
       </c>
       <c r="D20" t="str" cm="1">
@@ -2260,7 +2290,7 @@
         <v>CO2C</v>
       </c>
       <c r="E20" cm="1">
-        <f t="array" ref="E20">INDEX($C$6:$M$13,G20,H20)</f>
+        <f t="array" ref="E20">INDEX($C$6:$N$13,G20,H20)</f>
         <v>96.25</v>
       </c>
       <c r="G20">
@@ -2271,27 +2301,27 @@
         <f>IF(H19=$H$17,1,H19+1)</f>
         <v>2</v>
       </c>
-      <c r="M20" t="s">
+      <c r="N20" t="s">
         <v>37</v>
       </c>
-      <c r="N20" t="s">
+      <c r="O20" t="s">
         <v>38</v>
       </c>
-      <c r="O20" t="str">
-        <f>B7</f>
+      <c r="P20" t="str">
+        <f t="shared" si="1"/>
         <v>CH4C</v>
       </c>
-      <c r="P20">
-        <f>K7</f>
+      <c r="Q20">
+        <f t="shared" si="2"/>
         <v>3.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>29</v>
       </c>
       <c r="C21" t="str" cm="1">
-        <f t="array" ref="C21">"???"&amp;INDEX($C$5:$M$5,1,H21)&amp;INDEX($C$15:$M$15,H21)</f>
+        <f t="array" ref="C21">"???"&amp;INDEX($C$5:$N$5,1,H21)&amp;INDEX($C$15:$N$15,H21)</f>
         <v>???CLD</v>
       </c>
       <c r="D21" t="str" cm="1">
@@ -2299,38 +2329,38 @@
         <v>CO2C</v>
       </c>
       <c r="E21" cm="1">
-        <f t="array" ref="E21">INDEX($C$6:$M$13,G21,H21)</f>
+        <f t="array" ref="E21">INDEX($C$6:$N$13,G21,H21)</f>
         <v>96.25</v>
       </c>
       <c r="G21">
-        <f t="shared" ref="G21:G82" si="1">IF(H20=$H$17,G20+1,G20)</f>
+        <f t="shared" ref="G21:G82" si="3">IF(H20=$H$17,G20+1,G20)</f>
         <v>1</v>
       </c>
       <c r="H21">
-        <f t="shared" ref="H21:H110" si="2">IF(H20=$H$17,1,H20+1)</f>
+        <f t="shared" ref="H21:H127" si="4">IF(H20=$H$17,1,H20+1)</f>
         <v>3</v>
       </c>
-      <c r="M21" t="s">
+      <c r="N21" t="s">
         <v>37</v>
       </c>
-      <c r="N21" t="s">
+      <c r="O21" t="s">
         <v>38</v>
       </c>
-      <c r="O21" t="str">
-        <f>B8</f>
+      <c r="P21" t="str">
+        <f t="shared" si="1"/>
         <v>N2OS</v>
       </c>
-      <c r="P21">
-        <f>K8</f>
+      <c r="Q21">
+        <f t="shared" si="2"/>
         <v>5.9999999999999995E-4</v>
       </c>
     </row>
-    <row r="22" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>29</v>
       </c>
       <c r="C22" t="str" cm="1">
-        <f t="array" ref="C22">"???"&amp;INDEX($C$5:$M$5,1,H22)&amp;INDEX($C$15:$M$15,H22)</f>
+        <f t="array" ref="C22">"???"&amp;INDEX($C$5:$N$5,1,H22)&amp;INDEX($C$15:$N$15,H22)</f>
         <v>???GAS,-UPSGAS</v>
       </c>
       <c r="D22" t="str" cm="1">
@@ -2338,38 +2368,38 @@
         <v>CO2C</v>
       </c>
       <c r="E22" cm="1">
-        <f t="array" ref="E22">INDEX($C$6:$M$13,G22,H22)</f>
+        <f t="array" ref="E22">INDEX($C$6:$N$13,G22,H22)</f>
         <v>56.1</v>
       </c>
       <c r="G22">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H22">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>37</v>
+      </c>
+      <c r="O22" t="s">
+        <v>38</v>
+      </c>
+      <c r="P22" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H22">
+        <v>SOXS</v>
+      </c>
+      <c r="Q22">
         <f t="shared" si="2"/>
-        <v>4</v>
-      </c>
-      <c r="M22" t="s">
-        <v>37</v>
-      </c>
-      <c r="N22" t="s">
-        <v>38</v>
-      </c>
-      <c r="O22" t="str">
-        <f>B9</f>
-        <v>SOXS</v>
-      </c>
-      <c r="P22">
-        <f>K9</f>
         <v>4.5900000000000003E-2</v>
       </c>
     </row>
-    <row r="23" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>29</v>
       </c>
       <c r="C23" t="str" cm="1">
-        <f t="array" ref="C23">"???"&amp;INDEX($C$5:$M$5,1,H23)&amp;INDEX($C$15:$M$15,H23)</f>
+        <f t="array" ref="C23">"???"&amp;INDEX($C$5:$N$5,1,H23)&amp;INDEX($C$15:$N$15,H23)</f>
         <v>???OAG</v>
       </c>
       <c r="D23" t="str" cm="1">
@@ -2377,38 +2407,38 @@
         <v>CO2C</v>
       </c>
       <c r="E23" cm="1">
-        <f t="array" ref="E23">INDEX($C$6:$M$13,G23,H23)</f>
+        <f t="array" ref="E23">INDEX($C$6:$N$13,G23,H23)</f>
         <v>70</v>
       </c>
       <c r="G23">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H23">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+      <c r="N23" t="s">
+        <v>37</v>
+      </c>
+      <c r="O23" t="s">
+        <v>38</v>
+      </c>
+      <c r="P23" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H23">
+        <v>NOXS</v>
+      </c>
+      <c r="Q23">
         <f t="shared" si="2"/>
-        <v>5</v>
-      </c>
-      <c r="M23" t="s">
-        <v>37</v>
-      </c>
-      <c r="N23" t="s">
-        <v>38</v>
-      </c>
-      <c r="O23" t="str">
-        <f>B10</f>
-        <v>NOXS</v>
-      </c>
-      <c r="P23">
-        <f>K10</f>
         <v>0.2</v>
       </c>
     </row>
-    <row r="24" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>29</v>
       </c>
       <c r="C24" t="str" cm="1">
-        <f t="array" ref="C24">"???"&amp;INDEX($C$5:$M$5,1,H24)&amp;INDEX($C$15:$M$15,H24)</f>
+        <f t="array" ref="C24">"???"&amp;INDEX($C$5:$N$5,1,H24)&amp;INDEX($C$15:$N$15,H24)</f>
         <v>???ODS</v>
       </c>
       <c r="D24" t="str" cm="1">
@@ -2416,38 +2446,38 @@
         <v>CO2C</v>
       </c>
       <c r="E24" cm="1">
-        <f t="array" ref="E24">INDEX($C$6:$M$13,G24,H24)</f>
+        <f t="array" ref="E24">INDEX($C$6:$N$13,G24,H24)</f>
         <v>74.066699999999997</v>
       </c>
       <c r="G24">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H24">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+      <c r="N24" t="s">
+        <v>37</v>
+      </c>
+      <c r="O24" t="s">
+        <v>38</v>
+      </c>
+      <c r="P24" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H24">
+        <v>CMOX</v>
+      </c>
+      <c r="Q24">
         <f t="shared" si="2"/>
-        <v>6</v>
-      </c>
-      <c r="M24" t="s">
-        <v>37</v>
-      </c>
-      <c r="N24" t="s">
-        <v>38</v>
-      </c>
-      <c r="O24" t="str">
-        <f>B11</f>
-        <v>CMOX</v>
-      </c>
-      <c r="P24">
-        <f>K11</f>
         <v>0.01</v>
       </c>
     </row>
-    <row r="25" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
         <v>29</v>
       </c>
       <c r="C25" t="str" cm="1">
-        <f t="array" ref="C25">"???"&amp;INDEX($C$5:$M$5,1,H25)&amp;INDEX($C$15:$M$15,H25)</f>
+        <f t="array" ref="C25">"???"&amp;INDEX($C$5:$N$5,1,H25)&amp;INDEX($C$15:$N$15,H25)</f>
         <v>???OGS</v>
       </c>
       <c r="D25" t="str" cm="1">
@@ -2455,38 +2485,38 @@
         <v>CO2C</v>
       </c>
       <c r="E25" cm="1">
-        <f t="array" ref="E25">INDEX($C$6:$M$13,G25,H25)</f>
+        <f t="array" ref="E25">INDEX($C$6:$N$13,G25,H25)</f>
         <v>69.3</v>
       </c>
       <c r="G25">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H25">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="N25" t="s">
+        <v>37</v>
+      </c>
+      <c r="O25" t="s">
+        <v>38</v>
+      </c>
+      <c r="P25" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H25">
+        <v>NMVS</v>
+      </c>
+      <c r="Q25">
         <f t="shared" si="2"/>
-        <v>7</v>
-      </c>
-      <c r="M25" t="s">
-        <v>37</v>
-      </c>
-      <c r="N25" t="s">
-        <v>38</v>
-      </c>
-      <c r="O25" t="str">
-        <f>B12</f>
-        <v>NMVS</v>
-      </c>
-      <c r="P25">
-        <f>K12</f>
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="26" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
         <v>29</v>
       </c>
       <c r="C26" t="str" cm="1">
-        <f t="array" ref="C26">"???"&amp;INDEX($C$5:$M$5,1,H26)&amp;INDEX($C$15:$M$15,H26)</f>
+        <f t="array" ref="C26">"???"&amp;INDEX($C$5:$N$5,1,H26)&amp;INDEX($C$15:$N$15,H26)</f>
         <v>???OHF</v>
       </c>
       <c r="D26" t="str" cm="1">
@@ -2494,38 +2524,38 @@
         <v>CO2C</v>
       </c>
       <c r="E26" cm="1">
-        <f t="array" ref="E26">INDEX($C$6:$M$13,G26,H26)</f>
+        <f t="array" ref="E26">INDEX($C$6:$N$13,G26,H26)</f>
         <v>77.400000000000006</v>
       </c>
       <c r="G26">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="H26">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="N26" t="s">
+        <v>37</v>
+      </c>
+      <c r="O26" t="s">
+        <v>38</v>
+      </c>
+      <c r="P26" t="str">
         <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="H26">
+        <v>PM10S</v>
+      </c>
+      <c r="Q26">
         <f t="shared" si="2"/>
-        <v>8</v>
-      </c>
-      <c r="M26" t="s">
-        <v>37</v>
-      </c>
-      <c r="N26" t="s">
-        <v>38</v>
-      </c>
-      <c r="O26" t="str">
-        <f>B13</f>
-        <v>PM10S</v>
-      </c>
-      <c r="P26">
-        <f>K13</f>
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B27" t="s">
         <v>29</v>
       </c>
       <c r="C27" t="str" cm="1">
-        <f t="array" ref="C27">"???"&amp;INDEX($C$5:$M$5,1,H27)&amp;INDEX($C$15:$M$15,H27)</f>
+        <f t="array" ref="C27">"???"&amp;INDEX($C$5:$N$5,1,H27)&amp;INDEX($C$15:$N$15,H27)</f>
         <v>???OKE,-TRAOKE</v>
       </c>
       <c r="D27" t="str" cm="1">
@@ -2533,24 +2563,24 @@
         <v>CO2C</v>
       </c>
       <c r="E27" cm="1">
-        <f t="array" ref="E27">INDEX($C$6:$M$13,G27,H27)</f>
+        <f t="array" ref="E27">INDEX($C$6:$N$13,G27,H27)</f>
         <v>72.900000000000006</v>
       </c>
       <c r="G27">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H27">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>9</v>
       </c>
     </row>
-    <row r="28" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B28" t="s">
         <v>29</v>
       </c>
       <c r="C28" t="str" cm="1">
-        <f t="array" ref="C28">"???"&amp;INDEX($C$5:$M$5,1,H28)&amp;INDEX($C$15:$M$15,H28)</f>
+        <f t="array" ref="C28">"???"&amp;INDEX($C$5:$N$5,1,H28)&amp;INDEX($C$15:$N$15,H28)</f>
         <v>???OLP</v>
       </c>
       <c r="D28" t="str" cm="1">
@@ -2558,116 +2588,116 @@
         <v>CO2C</v>
       </c>
       <c r="E28" cm="1">
-        <f t="array" ref="E28">INDEX($C$6:$M$13,G28,H28)</f>
+        <f t="array" ref="E28">INDEX($C$6:$N$13,G28,H28)</f>
         <v>63.1</v>
       </c>
       <c r="G28">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H28">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>10</v>
       </c>
     </row>
-    <row r="29" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>29</v>
       </c>
       <c r="C29" t="str" cm="1">
-        <f t="array" ref="C29">"???"&amp;INDEX($C$5:$M$5,1,H29)&amp;INDEX($C$15:$M$15,H29)</f>
-        <v>???WAS</v>
+        <f t="array" ref="C29">"???"&amp;INDEX($C$5:$N$5,1,H29)&amp;INDEX($C$15:$N$15,H29)</f>
+        <v>???BIW</v>
       </c>
       <c r="D29" t="str" cm="1">
         <f t="array" ref="D29">INDEX($B$6:$B$13,G29)</f>
         <v>CO2C</v>
       </c>
       <c r="E29" cm="1">
-        <f t="array" ref="E29">INDEX($C$6:$M$13,G29,H29)</f>
-        <v>91.7</v>
+        <f t="array" ref="E29">INDEX($C$6:$N$13,G29,H29)</f>
+        <v>0</v>
       </c>
       <c r="G29">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>1</v>
       </c>
       <c r="H29">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>11</v>
       </c>
     </row>
-    <row r="30" spans="2:16" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>29</v>
       </c>
       <c r="C30" t="str" cm="1">
-        <f t="array" ref="C30">"???"&amp;INDEX($C$5:$M$5,1,H30)&amp;INDEX($C$15:$M$15,H30)</f>
-        <v>???COA</v>
+        <f t="array" ref="C30">"???"&amp;INDEX($C$5:$N$5,1,H30)&amp;INDEX($C$15:$N$15,H30)</f>
+        <v>???WAS</v>
       </c>
       <c r="D30" t="str" cm="1">
         <f t="array" ref="D30">INDEX($B$6:$B$13,G30)</f>
-        <v>CH4C</v>
+        <v>CO2C</v>
       </c>
       <c r="E30" cm="1">
-        <f t="array" ref="E30">INDEX($C$6:$M$13,G30,H30)</f>
-        <v>1E-3</v>
+        <f t="array" ref="E30">INDEX($C$6:$N$13,G30,H30)</f>
+        <v>91.7</v>
       </c>
       <c r="G30">
-        <f t="shared" si="1"/>
-        <v>2</v>
+        <f t="shared" si="3"/>
+        <v>1</v>
       </c>
       <c r="H30">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="31" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>29</v>
       </c>
       <c r="C31" t="str" cm="1">
-        <f t="array" ref="C31">"???"&amp;INDEX($C$5:$M$5,1,H31)&amp;INDEX($C$15:$M$15,H31)</f>
-        <v>???CLE,-UPSCLE</v>
+        <f t="array" ref="C31">"???"&amp;INDEX($C$5:$N$5,1,H31)&amp;INDEX($C$15:$N$15,H31)</f>
+        <v>???COA</v>
       </c>
       <c r="D31" t="str" cm="1">
         <f t="array" ref="D31">INDEX($B$6:$B$13,G31)</f>
         <v>CH4C</v>
       </c>
       <c r="E31" cm="1">
-        <f t="array" ref="E31">INDEX($C$6:$M$13,G31,H31)</f>
+        <f t="array" ref="E31">INDEX($C$6:$N$13,G31,H31)</f>
         <v>1E-3</v>
       </c>
       <c r="G31">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H31">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="32" spans="2:16" x14ac:dyDescent="0.25">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="2:17" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>29</v>
       </c>
       <c r="C32" t="str" cm="1">
-        <f t="array" ref="C32">"???"&amp;INDEX($C$5:$M$5,1,H32)&amp;INDEX($C$15:$M$15,H32)</f>
-        <v>???CLD</v>
+        <f t="array" ref="C32">"???"&amp;INDEX($C$5:$N$5,1,H32)&amp;INDEX($C$15:$N$15,H32)</f>
+        <v>???CLE,-UPSCLE</v>
       </c>
       <c r="D32" t="str" cm="1">
         <f t="array" ref="D32">INDEX($B$6:$B$13,G32)</f>
         <v>CH4C</v>
       </c>
       <c r="E32" cm="1">
-        <f t="array" ref="E32">INDEX($C$6:$M$13,G32,H32)</f>
+        <f t="array" ref="E32">INDEX($C$6:$N$13,G32,H32)</f>
         <v>1E-3</v>
       </c>
       <c r="G32">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H32">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="2:8" x14ac:dyDescent="0.25">
@@ -2675,24 +2705,24 @@
         <v>29</v>
       </c>
       <c r="C33" t="str" cm="1">
-        <f t="array" ref="C33">"???"&amp;INDEX($C$5:$M$5,1,H33)&amp;INDEX($C$15:$M$15,H33)</f>
-        <v>???GAS,-UPSGAS</v>
+        <f t="array" ref="C33">"???"&amp;INDEX($C$5:$N$5,1,H33)&amp;INDEX($C$15:$N$15,H33)</f>
+        <v>???CLD</v>
       </c>
       <c r="D33" t="str" cm="1">
         <f t="array" ref="D33">INDEX($B$6:$B$13,G33)</f>
         <v>CH4C</v>
       </c>
       <c r="E33" cm="1">
-        <f t="array" ref="E33">INDEX($C$6:$M$13,G33,H33)</f>
+        <f t="array" ref="E33">INDEX($C$6:$N$13,G33,H33)</f>
         <v>1E-3</v>
       </c>
       <c r="G33">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H33">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
     </row>
     <row r="34" spans="2:8" x14ac:dyDescent="0.25">
@@ -2700,24 +2730,24 @@
         <v>29</v>
       </c>
       <c r="C34" t="str" cm="1">
-        <f t="array" ref="C34">"???"&amp;INDEX($C$5:$M$5,1,H34)&amp;INDEX($C$15:$M$15,H34)</f>
-        <v>???OAG</v>
+        <f t="array" ref="C34">"???"&amp;INDEX($C$5:$N$5,1,H34)&amp;INDEX($C$15:$N$15,H34)</f>
+        <v>???GAS,-UPSGAS</v>
       </c>
       <c r="D34" t="str" cm="1">
         <f t="array" ref="D34">INDEX($B$6:$B$13,G34)</f>
         <v>CH4C</v>
       </c>
       <c r="E34" cm="1">
-        <f t="array" ref="E34">INDEX($C$6:$M$13,G34,H34)</f>
-        <v>3.0000000000000001E-3</v>
+        <f t="array" ref="E34">INDEX($C$6:$N$13,G34,H34)</f>
+        <v>1E-3</v>
       </c>
       <c r="G34">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H34">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
     </row>
     <row r="35" spans="2:8" x14ac:dyDescent="0.25">
@@ -2725,24 +2755,24 @@
         <v>29</v>
       </c>
       <c r="C35" t="str" cm="1">
-        <f t="array" ref="C35">"???"&amp;INDEX($C$5:$M$5,1,H35)&amp;INDEX($C$15:$M$15,H35)</f>
-        <v>???ODS</v>
+        <f t="array" ref="C35">"???"&amp;INDEX($C$5:$N$5,1,H35)&amp;INDEX($C$15:$N$15,H35)</f>
+        <v>???OAG</v>
       </c>
       <c r="D35" t="str" cm="1">
         <f t="array" ref="D35">INDEX($B$6:$B$13,G35)</f>
         <v>CH4C</v>
       </c>
       <c r="E35" cm="1">
-        <f t="array" ref="E35">INDEX($C$6:$M$13,G35,H35)</f>
+        <f t="array" ref="E35">INDEX($C$6:$N$13,G35,H35)</f>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G35">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H35">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
     </row>
     <row r="36" spans="2:8" x14ac:dyDescent="0.25">
@@ -2750,24 +2780,24 @@
         <v>29</v>
       </c>
       <c r="C36" t="str" cm="1">
-        <f t="array" ref="C36">"???"&amp;INDEX($C$5:$M$5,1,H36)&amp;INDEX($C$15:$M$15,H36)</f>
-        <v>???OGS</v>
+        <f t="array" ref="C36">"???"&amp;INDEX($C$5:$N$5,1,H36)&amp;INDEX($C$15:$N$15,H36)</f>
+        <v>???ODS</v>
       </c>
       <c r="D36" t="str" cm="1">
         <f t="array" ref="D36">INDEX($B$6:$B$13,G36)</f>
         <v>CH4C</v>
       </c>
       <c r="E36" cm="1">
-        <f t="array" ref="E36">INDEX($C$6:$M$13,G36,H36)</f>
+        <f t="array" ref="E36">INDEX($C$6:$N$13,G36,H36)</f>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G36">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H36">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
     </row>
     <row r="37" spans="2:8" x14ac:dyDescent="0.25">
@@ -2775,24 +2805,24 @@
         <v>29</v>
       </c>
       <c r="C37" t="str" cm="1">
-        <f t="array" ref="C37">"???"&amp;INDEX($C$5:$M$5,1,H37)&amp;INDEX($C$15:$M$15,H37)</f>
-        <v>???OHF</v>
+        <f t="array" ref="C37">"???"&amp;INDEX($C$5:$N$5,1,H37)&amp;INDEX($C$15:$N$15,H37)</f>
+        <v>???OGS</v>
       </c>
       <c r="D37" t="str" cm="1">
         <f t="array" ref="D37">INDEX($B$6:$B$13,G37)</f>
         <v>CH4C</v>
       </c>
       <c r="E37" cm="1">
-        <f t="array" ref="E37">INDEX($C$6:$M$13,G37,H37)</f>
+        <f t="array" ref="E37">INDEX($C$6:$N$13,G37,H37)</f>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G37">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H37">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
     </row>
     <row r="38" spans="2:8" x14ac:dyDescent="0.25">
@@ -2800,24 +2830,24 @@
         <v>29</v>
       </c>
       <c r="C38" t="str" cm="1">
-        <f t="array" ref="C38">"???"&amp;INDEX($C$5:$M$5,1,H38)&amp;INDEX($C$15:$M$15,H38)</f>
-        <v>???OKE,-TRAOKE</v>
+        <f t="array" ref="C38">"???"&amp;INDEX($C$5:$N$5,1,H38)&amp;INDEX($C$15:$N$15,H38)</f>
+        <v>???OHF</v>
       </c>
       <c r="D38" t="str" cm="1">
         <f t="array" ref="D38">INDEX($B$6:$B$13,G38)</f>
         <v>CH4C</v>
       </c>
       <c r="E38" cm="1">
-        <f t="array" ref="E38">INDEX($C$6:$M$13,G38,H38)</f>
+        <f t="array" ref="E38">INDEX($C$6:$N$13,G38,H38)</f>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G38">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H38">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
     </row>
     <row r="39" spans="2:8" x14ac:dyDescent="0.25">
@@ -2825,24 +2855,24 @@
         <v>29</v>
       </c>
       <c r="C39" t="str" cm="1">
-        <f t="array" ref="C39">"???"&amp;INDEX($C$5:$M$5,1,H39)&amp;INDEX($C$15:$M$15,H39)</f>
-        <v>???OLP</v>
+        <f t="array" ref="C39">"???"&amp;INDEX($C$5:$N$5,1,H39)&amp;INDEX($C$15:$N$15,H39)</f>
+        <v>???OKE,-TRAOKE</v>
       </c>
       <c r="D39" t="str" cm="1">
         <f t="array" ref="D39">INDEX($B$6:$B$13,G39)</f>
         <v>CH4C</v>
       </c>
       <c r="E39" cm="1">
-        <f t="array" ref="E39">INDEX($C$6:$M$13,G39,H39)</f>
+        <f t="array" ref="E39">INDEX($C$6:$N$13,G39,H39)</f>
         <v>3.0000000000000001E-3</v>
       </c>
       <c r="G39">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H39">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
     </row>
     <row r="40" spans="2:8" x14ac:dyDescent="0.25">
@@ -2850,24 +2880,24 @@
         <v>29</v>
       </c>
       <c r="C40" t="str" cm="1">
-        <f t="array" ref="C40">"???"&amp;INDEX($C$5:$M$5,1,H40)&amp;INDEX($C$15:$M$15,H40)</f>
-        <v>???WAS</v>
+        <f t="array" ref="C40">"???"&amp;INDEX($C$5:$N$5,1,H40)&amp;INDEX($C$15:$N$15,H40)</f>
+        <v>???OLP</v>
       </c>
       <c r="D40" t="str" cm="1">
         <f t="array" ref="D40">INDEX($B$6:$B$13,G40)</f>
         <v>CH4C</v>
       </c>
       <c r="E40" cm="1">
-        <f t="array" ref="E40">INDEX($C$6:$M$13,G40,H40)</f>
-        <v>0.03</v>
+        <f t="array" ref="E40">INDEX($C$6:$N$13,G40,H40)</f>
+        <v>3.0000000000000001E-3</v>
       </c>
       <c r="G40">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>2</v>
       </c>
       <c r="H40">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="41" spans="2:8" x14ac:dyDescent="0.25">
@@ -2875,24 +2905,24 @@
         <v>29</v>
       </c>
       <c r="C41" t="str" cm="1">
-        <f t="array" ref="C41">"???"&amp;INDEX($C$5:$M$5,1,H41)&amp;INDEX($C$15:$M$15,H41)</f>
-        <v>???COA</v>
+        <f t="array" ref="C41">"???"&amp;INDEX($C$5:$N$5,1,H41)&amp;INDEX($C$15:$N$15,H41)</f>
+        <v>???BIW</v>
       </c>
       <c r="D41" t="str" cm="1">
         <f t="array" ref="D41">INDEX($B$6:$B$13,G41)</f>
-        <v>N2OS</v>
+        <v>CH4C</v>
       </c>
       <c r="E41" cm="1">
-        <f t="array" ref="E41">INDEX($C$6:$M$13,G41,H41)</f>
-        <v>1.4E-3</v>
+        <f t="array" ref="E41">INDEX($C$6:$N$13,G41,H41)</f>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G41">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="H41">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
     </row>
     <row r="42" spans="2:8" x14ac:dyDescent="0.25">
@@ -2900,24 +2930,24 @@
         <v>29</v>
       </c>
       <c r="C42" t="str" cm="1">
-        <f t="array" ref="C42">"???"&amp;INDEX($C$5:$M$5,1,H42)&amp;INDEX($C$15:$M$15,H42)</f>
-        <v>???CLE,-UPSCLE</v>
+        <f t="array" ref="C42">"???"&amp;INDEX($C$5:$N$5,1,H42)&amp;INDEX($C$15:$N$15,H42)</f>
+        <v>???WAS</v>
       </c>
       <c r="D42" t="str" cm="1">
         <f t="array" ref="D42">INDEX($B$6:$B$13,G42)</f>
-        <v>N2OS</v>
+        <v>CH4C</v>
       </c>
       <c r="E42" cm="1">
-        <f t="array" ref="E42">INDEX($C$6:$M$13,G42,H42)</f>
-        <v>1.4E-3</v>
+        <f t="array" ref="E42">INDEX($C$6:$N$13,G42,H42)</f>
+        <v>0.03</v>
       </c>
       <c r="G42">
-        <f t="shared" si="1"/>
-        <v>3</v>
+        <f t="shared" si="3"/>
+        <v>2</v>
       </c>
       <c r="H42">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.25">
@@ -2925,24 +2955,24 @@
         <v>29</v>
       </c>
       <c r="C43" t="str" cm="1">
-        <f t="array" ref="C43">"???"&amp;INDEX($C$5:$M$5,1,H43)&amp;INDEX($C$15:$M$15,H43)</f>
-        <v>???CLD</v>
+        <f t="array" ref="C43">"???"&amp;INDEX($C$5:$N$5,1,H43)&amp;INDEX($C$15:$N$15,H43)</f>
+        <v>???COA</v>
       </c>
       <c r="D43" t="str" cm="1">
         <f t="array" ref="D43">INDEX($B$6:$B$13,G43)</f>
         <v>N2OS</v>
       </c>
       <c r="E43" cm="1">
-        <f t="array" ref="E43">INDEX($C$6:$M$13,G43,H43)</f>
+        <f t="array" ref="E43">INDEX($C$6:$N$13,G43,H43)</f>
         <v>1.4E-3</v>
       </c>
       <c r="G43">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H43">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="44" spans="2:8" x14ac:dyDescent="0.25">
@@ -2950,24 +2980,24 @@
         <v>29</v>
       </c>
       <c r="C44" t="str" cm="1">
-        <f t="array" ref="C44">"???"&amp;INDEX($C$5:$M$5,1,H44)&amp;INDEX($C$15:$M$15,H44)</f>
-        <v>???GAS,-UPSGAS</v>
+        <f t="array" ref="C44">"???"&amp;INDEX($C$5:$N$5,1,H44)&amp;INDEX($C$15:$N$15,H44)</f>
+        <v>???CLE,-UPSCLE</v>
       </c>
       <c r="D44" t="str" cm="1">
         <f t="array" ref="D44">INDEX($B$6:$B$13,G44)</f>
         <v>N2OS</v>
       </c>
       <c r="E44" cm="1">
-        <f t="array" ref="E44">INDEX($C$6:$M$13,G44,H44)</f>
-        <v>1E-4</v>
+        <f t="array" ref="E44">INDEX($C$6:$N$13,G44,H44)</f>
+        <v>1.4E-3</v>
       </c>
       <c r="G44">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H44">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="2:8" x14ac:dyDescent="0.25">
@@ -2975,24 +3005,24 @@
         <v>29</v>
       </c>
       <c r="C45" t="str" cm="1">
-        <f t="array" ref="C45">"???"&amp;INDEX($C$5:$M$5,1,H45)&amp;INDEX($C$15:$M$15,H45)</f>
-        <v>???OAG</v>
+        <f t="array" ref="C45">"???"&amp;INDEX($C$5:$N$5,1,H45)&amp;INDEX($C$15:$N$15,H45)</f>
+        <v>???CLD</v>
       </c>
       <c r="D45" t="str" cm="1">
         <f t="array" ref="D45">INDEX($B$6:$B$13,G45)</f>
         <v>N2OS</v>
       </c>
       <c r="E45" cm="1">
-        <f t="array" ref="E45">INDEX($C$6:$M$13,G45,H45)</f>
-        <v>5.9999999999999995E-4</v>
+        <f t="array" ref="E45">INDEX($C$6:$N$13,G45,H45)</f>
+        <v>1.4E-3</v>
       </c>
       <c r="G45">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H45">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.25">
@@ -3000,24 +3030,24 @@
         <v>29</v>
       </c>
       <c r="C46" t="str" cm="1">
-        <f t="array" ref="C46">"???"&amp;INDEX($C$5:$M$5,1,H46)&amp;INDEX($C$15:$M$15,H46)</f>
-        <v>???ODS</v>
+        <f t="array" ref="C46">"???"&amp;INDEX($C$5:$N$5,1,H46)&amp;INDEX($C$15:$N$15,H46)</f>
+        <v>???GAS,-UPSGAS</v>
       </c>
       <c r="D46" t="str" cm="1">
         <f t="array" ref="D46">INDEX($B$6:$B$13,G46)</f>
         <v>N2OS</v>
       </c>
       <c r="E46" cm="1">
-        <f t="array" ref="E46">INDEX($C$6:$M$13,G46,H46)</f>
-        <v>5.9999999999999995E-4</v>
+        <f t="array" ref="E46">INDEX($C$6:$N$13,G46,H46)</f>
+        <v>1E-4</v>
       </c>
       <c r="G46">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H46">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
     </row>
     <row r="47" spans="2:8" x14ac:dyDescent="0.25">
@@ -3025,24 +3055,24 @@
         <v>29</v>
       </c>
       <c r="C47" t="str" cm="1">
-        <f t="array" ref="C47">"???"&amp;INDEX($C$5:$M$5,1,H47)&amp;INDEX($C$15:$M$15,H47)</f>
-        <v>???OGS</v>
+        <f t="array" ref="C47">"???"&amp;INDEX($C$5:$N$5,1,H47)&amp;INDEX($C$15:$N$15,H47)</f>
+        <v>???OAG</v>
       </c>
       <c r="D47" t="str" cm="1">
         <f t="array" ref="D47">INDEX($B$6:$B$13,G47)</f>
         <v>N2OS</v>
       </c>
       <c r="E47" cm="1">
-        <f t="array" ref="E47">INDEX($C$6:$M$13,G47,H47)</f>
+        <f t="array" ref="E47">INDEX($C$6:$N$13,G47,H47)</f>
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="G47">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H47">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
     </row>
     <row r="48" spans="2:8" x14ac:dyDescent="0.25">
@@ -3050,24 +3080,24 @@
         <v>29</v>
       </c>
       <c r="C48" t="str" cm="1">
-        <f t="array" ref="C48">"???"&amp;INDEX($C$5:$M$5,1,H48)&amp;INDEX($C$15:$M$15,H48)</f>
-        <v>???OHF</v>
+        <f t="array" ref="C48">"???"&amp;INDEX($C$5:$N$5,1,H48)&amp;INDEX($C$15:$N$15,H48)</f>
+        <v>???ODS</v>
       </c>
       <c r="D48" t="str" cm="1">
         <f t="array" ref="D48">INDEX($B$6:$B$13,G48)</f>
         <v>N2OS</v>
       </c>
       <c r="E48" cm="1">
-        <f t="array" ref="E48">INDEX($C$6:$M$13,G48,H48)</f>
+        <f t="array" ref="E48">INDEX($C$6:$N$13,G48,H48)</f>
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="G48">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H48">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="2:8" x14ac:dyDescent="0.25">
@@ -3075,24 +3105,24 @@
         <v>29</v>
       </c>
       <c r="C49" t="str" cm="1">
-        <f t="array" ref="C49">"???"&amp;INDEX($C$5:$M$5,1,H49)&amp;INDEX($C$15:$M$15,H49)</f>
-        <v>???OKE,-TRAOKE</v>
+        <f t="array" ref="C49">"???"&amp;INDEX($C$5:$N$5,1,H49)&amp;INDEX($C$15:$N$15,H49)</f>
+        <v>???OGS</v>
       </c>
       <c r="D49" t="str" cm="1">
         <f t="array" ref="D49">INDEX($B$6:$B$13,G49)</f>
         <v>N2OS</v>
       </c>
       <c r="E49" cm="1">
-        <f t="array" ref="E49">INDEX($C$6:$M$13,G49,H49)</f>
+        <f t="array" ref="E49">INDEX($C$6:$N$13,G49,H49)</f>
         <v>5.9999999999999995E-4</v>
       </c>
       <c r="G49">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H49">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="2:8" x14ac:dyDescent="0.25">
@@ -3100,24 +3130,24 @@
         <v>29</v>
       </c>
       <c r="C50" t="str" cm="1">
-        <f t="array" ref="C50">"???"&amp;INDEX($C$5:$M$5,1,H50)&amp;INDEX($C$15:$M$15,H50)</f>
-        <v>???OLP</v>
+        <f t="array" ref="C50">"???"&amp;INDEX($C$5:$N$5,1,H50)&amp;INDEX($C$15:$N$15,H50)</f>
+        <v>???OHF</v>
       </c>
       <c r="D50" t="str" cm="1">
         <f t="array" ref="D50">INDEX($B$6:$B$13,G50)</f>
         <v>N2OS</v>
       </c>
       <c r="E50" cm="1">
-        <f t="array" ref="E50">INDEX($C$6:$M$13,G50,H50)</f>
-        <v>1E-4</v>
+        <f t="array" ref="E50">INDEX($C$6:$N$13,G50,H50)</f>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="G50">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H50">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
     </row>
     <row r="51" spans="2:8" x14ac:dyDescent="0.25">
@@ -3125,24 +3155,24 @@
         <v>29</v>
       </c>
       <c r="C51" t="str" cm="1">
-        <f t="array" ref="C51">"???"&amp;INDEX($C$5:$M$5,1,H51)&amp;INDEX($C$15:$M$15,H51)</f>
-        <v>???WAS</v>
+        <f t="array" ref="C51">"???"&amp;INDEX($C$5:$N$5,1,H51)&amp;INDEX($C$15:$N$15,H51)</f>
+        <v>???OKE,-TRAOKE</v>
       </c>
       <c r="D51" t="str" cm="1">
         <f t="array" ref="D51">INDEX($B$6:$B$13,G51)</f>
         <v>N2OS</v>
       </c>
       <c r="E51" cm="1">
-        <f t="array" ref="E51">INDEX($C$6:$M$13,G51,H51)</f>
-        <v>4.0000000000000001E-3</v>
+        <f t="array" ref="E51">INDEX($C$6:$N$13,G51,H51)</f>
+        <v>5.9999999999999995E-4</v>
       </c>
       <c r="G51">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>3</v>
       </c>
       <c r="H51">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
     </row>
     <row r="52" spans="2:8" x14ac:dyDescent="0.25">
@@ -3150,24 +3180,24 @@
         <v>29</v>
       </c>
       <c r="C52" t="str" cm="1">
-        <f t="array" ref="C52">"???"&amp;INDEX($C$5:$M$5,1,H52)&amp;INDEX($C$15:$M$15,H52)</f>
-        <v>???COA</v>
+        <f t="array" ref="C52">"???"&amp;INDEX($C$5:$N$5,1,H52)&amp;INDEX($C$15:$N$15,H52)</f>
+        <v>???OLP</v>
       </c>
       <c r="D52" t="str" cm="1">
         <f t="array" ref="D52">INDEX($B$6:$B$13,G52)</f>
-        <v>SOXS</v>
+        <v>N2OS</v>
       </c>
       <c r="E52" cm="1">
-        <f t="array" ref="E52">INDEX($C$6:$M$13,G52,H52)</f>
-        <v>0.62619999999999998</v>
+        <f t="array" ref="E52">INDEX($C$6:$N$13,G52,H52)</f>
+        <v>1E-4</v>
       </c>
       <c r="G52">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="H52">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="53" spans="2:8" x14ac:dyDescent="0.25">
@@ -3175,24 +3205,24 @@
         <v>29</v>
       </c>
       <c r="C53" t="str" cm="1">
-        <f t="array" ref="C53">"???"&amp;INDEX($C$5:$M$5,1,H53)&amp;INDEX($C$15:$M$15,H53)</f>
-        <v>???CLE,-UPSCLE</v>
+        <f t="array" ref="C53">"???"&amp;INDEX($C$5:$N$5,1,H53)&amp;INDEX($C$15:$N$15,H53)</f>
+        <v>???BIW</v>
       </c>
       <c r="D53" t="str" cm="1">
         <f t="array" ref="D53">INDEX($B$6:$B$13,G53)</f>
-        <v>SOXS</v>
+        <v>N2OS</v>
       </c>
       <c r="E53" cm="1">
-        <f t="array" ref="E53">INDEX($C$6:$M$13,G53,H53)</f>
-        <v>0.62619999999999998</v>
+        <f t="array" ref="E53">INDEX($C$6:$N$13,G53,H53)</f>
+        <v>8.0000000000000004E-4</v>
       </c>
       <c r="G53">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="H53">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
     </row>
     <row r="54" spans="2:8" x14ac:dyDescent="0.25">
@@ -3200,24 +3230,24 @@
         <v>29</v>
       </c>
       <c r="C54" t="str" cm="1">
-        <f t="array" ref="C54">"???"&amp;INDEX($C$5:$M$5,1,H54)&amp;INDEX($C$15:$M$15,H54)</f>
-        <v>???CLD</v>
+        <f t="array" ref="C54">"???"&amp;INDEX($C$5:$N$5,1,H54)&amp;INDEX($C$15:$N$15,H54)</f>
+        <v>???WAS</v>
       </c>
       <c r="D54" t="str" cm="1">
         <f t="array" ref="D54">INDEX($B$6:$B$13,G54)</f>
-        <v>SOXS</v>
+        <v>N2OS</v>
       </c>
       <c r="E54" cm="1">
-        <f t="array" ref="E54">INDEX($C$6:$M$13,G54,H54)</f>
-        <v>0.62619999999999998</v>
+        <f t="array" ref="E54">INDEX($C$6:$N$13,G54,H54)</f>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="G54">
-        <f t="shared" si="1"/>
-        <v>4</v>
+        <f t="shared" si="3"/>
+        <v>3</v>
       </c>
       <c r="H54">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="2:8" x14ac:dyDescent="0.25">
@@ -3225,24 +3255,24 @@
         <v>29</v>
       </c>
       <c r="C55" t="str" cm="1">
-        <f t="array" ref="C55">"???"&amp;INDEX($C$5:$M$5,1,H55)&amp;INDEX($C$15:$M$15,H55)</f>
-        <v>???GAS,-UPSGAS</v>
+        <f t="array" ref="C55">"???"&amp;INDEX($C$5:$N$5,1,H55)&amp;INDEX($C$15:$N$15,H55)</f>
+        <v>???COA</v>
       </c>
       <c r="D55" t="str" cm="1">
         <f t="array" ref="D55">INDEX($B$6:$B$13,G55)</f>
         <v>SOXS</v>
       </c>
       <c r="E55" cm="1">
-        <f t="array" ref="E55">INDEX($C$6:$M$13,G55,H55)</f>
-        <v>0</v>
+        <f t="array" ref="E55">INDEX($C$6:$N$13,G55,H55)</f>
+        <v>0.62619999999999998</v>
       </c>
       <c r="G55">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H55">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="56" spans="2:8" x14ac:dyDescent="0.25">
@@ -3250,24 +3280,24 @@
         <v>29</v>
       </c>
       <c r="C56" t="str" cm="1">
-        <f t="array" ref="C56">"???"&amp;INDEX($C$5:$M$5,1,H56)&amp;INDEX($C$15:$M$15,H56)</f>
-        <v>???OAG</v>
+        <f t="array" ref="C56">"???"&amp;INDEX($C$5:$N$5,1,H56)&amp;INDEX($C$15:$N$15,H56)</f>
+        <v>???CLE,-UPSCLE</v>
       </c>
       <c r="D56" t="str" cm="1">
         <f t="array" ref="D56">INDEX($B$6:$B$13,G56)</f>
         <v>SOXS</v>
       </c>
       <c r="E56" cm="1">
-        <f t="array" ref="E56">INDEX($C$6:$M$13,G56,H56)</f>
-        <v>4.6699999999999998E-2</v>
+        <f t="array" ref="E56">INDEX($C$6:$N$13,G56,H56)</f>
+        <v>0.62619999999999998</v>
       </c>
       <c r="G56">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H56">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="2:8" x14ac:dyDescent="0.25">
@@ -3275,24 +3305,24 @@
         <v>29</v>
       </c>
       <c r="C57" t="str" cm="1">
-        <f t="array" ref="C57">"???"&amp;INDEX($C$5:$M$5,1,H57)&amp;INDEX($C$15:$M$15,H57)</f>
-        <v>???ODS</v>
+        <f t="array" ref="C57">"???"&amp;INDEX($C$5:$N$5,1,H57)&amp;INDEX($C$15:$N$15,H57)</f>
+        <v>???CLD</v>
       </c>
       <c r="D57" t="str" cm="1">
         <f t="array" ref="D57">INDEX($B$6:$B$13,G57)</f>
         <v>SOXS</v>
       </c>
       <c r="E57" cm="1">
-        <f t="array" ref="E57">INDEX($C$6:$M$13,G57,H57)</f>
-        <v>0.25290000000000001</v>
+        <f t="array" ref="E57">INDEX($C$6:$N$13,G57,H57)</f>
+        <v>0.62619999999999998</v>
       </c>
       <c r="G57">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H57">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
     </row>
     <row r="58" spans="2:8" x14ac:dyDescent="0.25">
@@ -3300,24 +3330,24 @@
         <v>29</v>
       </c>
       <c r="C58" t="str" cm="1">
-        <f t="array" ref="C58">"???"&amp;INDEX($C$5:$M$5,1,H58)&amp;INDEX($C$15:$M$15,H58)</f>
-        <v>???OGS</v>
+        <f t="array" ref="C58">"???"&amp;INDEX($C$5:$N$5,1,H58)&amp;INDEX($C$15:$N$15,H58)</f>
+        <v>???GAS,-UPSGAS</v>
       </c>
       <c r="D58" t="str" cm="1">
         <f t="array" ref="D58">INDEX($B$6:$B$13,G58)</f>
         <v>SOXS</v>
       </c>
       <c r="E58" cm="1">
-        <f t="array" ref="E58">INDEX($C$6:$M$13,G58,H58)</f>
-        <v>4.6699999999999998E-2</v>
+        <f t="array" ref="E58">INDEX($C$6:$N$13,G58,H58)</f>
+        <v>0</v>
       </c>
       <c r="G58">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H58">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
     </row>
     <row r="59" spans="2:8" x14ac:dyDescent="0.25">
@@ -3325,24 +3355,24 @@
         <v>29</v>
       </c>
       <c r="C59" t="str" cm="1">
-        <f t="array" ref="C59">"???"&amp;INDEX($C$5:$M$5,1,H59)&amp;INDEX($C$15:$M$15,H59)</f>
-        <v>???OHF</v>
+        <f t="array" ref="C59">"???"&amp;INDEX($C$5:$N$5,1,H59)&amp;INDEX($C$15:$N$15,H59)</f>
+        <v>???OAG</v>
       </c>
       <c r="D59" t="str" cm="1">
         <f t="array" ref="D59">INDEX($B$6:$B$13,G59)</f>
         <v>SOXS</v>
       </c>
       <c r="E59" cm="1">
-        <f t="array" ref="E59">INDEX($C$6:$M$13,G59,H59)</f>
-        <v>1.5290999999999999</v>
+        <f t="array" ref="E59">INDEX($C$6:$N$13,G59,H59)</f>
+        <v>4.6699999999999998E-2</v>
       </c>
       <c r="G59">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H59">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
     </row>
     <row r="60" spans="2:8" x14ac:dyDescent="0.25">
@@ -3350,24 +3380,24 @@
         <v>29</v>
       </c>
       <c r="C60" t="str" cm="1">
-        <f t="array" ref="C60">"???"&amp;INDEX($C$5:$M$5,1,H60)&amp;INDEX($C$15:$M$15,H60)</f>
-        <v>???OKE,-TRAOKE</v>
+        <f t="array" ref="C60">"???"&amp;INDEX($C$5:$N$5,1,H60)&amp;INDEX($C$15:$N$15,H60)</f>
+        <v>???ODS</v>
       </c>
       <c r="D60" t="str" cm="1">
         <f t="array" ref="D60">INDEX($B$6:$B$13,G60)</f>
         <v>SOXS</v>
       </c>
       <c r="E60" cm="1">
-        <f t="array" ref="E60">INDEX($C$6:$M$13,G60,H60)</f>
-        <v>4.5900000000000003E-2</v>
+        <f t="array" ref="E60">INDEX($C$6:$N$13,G60,H60)</f>
+        <v>0.25290000000000001</v>
       </c>
       <c r="G60">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H60">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
     </row>
     <row r="61" spans="2:8" x14ac:dyDescent="0.25">
@@ -3375,24 +3405,24 @@
         <v>29</v>
       </c>
       <c r="C61" t="str" cm="1">
-        <f t="array" ref="C61">"???"&amp;INDEX($C$5:$M$5,1,H61)&amp;INDEX($C$15:$M$15,H61)</f>
-        <v>???OLP</v>
+        <f t="array" ref="C61">"???"&amp;INDEX($C$5:$N$5,1,H61)&amp;INDEX($C$15:$N$15,H61)</f>
+        <v>???OGS</v>
       </c>
       <c r="D61" t="str" cm="1">
         <f t="array" ref="D61">INDEX($B$6:$B$13,G61)</f>
         <v>SOXS</v>
       </c>
       <c r="E61" cm="1">
-        <f t="array" ref="E61">INDEX($C$6:$M$13,G61,H61)</f>
-        <v>5.4089999999999998</v>
+        <f t="array" ref="E61">INDEX($C$6:$N$13,G61,H61)</f>
+        <v>4.6699999999999998E-2</v>
       </c>
       <c r="G61">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H61">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
     </row>
     <row r="62" spans="2:8" x14ac:dyDescent="0.25">
@@ -3400,24 +3430,24 @@
         <v>29</v>
       </c>
       <c r="C62" t="str" cm="1">
-        <f t="array" ref="C62">"???"&amp;INDEX($C$5:$M$5,1,H62)&amp;INDEX($C$15:$M$15,H62)</f>
-        <v>???WAS</v>
+        <f t="array" ref="C62">"???"&amp;INDEX($C$5:$N$5,1,H62)&amp;INDEX($C$15:$N$15,H62)</f>
+        <v>???OHF</v>
       </c>
       <c r="D62" t="str" cm="1">
         <f t="array" ref="D62">INDEX($B$6:$B$13,G62)</f>
         <v>SOXS</v>
       </c>
       <c r="E62" cm="1">
-        <f t="array" ref="E62">INDEX($C$6:$M$13,G62,H62)</f>
+        <f t="array" ref="E62">INDEX($C$6:$N$13,G62,H62)</f>
         <v>1.5290999999999999</v>
       </c>
       <c r="G62">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>4</v>
       </c>
       <c r="H62">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
     </row>
     <row r="63" spans="2:8" x14ac:dyDescent="0.25">
@@ -3425,24 +3455,24 @@
         <v>29</v>
       </c>
       <c r="C63" t="str" cm="1">
-        <f t="array" ref="C63">"???"&amp;INDEX($C$5:$M$5,1,H63)&amp;INDEX($C$15:$M$15,H63)</f>
-        <v>???COA</v>
+        <f t="array" ref="C63">"???"&amp;INDEX($C$5:$N$5,1,H63)&amp;INDEX($C$15:$N$15,H63)</f>
+        <v>???OKE,-TRAOKE</v>
       </c>
       <c r="D63" t="str" cm="1">
         <f t="array" ref="D63">INDEX($B$6:$B$13,G63)</f>
-        <v>NOXS</v>
+        <v>SOXS</v>
       </c>
       <c r="E63" cm="1">
-        <f t="array" ref="E63">INDEX($C$6:$M$13,G63,H63)</f>
-        <v>0.3</v>
+        <f t="array" ref="E63">INDEX($C$6:$N$13,G63,H63)</f>
+        <v>4.5900000000000003E-2</v>
       </c>
       <c r="G63">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="H63">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
     </row>
     <row r="64" spans="2:8" x14ac:dyDescent="0.25">
@@ -3450,24 +3480,24 @@
         <v>29</v>
       </c>
       <c r="C64" t="str" cm="1">
-        <f t="array" ref="C64">"???"&amp;INDEX($C$5:$M$5,1,H64)&amp;INDEX($C$15:$M$15,H64)</f>
-        <v>???CLE,-UPSCLE</v>
+        <f t="array" ref="C64">"???"&amp;INDEX($C$5:$N$5,1,H64)&amp;INDEX($C$15:$N$15,H64)</f>
+        <v>???OLP</v>
       </c>
       <c r="D64" t="str" cm="1">
         <f t="array" ref="D64">INDEX($B$6:$B$13,G64)</f>
-        <v>NOXS</v>
+        <v>SOXS</v>
       </c>
       <c r="E64" cm="1">
-        <f t="array" ref="E64">INDEX($C$6:$M$13,G64,H64)</f>
-        <v>0.3</v>
+        <f t="array" ref="E64">INDEX($C$6:$N$13,G64,H64)</f>
+        <v>5.4089999999999998</v>
       </c>
       <c r="G64">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="H64">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="65" spans="2:8" x14ac:dyDescent="0.25">
@@ -3475,24 +3505,24 @@
         <v>29</v>
       </c>
       <c r="C65" t="str" cm="1">
-        <f t="array" ref="C65">"???"&amp;INDEX($C$5:$M$5,1,H65)&amp;INDEX($C$15:$M$15,H65)</f>
-        <v>???CLD</v>
+        <f t="array" ref="C65">"???"&amp;INDEX($C$5:$N$5,1,H65)&amp;INDEX($C$15:$N$15,H65)</f>
+        <v>???BIW</v>
       </c>
       <c r="D65" t="str" cm="1">
         <f t="array" ref="D65">INDEX($B$6:$B$13,G65)</f>
-        <v>NOXS</v>
+        <v>SOXS</v>
       </c>
       <c r="E65" cm="1">
-        <f t="array" ref="E65">INDEX($C$6:$M$13,G65,H65)</f>
-        <v>0.3</v>
+        <f t="array" ref="E65">INDEX($C$6:$N$13,G65,H65)</f>
+        <v>0.03</v>
       </c>
       <c r="G65">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="H65">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
     </row>
     <row r="66" spans="2:8" x14ac:dyDescent="0.25">
@@ -3500,24 +3530,24 @@
         <v>29</v>
       </c>
       <c r="C66" t="str" cm="1">
-        <f t="array" ref="C66">"???"&amp;INDEX($C$5:$M$5,1,H66)&amp;INDEX($C$15:$M$15,H66)</f>
-        <v>???GAS,-UPSGAS</v>
+        <f t="array" ref="C66">"???"&amp;INDEX($C$5:$N$5,1,H66)&amp;INDEX($C$15:$N$15,H66)</f>
+        <v>???WAS</v>
       </c>
       <c r="D66" t="str" cm="1">
         <f t="array" ref="D66">INDEX($B$6:$B$13,G66)</f>
-        <v>NOXS</v>
+        <v>SOXS</v>
       </c>
       <c r="E66" cm="1">
-        <f t="array" ref="E66">INDEX($C$6:$M$13,G66,H66)</f>
-        <v>0.15</v>
+        <f t="array" ref="E66">INDEX($C$6:$N$13,G66,H66)</f>
+        <v>1.5290999999999999</v>
       </c>
       <c r="G66">
-        <f t="shared" si="1"/>
-        <v>5</v>
+        <f t="shared" si="3"/>
+        <v>4</v>
       </c>
       <c r="H66">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="2:8" x14ac:dyDescent="0.25">
@@ -3525,24 +3555,24 @@
         <v>29</v>
       </c>
       <c r="C67" t="str" cm="1">
-        <f t="array" ref="C67">"???"&amp;INDEX($C$5:$M$5,1,H67)&amp;INDEX($C$15:$M$15,H67)</f>
-        <v>???OAG</v>
+        <f t="array" ref="C67">"???"&amp;INDEX($C$5:$N$5,1,H67)&amp;INDEX($C$15:$N$15,H67)</f>
+        <v>???COA</v>
       </c>
       <c r="D67" t="str" cm="1">
         <f t="array" ref="D67">INDEX($B$6:$B$13,G67)</f>
         <v>NOXS</v>
       </c>
       <c r="E67" cm="1">
-        <f t="array" ref="E67">INDEX($C$6:$M$13,G67,H67)</f>
+        <f t="array" ref="E67">INDEX($C$6:$N$13,G67,H67)</f>
         <v>0.3</v>
       </c>
       <c r="G67">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H67">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="68" spans="2:8" x14ac:dyDescent="0.25">
@@ -3550,24 +3580,24 @@
         <v>29</v>
       </c>
       <c r="C68" t="str" cm="1">
-        <f t="array" ref="C68">"???"&amp;INDEX($C$5:$M$5,1,H68)&amp;INDEX($C$15:$M$15,H68)</f>
-        <v>???ODS</v>
+        <f t="array" ref="C68">"???"&amp;INDEX($C$5:$N$5,1,H68)&amp;INDEX($C$15:$N$15,H68)</f>
+        <v>???CLE,-UPSCLE</v>
       </c>
       <c r="D68" t="str" cm="1">
         <f t="array" ref="D68">INDEX($B$6:$B$13,G68)</f>
         <v>NOXS</v>
       </c>
       <c r="E68" cm="1">
-        <f t="array" ref="E68">INDEX($C$6:$M$13,G68,H68)</f>
-        <v>0.2</v>
+        <f t="array" ref="E68">INDEX($C$6:$N$13,G68,H68)</f>
+        <v>0.3</v>
       </c>
       <c r="G68">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H68">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
     </row>
     <row r="69" spans="2:8" x14ac:dyDescent="0.25">
@@ -3575,24 +3605,24 @@
         <v>29</v>
       </c>
       <c r="C69" t="str" cm="1">
-        <f t="array" ref="C69">"???"&amp;INDEX($C$5:$M$5,1,H69)&amp;INDEX($C$15:$M$15,H69)</f>
-        <v>???OGS</v>
+        <f t="array" ref="C69">"???"&amp;INDEX($C$5:$N$5,1,H69)&amp;INDEX($C$15:$N$15,H69)</f>
+        <v>???CLD</v>
       </c>
       <c r="D69" t="str" cm="1">
         <f t="array" ref="D69">INDEX($B$6:$B$13,G69)</f>
         <v>NOXS</v>
       </c>
       <c r="E69" cm="1">
-        <f t="array" ref="E69">INDEX($C$6:$M$13,G69,H69)</f>
-        <v>0.6</v>
+        <f t="array" ref="E69">INDEX($C$6:$N$13,G69,H69)</f>
+        <v>0.3</v>
       </c>
       <c r="G69">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H69">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
     </row>
     <row r="70" spans="2:8" x14ac:dyDescent="0.25">
@@ -3600,24 +3630,24 @@
         <v>29</v>
       </c>
       <c r="C70" t="str" cm="1">
-        <f t="array" ref="C70">"???"&amp;INDEX($C$5:$M$5,1,H70)&amp;INDEX($C$15:$M$15,H70)</f>
-        <v>???OHF</v>
+        <f t="array" ref="C70">"???"&amp;INDEX($C$5:$N$5,1,H70)&amp;INDEX($C$15:$N$15,H70)</f>
+        <v>???GAS,-UPSGAS</v>
       </c>
       <c r="D70" t="str" cm="1">
         <f t="array" ref="D70">INDEX($B$6:$B$13,G70)</f>
         <v>NOXS</v>
       </c>
       <c r="E70" cm="1">
-        <f t="array" ref="E70">INDEX($C$6:$M$13,G70,H70)</f>
-        <v>0.2</v>
+        <f t="array" ref="E70">INDEX($C$6:$N$13,G70,H70)</f>
+        <v>0.15</v>
       </c>
       <c r="G70">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H70">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
     </row>
     <row r="71" spans="2:8" x14ac:dyDescent="0.25">
@@ -3625,24 +3655,24 @@
         <v>29</v>
       </c>
       <c r="C71" t="str" cm="1">
-        <f t="array" ref="C71">"???"&amp;INDEX($C$5:$M$5,1,H71)&amp;INDEX($C$15:$M$15,H71)</f>
-        <v>???OKE,-TRAOKE</v>
+        <f t="array" ref="C71">"???"&amp;INDEX($C$5:$N$5,1,H71)&amp;INDEX($C$15:$N$15,H71)</f>
+        <v>???OAG</v>
       </c>
       <c r="D71" t="str" cm="1">
         <f t="array" ref="D71">INDEX($B$6:$B$13,G71)</f>
         <v>NOXS</v>
       </c>
       <c r="E71" cm="1">
-        <f t="array" ref="E71">INDEX($C$6:$M$13,G71,H71)</f>
-        <v>0.2</v>
+        <f t="array" ref="E71">INDEX($C$6:$N$13,G71,H71)</f>
+        <v>0.3</v>
       </c>
       <c r="G71">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H71">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
     </row>
     <row r="72" spans="2:8" x14ac:dyDescent="0.25">
@@ -3650,24 +3680,24 @@
         <v>29</v>
       </c>
       <c r="C72" t="str" cm="1">
-        <f t="array" ref="C72">"???"&amp;INDEX($C$5:$M$5,1,H72)&amp;INDEX($C$15:$M$15,H72)</f>
-        <v>???OLP</v>
+        <f t="array" ref="C72">"???"&amp;INDEX($C$5:$N$5,1,H72)&amp;INDEX($C$15:$N$15,H72)</f>
+        <v>???ODS</v>
       </c>
       <c r="D72" t="str" cm="1">
         <f t="array" ref="D72">INDEX($B$6:$B$13,G72)</f>
         <v>NOXS</v>
       </c>
       <c r="E72" cm="1">
-        <f t="array" ref="E72">INDEX($C$6:$M$13,G72,H72)</f>
-        <v>1.2460000000000001E-2</v>
+        <f t="array" ref="E72">INDEX($C$6:$N$13,G72,H72)</f>
+        <v>0.2</v>
       </c>
       <c r="G72">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H72">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
     </row>
     <row r="73" spans="2:8" x14ac:dyDescent="0.25">
@@ -3675,24 +3705,24 @@
         <v>29</v>
       </c>
       <c r="C73" t="str" cm="1">
-        <f t="array" ref="C73">"???"&amp;INDEX($C$5:$M$5,1,H73)&amp;INDEX($C$15:$M$15,H73)</f>
-        <v>???WAS</v>
+        <f t="array" ref="C73">"???"&amp;INDEX($C$5:$N$5,1,H73)&amp;INDEX($C$15:$N$15,H73)</f>
+        <v>???OGS</v>
       </c>
       <c r="D73" t="str" cm="1">
         <f t="array" ref="D73">INDEX($B$6:$B$13,G73)</f>
         <v>NOXS</v>
       </c>
       <c r="E73" cm="1">
-        <f t="array" ref="E73">INDEX($C$6:$M$13,G73,H73)</f>
-        <v>0.2</v>
+        <f t="array" ref="E73">INDEX($C$6:$N$13,G73,H73)</f>
+        <v>0.6</v>
       </c>
       <c r="G73">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>5</v>
       </c>
       <c r="H73">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
     </row>
     <row r="74" spans="2:8" x14ac:dyDescent="0.25">
@@ -3700,24 +3730,24 @@
         <v>29</v>
       </c>
       <c r="C74" t="str" cm="1">
-        <f t="array" ref="C74">"???"&amp;INDEX($C$5:$M$5,1,H74)&amp;INDEX($C$15:$M$15,H74)</f>
-        <v>???COA</v>
+        <f t="array" ref="C74">"???"&amp;INDEX($C$5:$N$5,1,H74)&amp;INDEX($C$15:$N$15,H74)</f>
+        <v>???OHF</v>
       </c>
       <c r="D74" t="str" cm="1">
         <f t="array" ref="D74">INDEX($B$6:$B$13,G74)</f>
-        <v>CMOX</v>
+        <v>NOXS</v>
       </c>
       <c r="E74" cm="1">
-        <f t="array" ref="E74">INDEX($C$6:$M$13,G74,H74)</f>
-        <v>0.02</v>
+        <f t="array" ref="E74">INDEX($C$6:$N$13,G74,H74)</f>
+        <v>0.2</v>
       </c>
       <c r="G74">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="H74">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
     </row>
     <row r="75" spans="2:8" x14ac:dyDescent="0.25">
@@ -3725,24 +3755,24 @@
         <v>29</v>
       </c>
       <c r="C75" t="str" cm="1">
-        <f t="array" ref="C75">"???"&amp;INDEX($C$5:$M$5,1,H75)&amp;INDEX($C$15:$M$15,H75)</f>
-        <v>???CLE,-UPSCLE</v>
+        <f t="array" ref="C75">"???"&amp;INDEX($C$5:$N$5,1,H75)&amp;INDEX($C$15:$N$15,H75)</f>
+        <v>???OKE,-TRAOKE</v>
       </c>
       <c r="D75" t="str" cm="1">
         <f t="array" ref="D75">INDEX($B$6:$B$13,G75)</f>
-        <v>CMOX</v>
+        <v>NOXS</v>
       </c>
       <c r="E75" cm="1">
-        <f t="array" ref="E75">INDEX($C$6:$M$13,G75,H75)</f>
-        <v>0.02</v>
+        <f t="array" ref="E75">INDEX($C$6:$N$13,G75,H75)</f>
+        <v>0.2</v>
       </c>
       <c r="G75">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="H75">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
     </row>
     <row r="76" spans="2:8" x14ac:dyDescent="0.25">
@@ -3750,24 +3780,24 @@
         <v>29</v>
       </c>
       <c r="C76" t="str" cm="1">
-        <f t="array" ref="C76">"???"&amp;INDEX($C$5:$M$5,1,H76)&amp;INDEX($C$15:$M$15,H76)</f>
-        <v>???CLD</v>
+        <f t="array" ref="C76">"???"&amp;INDEX($C$5:$N$5,1,H76)&amp;INDEX($C$15:$N$15,H76)</f>
+        <v>???OLP</v>
       </c>
       <c r="D76" t="str" cm="1">
         <f t="array" ref="D76">INDEX($B$6:$B$13,G76)</f>
-        <v>CMOX</v>
+        <v>NOXS</v>
       </c>
       <c r="E76" cm="1">
-        <f t="array" ref="E76">INDEX($C$6:$M$13,G76,H76)</f>
-        <v>0.02</v>
+        <f t="array" ref="E76">INDEX($C$6:$N$13,G76,H76)</f>
+        <v>1.2460000000000001E-2</v>
       </c>
       <c r="G76">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="H76">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="2:8" x14ac:dyDescent="0.25">
@@ -3775,24 +3805,24 @@
         <v>29</v>
       </c>
       <c r="C77" t="str" cm="1">
-        <f t="array" ref="C77">"???"&amp;INDEX($C$5:$M$5,1,H77)&amp;INDEX($C$15:$M$15,H77)</f>
-        <v>???GAS,-UPSGAS</v>
+        <f t="array" ref="C77">"???"&amp;INDEX($C$5:$N$5,1,H77)&amp;INDEX($C$15:$N$15,H77)</f>
+        <v>???BIW</v>
       </c>
       <c r="D77" t="str" cm="1">
         <f t="array" ref="D77">INDEX($B$6:$B$13,G77)</f>
-        <v>CMOX</v>
+        <v>NOXS</v>
       </c>
       <c r="E77" cm="1">
-        <f t="array" ref="E77">INDEX($C$6:$M$13,G77,H77)</f>
-        <v>0.02</v>
+        <f t="array" ref="E77">INDEX($C$6:$N$13,G77,H77)</f>
+        <v>0.15</v>
       </c>
       <c r="G77">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="H77">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
     </row>
     <row r="78" spans="2:8" x14ac:dyDescent="0.25">
@@ -3800,24 +3830,24 @@
         <v>29</v>
       </c>
       <c r="C78" t="str" cm="1">
-        <f t="array" ref="C78">"???"&amp;INDEX($C$5:$M$5,1,H78)&amp;INDEX($C$15:$M$15,H78)</f>
-        <v>???OAG</v>
+        <f t="array" ref="C78">"???"&amp;INDEX($C$5:$N$5,1,H78)&amp;INDEX($C$15:$N$15,H78)</f>
+        <v>???WAS</v>
       </c>
       <c r="D78" t="str" cm="1">
         <f t="array" ref="D78">INDEX($B$6:$B$13,G78)</f>
-        <v>CMOX</v>
+        <v>NOXS</v>
       </c>
       <c r="E78" cm="1">
-        <f t="array" ref="E78">INDEX($C$6:$M$13,G78,H78)</f>
-        <v>0.1</v>
+        <f t="array" ref="E78">INDEX($C$6:$N$13,G78,H78)</f>
+        <v>0.2</v>
       </c>
       <c r="G78">
-        <f t="shared" si="1"/>
-        <v>6</v>
+        <f t="shared" si="3"/>
+        <v>5</v>
       </c>
       <c r="H78">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="2:8" x14ac:dyDescent="0.25">
@@ -3825,24 +3855,24 @@
         <v>29</v>
       </c>
       <c r="C79" t="str" cm="1">
-        <f t="array" ref="C79">"???"&amp;INDEX($C$5:$M$5,1,H79)&amp;INDEX($C$15:$M$15,H79)</f>
-        <v>???ODS</v>
+        <f t="array" ref="C79">"???"&amp;INDEX($C$5:$N$5,1,H79)&amp;INDEX($C$15:$N$15,H79)</f>
+        <v>???COA</v>
       </c>
       <c r="D79" t="str" cm="1">
         <f t="array" ref="D79">INDEX($B$6:$B$13,G79)</f>
         <v>CMOX</v>
       </c>
       <c r="E79" cm="1">
-        <f t="array" ref="E79">INDEX($C$6:$M$13,G79,H79)</f>
-        <v>1.4999999999999999E-2</v>
+        <f t="array" ref="E79">INDEX($C$6:$N$13,G79,H79)</f>
+        <v>0.02</v>
       </c>
       <c r="G79">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H79">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="80" spans="2:8" x14ac:dyDescent="0.25">
@@ -3850,24 +3880,24 @@
         <v>29</v>
       </c>
       <c r="C80" t="str" cm="1">
-        <f t="array" ref="C80">"???"&amp;INDEX($C$5:$M$5,1,H80)&amp;INDEX($C$15:$M$15,H80)</f>
-        <v>???OGS</v>
+        <f t="array" ref="C80">"???"&amp;INDEX($C$5:$N$5,1,H80)&amp;INDEX($C$15:$N$15,H80)</f>
+        <v>???CLE,-UPSCLE</v>
       </c>
       <c r="D80" t="str" cm="1">
         <f t="array" ref="D80">INDEX($B$6:$B$13,G80)</f>
         <v>CMOX</v>
       </c>
       <c r="E80" cm="1">
-        <f t="array" ref="E80">INDEX($C$6:$M$13,G80,H80)</f>
-        <v>8</v>
+        <f t="array" ref="E80">INDEX($C$6:$N$13,G80,H80)</f>
+        <v>0.02</v>
       </c>
       <c r="G80">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H80">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="2:8" x14ac:dyDescent="0.25">
@@ -3875,24 +3905,24 @@
         <v>29</v>
       </c>
       <c r="C81" t="str" cm="1">
-        <f t="array" ref="C81">"???"&amp;INDEX($C$5:$M$5,1,H81)&amp;INDEX($C$15:$M$15,H81)</f>
-        <v>???OHF</v>
+        <f t="array" ref="C81">"???"&amp;INDEX($C$5:$N$5,1,H81)&amp;INDEX($C$15:$N$15,H81)</f>
+        <v>???CLD</v>
       </c>
       <c r="D81" t="str" cm="1">
         <f t="array" ref="D81">INDEX($B$6:$B$13,G81)</f>
         <v>CMOX</v>
       </c>
       <c r="E81" cm="1">
-        <f t="array" ref="E81">INDEX($C$6:$M$13,G81,H81)</f>
-        <v>0.01</v>
+        <f t="array" ref="E81">INDEX($C$6:$N$13,G81,H81)</f>
+        <v>0.02</v>
       </c>
       <c r="G81">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H81">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
     </row>
     <row r="82" spans="2:8" x14ac:dyDescent="0.25">
@@ -3900,24 +3930,24 @@
         <v>29</v>
       </c>
       <c r="C82" t="str" cm="1">
-        <f t="array" ref="C82">"???"&amp;INDEX($C$5:$M$5,1,H82)&amp;INDEX($C$15:$M$15,H82)</f>
-        <v>???OKE,-TRAOKE</v>
+        <f t="array" ref="C82">"???"&amp;INDEX($C$5:$N$5,1,H82)&amp;INDEX($C$15:$N$15,H82)</f>
+        <v>???GAS,-UPSGAS</v>
       </c>
       <c r="D82" t="str" cm="1">
         <f t="array" ref="D82">INDEX($B$6:$B$13,G82)</f>
         <v>CMOX</v>
       </c>
       <c r="E82" cm="1">
-        <f t="array" ref="E82">INDEX($C$6:$M$13,G82,H82)</f>
-        <v>0.01</v>
+        <f t="array" ref="E82">INDEX($C$6:$N$13,G82,H82)</f>
+        <v>0.02</v>
       </c>
       <c r="G82">
-        <f t="shared" si="1"/>
+        <f t="shared" si="3"/>
         <v>6</v>
       </c>
       <c r="H82">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
     </row>
     <row r="83" spans="2:8" x14ac:dyDescent="0.25">
@@ -3925,24 +3955,24 @@
         <v>29</v>
       </c>
       <c r="C83" t="str" cm="1">
-        <f t="array" ref="C83">"???"&amp;INDEX($C$5:$M$5,1,H83)&amp;INDEX($C$15:$M$15,H83)</f>
-        <v>???OLP</v>
+        <f t="array" ref="C83">"???"&amp;INDEX($C$5:$N$5,1,H83)&amp;INDEX($C$15:$N$15,H83)</f>
+        <v>???OAG</v>
       </c>
       <c r="D83" t="str" cm="1">
         <f t="array" ref="D83">INDEX($B$6:$B$13,G83)</f>
         <v>CMOX</v>
       </c>
       <c r="E83" cm="1">
-        <f t="array" ref="E83">INDEX($C$6:$M$13,G83,H83)</f>
-        <v>0.182</v>
+        <f t="array" ref="E83">INDEX($C$6:$N$13,G83,H83)</f>
+        <v>0.1</v>
       </c>
       <c r="G83">
-        <f t="shared" ref="G83:G94" si="3">IF(H82=$H$17,G82+1,G82)</f>
+        <f t="shared" ref="G83:G90" si="5">IF(H82=$H$17,G82+1,G82)</f>
         <v>6</v>
       </c>
       <c r="H83">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
     </row>
     <row r="84" spans="2:8" x14ac:dyDescent="0.25">
@@ -3950,24 +3980,24 @@
         <v>29</v>
       </c>
       <c r="C84" t="str" cm="1">
-        <f t="array" ref="C84">"???"&amp;INDEX($C$5:$M$5,1,H84)&amp;INDEX($C$15:$M$15,H84)</f>
-        <v>???WAS</v>
+        <f t="array" ref="C84">"???"&amp;INDEX($C$5:$N$5,1,H84)&amp;INDEX($C$15:$N$15,H84)</f>
+        <v>???ODS</v>
       </c>
       <c r="D84" t="str" cm="1">
         <f t="array" ref="D84">INDEX($B$6:$B$13,G84)</f>
         <v>CMOX</v>
       </c>
       <c r="E84" cm="1">
-        <f t="array" ref="E84">INDEX($C$6:$M$13,G84,H84)</f>
-        <v>0.01</v>
+        <f t="array" ref="E84">INDEX($C$6:$N$13,G84,H84)</f>
+        <v>1.4999999999999999E-2</v>
       </c>
       <c r="G84">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>6</v>
       </c>
       <c r="H84">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
     </row>
     <row r="85" spans="2:8" x14ac:dyDescent="0.25">
@@ -3975,24 +4005,24 @@
         <v>29</v>
       </c>
       <c r="C85" t="str" cm="1">
-        <f t="array" ref="C85">"???"&amp;INDEX($C$5:$M$5,1,H85)&amp;INDEX($C$15:$M$15,H85)</f>
-        <v>???COA</v>
+        <f t="array" ref="C85">"???"&amp;INDEX($C$5:$N$5,1,H85)&amp;INDEX($C$15:$N$15,H85)</f>
+        <v>???OGS</v>
       </c>
       <c r="D85" t="str" cm="1">
         <f t="array" ref="D85">INDEX($B$6:$B$13,G85)</f>
-        <v>NMVS</v>
+        <v>CMOX</v>
       </c>
       <c r="E85" cm="1">
-        <f t="array" ref="E85">INDEX($C$6:$M$13,G85,H85)</f>
-        <v>5.0000000000000001E-3</v>
+        <f t="array" ref="E85">INDEX($C$6:$N$13,G85,H85)</f>
+        <v>8</v>
       </c>
       <c r="G85">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
+        <v>6</v>
+      </c>
+      <c r="H85">
+        <f t="shared" si="4"/>
         <v>7</v>
-      </c>
-      <c r="H85">
-        <f t="shared" si="2"/>
-        <v>1</v>
       </c>
     </row>
     <row r="86" spans="2:8" x14ac:dyDescent="0.25">
@@ -4000,24 +4030,24 @@
         <v>29</v>
       </c>
       <c r="C86" t="str" cm="1">
-        <f t="array" ref="C86">"???"&amp;INDEX($C$5:$M$5,1,H86)&amp;INDEX($C$15:$M$15,H86)</f>
-        <v>???CLE,-UPSCLE</v>
+        <f t="array" ref="C86">"???"&amp;INDEX($C$5:$N$5,1,H86)&amp;INDEX($C$15:$N$15,H86)</f>
+        <v>???OHF</v>
       </c>
       <c r="D86" t="str" cm="1">
         <f t="array" ref="D86">INDEX($B$6:$B$13,G86)</f>
-        <v>NMVS</v>
+        <v>CMOX</v>
       </c>
       <c r="E86" cm="1">
-        <f t="array" ref="E86">INDEX($C$6:$M$13,G86,H86)</f>
-        <v>5.0000000000000001E-3</v>
+        <f t="array" ref="E86">INDEX($C$6:$N$13,G86,H86)</f>
+        <v>0.01</v>
       </c>
       <c r="G86">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="H86">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>8</v>
       </c>
     </row>
     <row r="87" spans="2:8" x14ac:dyDescent="0.25">
@@ -4025,24 +4055,24 @@
         <v>29</v>
       </c>
       <c r="C87" t="str" cm="1">
-        <f t="array" ref="C87">"???"&amp;INDEX($C$5:$M$5,1,H87)&amp;INDEX($C$15:$M$15,H87)</f>
-        <v>???CLD</v>
+        <f t="array" ref="C87">"???"&amp;INDEX($C$5:$N$5,1,H87)&amp;INDEX($C$15:$N$15,H87)</f>
+        <v>???OKE,-TRAOKE</v>
       </c>
       <c r="D87" t="str" cm="1">
         <f t="array" ref="D87">INDEX($B$6:$B$13,G87)</f>
-        <v>NMVS</v>
+        <v>CMOX</v>
       </c>
       <c r="E87" cm="1">
-        <f t="array" ref="E87">INDEX($C$6:$M$13,G87,H87)</f>
-        <v>5.0000000000000001E-3</v>
+        <f t="array" ref="E87">INDEX($C$6:$N$13,G87,H87)</f>
+        <v>0.01</v>
       </c>
       <c r="G87">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="H87">
-        <f t="shared" si="2"/>
-        <v>3</v>
+        <f t="shared" si="4"/>
+        <v>9</v>
       </c>
     </row>
     <row r="88" spans="2:8" x14ac:dyDescent="0.25">
@@ -4050,24 +4080,24 @@
         <v>29</v>
       </c>
       <c r="C88" t="str" cm="1">
-        <f t="array" ref="C88">"???"&amp;INDEX($C$5:$M$5,1,H88)&amp;INDEX($C$15:$M$15,H88)</f>
-        <v>???GAS,-UPSGAS</v>
+        <f t="array" ref="C88">"???"&amp;INDEX($C$5:$N$5,1,H88)&amp;INDEX($C$15:$N$15,H88)</f>
+        <v>???OLP</v>
       </c>
       <c r="D88" t="str" cm="1">
         <f t="array" ref="D88">INDEX($B$6:$B$13,G88)</f>
-        <v>NMVS</v>
+        <v>CMOX</v>
       </c>
       <c r="E88" cm="1">
-        <f t="array" ref="E88">INDEX($C$6:$M$13,G88,H88)</f>
-        <v>5.0000000000000001E-3</v>
+        <f t="array" ref="E88">INDEX($C$6:$N$13,G88,H88)</f>
+        <v>0.182</v>
       </c>
       <c r="G88">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="H88">
-        <f t="shared" si="2"/>
-        <v>4</v>
+        <f t="shared" si="4"/>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="2:8" x14ac:dyDescent="0.25">
@@ -4075,24 +4105,24 @@
         <v>29</v>
       </c>
       <c r="C89" t="str" cm="1">
-        <f t="array" ref="C89">"???"&amp;INDEX($C$5:$M$5,1,H89)&amp;INDEX($C$15:$M$15,H89)</f>
-        <v>???OAG</v>
+        <f t="array" ref="C89">"???"&amp;INDEX($C$5:$N$5,1,H89)&amp;INDEX($C$15:$N$15,H89)</f>
+        <v>???BIW</v>
       </c>
       <c r="D89" t="str" cm="1">
         <f t="array" ref="D89">INDEX($B$6:$B$13,G89)</f>
-        <v>NMVS</v>
+        <v>CMOX</v>
       </c>
       <c r="E89" cm="1">
-        <f t="array" ref="E89">INDEX($C$6:$M$13,G89,H89)</f>
-        <v>0.05</v>
+        <f t="array" ref="E89">INDEX($C$6:$N$13,G89,H89)</f>
+        <v>2.6</v>
       </c>
       <c r="G89">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="H89">
-        <f t="shared" si="2"/>
-        <v>5</v>
+        <f t="shared" si="4"/>
+        <v>11</v>
       </c>
     </row>
     <row r="90" spans="2:8" x14ac:dyDescent="0.25">
@@ -4100,24 +4130,24 @@
         <v>29</v>
       </c>
       <c r="C90" t="str" cm="1">
-        <f t="array" ref="C90">"???"&amp;INDEX($C$5:$M$5,1,H90)&amp;INDEX($C$15:$M$15,H90)</f>
-        <v>???ODS</v>
+        <f t="array" ref="C90">"???"&amp;INDEX($C$5:$N$5,1,H90)&amp;INDEX($C$15:$N$15,H90)</f>
+        <v>???WAS</v>
       </c>
       <c r="D90" t="str" cm="1">
         <f t="array" ref="D90">INDEX($B$6:$B$13,G90)</f>
-        <v>NMVS</v>
+        <v>CMOX</v>
       </c>
       <c r="E90" cm="1">
-        <f t="array" ref="E90">INDEX($C$6:$M$13,G90,H90)</f>
-        <v>5.0000000000000001E-3</v>
+        <f t="array" ref="E90">INDEX($C$6:$N$13,G90,H90)</f>
+        <v>0.01</v>
       </c>
       <c r="G90">
-        <f t="shared" si="3"/>
-        <v>7</v>
+        <f t="shared" si="5"/>
+        <v>6</v>
       </c>
       <c r="H90">
-        <f t="shared" si="2"/>
-        <v>6</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="2:8" x14ac:dyDescent="0.25">
@@ -4125,24 +4155,24 @@
         <v>29</v>
       </c>
       <c r="C91" t="str" cm="1">
-        <f t="array" ref="C91">"???"&amp;INDEX($C$5:$M$5,1,H91)&amp;INDEX($C$15:$M$15,H91)</f>
-        <v>???OGS</v>
+        <f t="array" ref="C91">"???"&amp;INDEX($C$5:$N$5,1,H91)&amp;INDEX($C$15:$N$15,H91)</f>
+        <v>???COA</v>
       </c>
       <c r="D91" t="str" cm="1">
         <f t="array" ref="D91">INDEX($B$6:$B$13,G91)</f>
         <v>NMVS</v>
       </c>
       <c r="E91" cm="1">
-        <f t="array" ref="E91">INDEX($C$6:$M$13,G91,H91)</f>
-        <v>1.5</v>
+        <f t="array" ref="E91">INDEX($C$6:$N$13,G91,H91)</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G91">
-        <f t="shared" ref="G91:G102" si="4">IF(H90=$H$17,G90+1,G90)</f>
+        <f t="shared" ref="G91:G98" si="6">IF(H90=$H$17,G90+1,G90)</f>
         <v>7</v>
       </c>
       <c r="H91">
-        <f t="shared" si="2"/>
-        <v>7</v>
+        <f t="shared" si="4"/>
+        <v>1</v>
       </c>
     </row>
     <row r="92" spans="2:8" x14ac:dyDescent="0.25">
@@ -4150,24 +4180,24 @@
         <v>29</v>
       </c>
       <c r="C92" t="str" cm="1">
-        <f t="array" ref="C92">"???"&amp;INDEX($C$5:$M$5,1,H92)&amp;INDEX($C$15:$M$15,H92)</f>
-        <v>???OHF</v>
+        <f t="array" ref="C92">"???"&amp;INDEX($C$5:$N$5,1,H92)&amp;INDEX($C$15:$N$15,H92)</f>
+        <v>???CLE,-UPSCLE</v>
       </c>
       <c r="D92" t="str" cm="1">
         <f t="array" ref="D92">INDEX($B$6:$B$13,G92)</f>
         <v>NMVS</v>
       </c>
       <c r="E92" cm="1">
-        <f t="array" ref="E92">INDEX($C$6:$M$13,G92,H92)</f>
+        <f t="array" ref="E92">INDEX($C$6:$N$13,G92,H92)</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G92">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="H92">
-        <f t="shared" si="2"/>
-        <v>8</v>
+        <f t="shared" si="4"/>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="2:8" x14ac:dyDescent="0.25">
@@ -4175,24 +4205,24 @@
         <v>29</v>
       </c>
       <c r="C93" t="str" cm="1">
-        <f t="array" ref="C93">"???"&amp;INDEX($C$5:$M$5,1,H93)&amp;INDEX($C$15:$M$15,H93)</f>
-        <v>???OKE,-TRAOKE</v>
+        <f t="array" ref="C93">"???"&amp;INDEX($C$5:$N$5,1,H93)&amp;INDEX($C$15:$N$15,H93)</f>
+        <v>???CLD</v>
       </c>
       <c r="D93" t="str" cm="1">
         <f t="array" ref="D93">INDEX($B$6:$B$13,G93)</f>
         <v>NMVS</v>
       </c>
       <c r="E93" cm="1">
-        <f t="array" ref="E93">INDEX($C$6:$M$13,G93,H93)</f>
+        <f t="array" ref="E93">INDEX($C$6:$N$13,G93,H93)</f>
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="G93">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="H93">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="4"/>
+        <v>3</v>
       </c>
     </row>
     <row r="94" spans="2:8" x14ac:dyDescent="0.25">
@@ -4200,24 +4230,24 @@
         <v>29</v>
       </c>
       <c r="C94" t="str" cm="1">
-        <f t="array" ref="C94">"???"&amp;INDEX($C$5:$M$5,1,H94)&amp;INDEX($C$15:$M$15,H94)</f>
-        <v>???OLP</v>
+        <f t="array" ref="C94">"???"&amp;INDEX($C$5:$N$5,1,H94)&amp;INDEX($C$15:$N$15,H94)</f>
+        <v>???GAS,-UPSGAS</v>
       </c>
       <c r="D94" t="str" cm="1">
         <f t="array" ref="D94">INDEX($B$6:$B$13,G94)</f>
         <v>NMVS</v>
       </c>
       <c r="E94" cm="1">
-        <f t="array" ref="E94">INDEX($C$6:$M$13,G94,H94)</f>
-        <v>2.3699999999999999E-2</v>
+        <f t="array" ref="E94">INDEX($C$6:$N$13,G94,H94)</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G94">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="H94">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" si="4"/>
+        <v>4</v>
       </c>
     </row>
     <row r="95" spans="2:8" x14ac:dyDescent="0.25">
@@ -4225,24 +4255,24 @@
         <v>29</v>
       </c>
       <c r="C95" t="str" cm="1">
-        <f t="array" ref="C95">"???"&amp;INDEX($C$5:$M$5,1,H95)&amp;INDEX($C$15:$M$15,H95)</f>
-        <v>???WAS</v>
+        <f t="array" ref="C95">"???"&amp;INDEX($C$5:$N$5,1,H95)&amp;INDEX($C$15:$N$15,H95)</f>
+        <v>???OAG</v>
       </c>
       <c r="D95" t="str" cm="1">
         <f t="array" ref="D95">INDEX($B$6:$B$13,G95)</f>
         <v>NMVS</v>
       </c>
       <c r="E95" cm="1">
-        <f t="array" ref="E95">INDEX($C$6:$M$13,G95,H95)</f>
-        <v>5.0000000000000001E-3</v>
+        <f t="array" ref="E95">INDEX($C$6:$N$13,G95,H95)</f>
+        <v>0.05</v>
       </c>
       <c r="G95">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>7</v>
       </c>
       <c r="H95">
-        <f t="shared" si="2"/>
-        <v>11</v>
+        <f t="shared" si="4"/>
+        <v>5</v>
       </c>
     </row>
     <row r="96" spans="2:8" x14ac:dyDescent="0.25">
@@ -4250,24 +4280,24 @@
         <v>29</v>
       </c>
       <c r="C96" t="str" cm="1">
-        <f t="array" ref="C96">"???"&amp;INDEX($C$5:$M$5,1,H96)&amp;INDEX($C$15:$M$15,H96)</f>
-        <v>???COA</v>
+        <f t="array" ref="C96">"???"&amp;INDEX($C$5:$N$5,1,H96)&amp;INDEX($C$15:$N$15,H96)</f>
+        <v>???ODS</v>
       </c>
       <c r="D96" t="str" cm="1">
         <f t="array" ref="D96">INDEX($B$6:$B$13,G96)</f>
-        <v>PM10S</v>
+        <v>NMVS</v>
       </c>
       <c r="E96" cm="1">
-        <f t="array" ref="E96">INDEX($C$6:$M$13,G96,H96)</f>
-        <v>4.5769644752755773E-2</v>
+        <f t="array" ref="E96">INDEX($C$6:$N$13,G96,H96)</f>
+        <v>5.0000000000000001E-3</v>
       </c>
       <c r="G96">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="H96">
-        <f t="shared" si="2"/>
-        <v>1</v>
+        <f t="shared" si="4"/>
+        <v>6</v>
       </c>
     </row>
     <row r="97" spans="2:8" x14ac:dyDescent="0.25">
@@ -4275,24 +4305,24 @@
         <v>29</v>
       </c>
       <c r="C97" t="str" cm="1">
-        <f t="array" ref="C97">"???"&amp;INDEX($C$5:$M$5,1,H97)&amp;INDEX($C$15:$M$15,H97)</f>
-        <v>???CLE,-UPSCLE</v>
+        <f t="array" ref="C97">"???"&amp;INDEX($C$5:$N$5,1,H97)&amp;INDEX($C$15:$N$15,H97)</f>
+        <v>???OGS</v>
       </c>
       <c r="D97" t="str" cm="1">
         <f t="array" ref="D97">INDEX($B$6:$B$13,G97)</f>
-        <v>PM10S</v>
+        <v>NMVS</v>
       </c>
       <c r="E97" cm="1">
-        <f t="array" ref="E97">INDEX($C$6:$M$13,G97,H97)</f>
-        <v>4.5769644752755773E-2</v>
+        <f t="array" ref="E97">INDEX($C$6:$N$13,G97,H97)</f>
+        <v>1.5</v>
       </c>
       <c r="G97">
-        <f t="shared" si="4"/>
-        <v>8</v>
+        <f t="shared" si="6"/>
+        <v>7</v>
       </c>
       <c r="H97">
-        <f t="shared" si="2"/>
-        <v>2</v>
+        <f t="shared" si="4"/>
+        <v>7</v>
       </c>
     </row>
     <row r="98" spans="2:8" x14ac:dyDescent="0.25">
@@ -4300,24 +4330,424 @@
         <v>29</v>
       </c>
       <c r="C98" t="str" cm="1">
-        <f t="array" ref="C98">"???"&amp;INDEX($C$5:$M$5,1,H98)&amp;INDEX($C$15:$M$15,H98)</f>
-        <v>???CLD</v>
+        <f t="array" ref="C98">"???"&amp;INDEX($C$5:$N$5,1,H98)&amp;INDEX($C$15:$N$15,H98)</f>
+        <v>???OHF</v>
       </c>
       <c r="D98" t="str" cm="1">
         <f t="array" ref="D98">INDEX($B$6:$B$13,G98)</f>
+        <v>NMVS</v>
+      </c>
+      <c r="E98" cm="1">
+        <f t="array" ref="E98">INDEX($C$6:$N$13,G98,H98)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="H98">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B99" t="s">
+        <v>29</v>
+      </c>
+      <c r="C99" t="str" cm="1">
+        <f t="array" ref="C99">"???"&amp;INDEX($C$5:$N$5,1,H99)&amp;INDEX($C$15:$N$15,H99)</f>
+        <v>???OKE,-TRAOKE</v>
+      </c>
+      <c r="D99" t="str" cm="1">
+        <f t="array" ref="D99">INDEX($B$6:$B$13,G99)</f>
+        <v>NMVS</v>
+      </c>
+      <c r="E99" cm="1">
+        <f t="array" ref="E99">INDEX($C$6:$N$13,G99,H99)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G99">
+        <f t="shared" ref="G99:G127" si="7">IF(H98=$H$17,G98+1,G98)</f>
+        <v>7</v>
+      </c>
+      <c r="H99">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="100" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B100" t="s">
+        <v>29</v>
+      </c>
+      <c r="C100" t="str" cm="1">
+        <f t="array" ref="C100">"???"&amp;INDEX($C$5:$N$5,1,H100)&amp;INDEX($C$15:$N$15,H100)</f>
+        <v>???OLP</v>
+      </c>
+      <c r="D100" t="str" cm="1">
+        <f t="array" ref="D100">INDEX($B$6:$B$13,G100)</f>
+        <v>NMVS</v>
+      </c>
+      <c r="E100" cm="1">
+        <f t="array" ref="E100">INDEX($C$6:$N$13,G100,H100)</f>
+        <v>2.3699999999999999E-2</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="H100">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="101" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B101" t="s">
+        <v>29</v>
+      </c>
+      <c r="C101" t="str" cm="1">
+        <f t="array" ref="C101">"???"&amp;INDEX($C$5:$N$5,1,H101)&amp;INDEX($C$15:$N$15,H101)</f>
+        <v>???BIW</v>
+      </c>
+      <c r="D101" t="str" cm="1">
+        <f t="array" ref="D101">INDEX($B$6:$B$13,G101)</f>
+        <v>NMVS</v>
+      </c>
+      <c r="E101" cm="1">
+        <f t="array" ref="E101">INDEX($C$6:$N$13,G101,H101)</f>
+        <v>0.04</v>
+      </c>
+      <c r="G101">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="H101">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="102" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B102" t="s">
+        <v>29</v>
+      </c>
+      <c r="C102" t="str" cm="1">
+        <f t="array" ref="C102">"???"&amp;INDEX($C$5:$N$5,1,H102)&amp;INDEX($C$15:$N$15,H102)</f>
+        <v>???WAS</v>
+      </c>
+      <c r="D102" t="str" cm="1">
+        <f t="array" ref="D102">INDEX($B$6:$B$13,G102)</f>
+        <v>NMVS</v>
+      </c>
+      <c r="E102" cm="1">
+        <f t="array" ref="E102">INDEX($C$6:$N$13,G102,H102)</f>
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="G102">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="H102">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="103" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B103" t="s">
+        <v>29</v>
+      </c>
+      <c r="C103" t="str" cm="1">
+        <f t="array" ref="C103">"???"&amp;INDEX($C$5:$N$5,1,H103)&amp;INDEX($C$15:$N$15,H103)</f>
+        <v>???COA</v>
+      </c>
+      <c r="D103" t="str" cm="1">
+        <f t="array" ref="D103">INDEX($B$6:$B$13,G103)</f>
         <v>PM10S</v>
       </c>
-      <c r="E98" cm="1">
-        <f t="array" ref="E98">INDEX($C$6:$M$13,G98,H98)</f>
+      <c r="E103" cm="1">
+        <f t="array" ref="E103">INDEX($C$6:$N$13,G103,H103)</f>
         <v>4.5769644752755773E-2</v>
       </c>
-      <c r="G98">
-        <f t="shared" si="4"/>
+      <c r="G103">
+        <f t="shared" si="7"/>
         <v>8</v>
       </c>
-      <c r="H98">
-        <f t="shared" si="2"/>
+      <c r="H103">
+        <f t="shared" si="4"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="104" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B104" t="s">
+        <v>29</v>
+      </c>
+      <c r="C104" t="str" cm="1">
+        <f t="array" ref="C104">"???"&amp;INDEX($C$5:$N$5,1,H104)&amp;INDEX($C$15:$N$15,H104)</f>
+        <v>???CLE,-UPSCLE</v>
+      </c>
+      <c r="D104" t="str" cm="1">
+        <f t="array" ref="D104">INDEX($B$6:$B$13,G104)</f>
+        <v>PM10S</v>
+      </c>
+      <c r="E104" cm="1">
+        <f t="array" ref="E104">INDEX($C$6:$N$13,G104,H104)</f>
+        <v>4.5769644752755773E-2</v>
+      </c>
+      <c r="G104">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="H104">
+        <f t="shared" si="4"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B105" t="s">
+        <v>29</v>
+      </c>
+      <c r="C105" t="str" cm="1">
+        <f t="array" ref="C105">"???"&amp;INDEX($C$5:$N$5,1,H105)&amp;INDEX($C$15:$N$15,H105)</f>
+        <v>???CLD</v>
+      </c>
+      <c r="D105" t="str" cm="1">
+        <f t="array" ref="D105">INDEX($B$6:$B$13,G105)</f>
+        <v>PM10S</v>
+      </c>
+      <c r="E105" cm="1">
+        <f t="array" ref="E105">INDEX($C$6:$N$13,G105,H105)</f>
+        <v>4.5769644752755773E-2</v>
+      </c>
+      <c r="G105">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="H105">
+        <f t="shared" si="4"/>
         <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B106" t="s">
+        <v>29</v>
+      </c>
+      <c r="C106" t="str" cm="1">
+        <f t="array" ref="C106">"???"&amp;INDEX($C$5:$N$5,1,H106)&amp;INDEX($C$15:$N$15,H106)</f>
+        <v>???GAS,-UPSGAS</v>
+      </c>
+      <c r="D106" t="str" cm="1">
+        <f t="array" ref="D106">INDEX($B$6:$B$13,G106)</f>
+        <v>PM10S</v>
+      </c>
+      <c r="E106" cm="1">
+        <f t="array" ref="E106">INDEX($C$6:$N$13,G106,H106)</f>
+        <v>0</v>
+      </c>
+      <c r="G106">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="H106">
+        <f t="shared" si="4"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="107" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B107" t="s">
+        <v>29</v>
+      </c>
+      <c r="C107" t="str" cm="1">
+        <f t="array" ref="C107">"???"&amp;INDEX($C$5:$N$5,1,H107)&amp;INDEX($C$15:$N$15,H107)</f>
+        <v>???OAG</v>
+      </c>
+      <c r="D107" t="str" cm="1">
+        <f t="array" ref="D107">INDEX($B$6:$B$13,G107)</f>
+        <v>PM10S</v>
+      </c>
+      <c r="E107" cm="1">
+        <f t="array" ref="E107">INDEX($C$6:$N$13,G107,H107)</f>
+        <v>0</v>
+      </c>
+      <c r="G107">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="H107">
+        <f t="shared" si="4"/>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B108" t="s">
+        <v>29</v>
+      </c>
+      <c r="C108" t="str" cm="1">
+        <f t="array" ref="C108">"???"&amp;INDEX($C$5:$N$5,1,H108)&amp;INDEX($C$15:$N$15,H108)</f>
+        <v>???ODS</v>
+      </c>
+      <c r="D108" t="str" cm="1">
+        <f t="array" ref="D108">INDEX($B$6:$B$13,G108)</f>
+        <v>PM10S</v>
+      </c>
+      <c r="E108" cm="1">
+        <f t="array" ref="E108">INDEX($C$6:$N$13,G108,H108)</f>
+        <v>0</v>
+      </c>
+      <c r="G108">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="H108">
+        <f t="shared" si="4"/>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="109" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B109" t="s">
+        <v>29</v>
+      </c>
+      <c r="C109" t="str" cm="1">
+        <f t="array" ref="C109">"???"&amp;INDEX($C$5:$N$5,1,H109)&amp;INDEX($C$15:$N$15,H109)</f>
+        <v>???OGS</v>
+      </c>
+      <c r="D109" t="str" cm="1">
+        <f t="array" ref="D109">INDEX($B$6:$B$13,G109)</f>
+        <v>PM10S</v>
+      </c>
+      <c r="E109" cm="1">
+        <f t="array" ref="E109">INDEX($C$6:$N$13,G109,H109)</f>
+        <v>0</v>
+      </c>
+      <c r="G109">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="H109">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+    </row>
+    <row r="110" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B110" t="s">
+        <v>29</v>
+      </c>
+      <c r="C110" t="str" cm="1">
+        <f t="array" ref="C110">"???"&amp;INDEX($C$5:$N$5,1,H110)&amp;INDEX($C$15:$N$15,H110)</f>
+        <v>???OHF</v>
+      </c>
+      <c r="D110" t="str" cm="1">
+        <f t="array" ref="D110">INDEX($B$6:$B$13,G110)</f>
+        <v>PM10S</v>
+      </c>
+      <c r="E110" cm="1">
+        <f t="array" ref="E110">INDEX($C$6:$N$13,G110,H110)</f>
+        <v>0</v>
+      </c>
+      <c r="G110">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="H110">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B111" t="s">
+        <v>29</v>
+      </c>
+      <c r="C111" t="str" cm="1">
+        <f t="array" ref="C111">"???"&amp;INDEX($C$5:$N$5,1,H111)&amp;INDEX($C$15:$N$15,H111)</f>
+        <v>???OKE,-TRAOKE</v>
+      </c>
+      <c r="D111" t="str" cm="1">
+        <f t="array" ref="D111">INDEX($B$6:$B$13,G111)</f>
+        <v>PM10S</v>
+      </c>
+      <c r="E111" cm="1">
+        <f t="array" ref="E111">INDEX($C$6:$N$13,G111,H111)</f>
+        <v>0</v>
+      </c>
+      <c r="G111">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="H111">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="112" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B112" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" t="str" cm="1">
+        <f t="array" ref="C112">"???"&amp;INDEX($C$5:$N$5,1,H112)&amp;INDEX($C$15:$N$15,H112)</f>
+        <v>???OLP</v>
+      </c>
+      <c r="D112" t="str" cm="1">
+        <f t="array" ref="D112">INDEX($B$6:$B$13,G112)</f>
+        <v>PM10S</v>
+      </c>
+      <c r="E112" cm="1">
+        <f t="array" ref="E112">INDEX($C$6:$N$13,G112,H112)</f>
+        <v>0</v>
+      </c>
+      <c r="G112">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="H112">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="113" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B113" t="s">
+        <v>29</v>
+      </c>
+      <c r="C113" t="str" cm="1">
+        <f t="array" ref="C113">"???"&amp;INDEX($C$5:$N$5,1,H113)&amp;INDEX($C$15:$N$15,H113)</f>
+        <v>???BIW</v>
+      </c>
+      <c r="D113" t="str" cm="1">
+        <f t="array" ref="D113">INDEX($B$6:$B$13,G113)</f>
+        <v>PM10S</v>
+      </c>
+      <c r="E113" cm="1">
+        <f t="array" ref="E113">INDEX($C$6:$N$13,G113,H113)</f>
+        <v>0.12</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="H113">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="114" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B114" t="s">
+        <v>29</v>
+      </c>
+      <c r="C114" t="str" cm="1">
+        <f t="array" ref="C114">"???"&amp;INDEX($C$5:$N$5,1,H114)&amp;INDEX($C$15:$N$15,H114)</f>
+        <v>???WAS</v>
+      </c>
+      <c r="D114" t="str" cm="1">
+        <f t="array" ref="D114">INDEX($B$6:$B$13,G114)</f>
+        <v>PM10S</v>
+      </c>
+      <c r="E114" cm="1">
+        <f t="array" ref="E114">INDEX($C$6:$N$13,G114,H114)</f>
+        <v>0</v>
+      </c>
+      <c r="G114">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="H114">
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
